--- a/tool/e2e-tests/test-packs/Supplier 1 Test Pack.xlsx
+++ b/tool/e2e-tests/test-packs/Supplier 1 Test Pack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\clients\NHS\electronic-prescription-service-api\tool\e2e-tests\test-packs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621647CE-5F4D-40DF-89C0-081279B97E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA0A671-0481-473A-9F45-E710087E2C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" activeTab="1" xr2:uid="{DE2866F1-D839-4AD2-B338-FF4A1D84F7C7}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{DE2866F1-D839-4AD2-B338-FF4A1D84F7C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7079" uniqueCount="3352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7080" uniqueCount="3353">
   <si>
     <t>Quantity</t>
   </si>
@@ -10096,7 +10096,10 @@
     <t>0125</t>
   </si>
   <si>
-    <t>0200</t>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>Supported Prescription Types in Test-Packs so far: 0101, 0104, 0105, 0108, 0125 and 10**</t>
   </si>
 </sst>
 </file>
@@ -10234,10 +10237,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10537,10 +10536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7328C0-2D0B-4453-A6F9-9D47EA82D874}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10578,6 +10577,11 @@
         <v>3331</v>
       </c>
     </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>3352</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10588,9 +10592,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90350D13-E130-47A5-A64D-77E01FA3003F}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/tool/e2e-tests/test-packs/Supplier 1 Test Pack.xlsx
+++ b/tool/e2e-tests/test-packs/Supplier 1 Test Pack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\clients\NHS\electronic-prescription-service-api\tool\e2e-tests\test-packs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDC016F-B5C4-437D-B426-F1AF6DBA0BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00425955-F602-49B1-97E4-10A524CB320B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" activeTab="1" xr2:uid="{DE2866F1-D839-4AD2-B338-FF4A1D84F7C7}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7518" uniqueCount="3423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7466" uniqueCount="3420">
   <si>
     <t>Quantity</t>
   </si>
@@ -10103,19 +10103,10 @@
     <t>Professional Code Type</t>
   </si>
   <si>
-    <t>Prescribing Code</t>
-  </si>
-  <si>
-    <t>Prescribing Code Type</t>
-  </si>
-  <si>
     <t>GMC</t>
   </si>
   <si>
     <t>C1234567</t>
-  </si>
-  <si>
-    <t>DIN</t>
   </si>
   <si>
     <t>Prescriber Name</t>
@@ -10807,7 +10798,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11128,7 +11119,7 @@
         <v>2</v>
       </c>
       <c r="R7" t="s">
-        <v>3422</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -11154,7 +11145,7 @@
         <v>28</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>3360</v>
+        <v>3357</v>
       </c>
       <c r="I8" s="2">
         <v>99999999</v>
@@ -11169,7 +11160,7 @@
         <v>11111111</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>3361</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -11195,7 +11186,7 @@
         <v>28</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>3362</v>
+        <v>3359</v>
       </c>
       <c r="I9" s="2">
         <v>99999999</v>
@@ -11234,7 +11225,7 @@
         <v>28</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>3363</v>
+        <v>3360</v>
       </c>
       <c r="I10" s="2">
         <v>99999999</v>
@@ -11273,7 +11264,7 @@
         <v>28</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>3364</v>
+        <v>3361</v>
       </c>
       <c r="I11" s="2">
         <v>99999999</v>
@@ -11312,7 +11303,7 @@
         <v>28</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>3365</v>
+        <v>3362</v>
       </c>
       <c r="I12" s="2">
         <v>99999999</v>
@@ -11351,7 +11342,7 @@
         <v>28</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>3366</v>
+        <v>3363</v>
       </c>
       <c r="I13" s="2">
         <v>99999999</v>
@@ -11360,13 +11351,13 @@
         <v>15</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>3367</v>
+        <v>3364</v>
       </c>
       <c r="L13" s="2">
         <v>11111111</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>3368</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -11392,7 +11383,7 @@
         <v>28</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>3369</v>
+        <v>3366</v>
       </c>
       <c r="I14" s="2">
         <v>99999999</v>
@@ -11431,7 +11422,7 @@
         <v>28</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>3370</v>
+        <v>3367</v>
       </c>
       <c r="I15" s="2">
         <v>99999999</v>
@@ -11440,7 +11431,7 @@
         <v>60</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>3371</v>
+        <v>3368</v>
       </c>
       <c r="L15" s="2">
         <v>11111111</v>
@@ -11470,7 +11461,7 @@
         <v>28</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>3372</v>
+        <v>3369</v>
       </c>
       <c r="I16" s="2">
         <v>99999999</v>
@@ -11509,7 +11500,7 @@
         <v>28</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="I17" s="2">
         <v>99999999</v>
@@ -11518,7 +11509,7 @@
         <v>56</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>3367</v>
+        <v>3364</v>
       </c>
       <c r="L17" s="2">
         <v>11111111</v>
@@ -11548,7 +11539,7 @@
         <v>28</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>3374</v>
+        <v>3371</v>
       </c>
       <c r="I18" s="2">
         <v>99999999</v>
@@ -11557,7 +11548,7 @@
         <v>50</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>3375</v>
+        <v>3372</v>
       </c>
       <c r="L18" s="2">
         <v>11111111</v>
@@ -11587,7 +11578,7 @@
         <v>28</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="I19" s="2">
         <v>99999999</v>
@@ -11596,7 +11587,7 @@
         <v>68</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>3371</v>
+        <v>3368</v>
       </c>
       <c r="L19" s="2">
         <v>11111111</v>
@@ -11626,7 +11617,7 @@
         <v>28</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>3377</v>
+        <v>3374</v>
       </c>
       <c r="I20" s="2">
         <v>99999999</v>
@@ -11635,7 +11626,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>3378</v>
+        <v>3375</v>
       </c>
       <c r="L20" s="2">
         <v>11111111</v>
@@ -11665,7 +11656,7 @@
         <v>28</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>3379</v>
+        <v>3376</v>
       </c>
       <c r="I21" s="2">
         <v>99999999</v>
@@ -11704,7 +11695,7 @@
         <v>28</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>3380</v>
+        <v>3377</v>
       </c>
       <c r="I22" s="2">
         <v>99999999</v>
@@ -11713,7 +11704,7 @@
         <v>20</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>3381</v>
+        <v>3378</v>
       </c>
       <c r="L22" s="2">
         <v>11111111</v>
@@ -11743,7 +11734,7 @@
         <v>28</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>3382</v>
+        <v>3379</v>
       </c>
       <c r="I23" s="2">
         <v>99999999</v>
@@ -11782,7 +11773,7 @@
         <v>28</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>3383</v>
+        <v>3380</v>
       </c>
       <c r="I24" s="2">
         <v>99999999</v>
@@ -11791,7 +11782,7 @@
         <v>20</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>3384</v>
+        <v>3381</v>
       </c>
       <c r="L24" s="2">
         <v>11111111</v>
@@ -11821,7 +11812,7 @@
         <v>28</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>3385</v>
+        <v>3382</v>
       </c>
       <c r="I25" s="2">
         <v>99999999</v>
@@ -11860,7 +11851,7 @@
         <v>28</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>3386</v>
+        <v>3383</v>
       </c>
       <c r="I26" s="2">
         <v>99999999</v>
@@ -11899,7 +11890,7 @@
         <v>28</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>3387</v>
+        <v>3384</v>
       </c>
       <c r="I27" s="2">
         <v>99999999</v>
@@ -11908,7 +11899,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>3388</v>
+        <v>3385</v>
       </c>
       <c r="L27" s="2">
         <v>11111111</v>
@@ -11938,7 +11929,7 @@
         <v>28</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>3389</v>
+        <v>3386</v>
       </c>
       <c r="I28" s="2">
         <v>99999999</v>
@@ -11977,7 +11968,7 @@
         <v>28</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>3390</v>
+        <v>3387</v>
       </c>
       <c r="I29" s="2">
         <v>99999999</v>
@@ -12016,7 +12007,7 @@
         <v>28</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>3391</v>
+        <v>3388</v>
       </c>
       <c r="I30" s="2">
         <v>99999999</v>
@@ -12055,7 +12046,7 @@
         <v>28</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>3392</v>
+        <v>3389</v>
       </c>
       <c r="I31" s="2">
         <v>99999999</v>
@@ -12064,7 +12055,7 @@
         <v>3</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>3367</v>
+        <v>3364</v>
       </c>
       <c r="L31" s="2">
         <v>11111111</v>
@@ -12094,7 +12085,7 @@
         <v>28</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>3393</v>
+        <v>3390</v>
       </c>
       <c r="I32" s="2">
         <v>99999999</v>
@@ -12133,7 +12124,7 @@
         <v>28</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>3394</v>
+        <v>3391</v>
       </c>
       <c r="I33" s="2">
         <v>99999999</v>
@@ -12142,7 +12133,7 @@
         <v>14</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>3395</v>
+        <v>3392</v>
       </c>
       <c r="L33" s="2">
         <v>11111111</v>
@@ -12175,7 +12166,7 @@
         <v>28</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>3396</v>
+        <v>3393</v>
       </c>
       <c r="I34" s="2">
         <v>99999999</v>
@@ -12184,7 +12175,7 @@
         <v>200</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>3371</v>
+        <v>3368</v>
       </c>
       <c r="L34" s="2">
         <v>11111111</v>
@@ -12214,7 +12205,7 @@
         <v>28</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>3397</v>
+        <v>3394</v>
       </c>
       <c r="I35" s="2">
         <v>99999999</v>
@@ -12230,7 +12221,7 @@
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="17" t="s">
-        <v>3398</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -12256,7 +12247,7 @@
         <v>28</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>3399</v>
+        <v>3396</v>
       </c>
       <c r="I36" s="2">
         <v>99999999</v>
@@ -12272,7 +12263,7 @@
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="17" t="s">
-        <v>3400</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -12298,7 +12289,7 @@
         <v>28</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>3401</v>
+        <v>3398</v>
       </c>
       <c r="I37" s="2">
         <v>99999999</v>
@@ -12307,7 +12298,7 @@
         <v>24</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>3395</v>
+        <v>3392</v>
       </c>
       <c r="L37" s="2">
         <v>11111111</v>
@@ -12336,7 +12327,7 @@
         <v>28</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>3402</v>
+        <v>3399</v>
       </c>
       <c r="I38" s="2">
         <v>99999999</v>
@@ -12375,7 +12366,7 @@
         <v>28</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>3403</v>
+        <v>3400</v>
       </c>
       <c r="I39" s="2">
         <v>99999999</v>
@@ -12414,7 +12405,7 @@
         <v>28</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>3404</v>
+        <v>3401</v>
       </c>
       <c r="I40" s="2">
         <v>99999999</v>
@@ -12423,7 +12414,7 @@
         <v>6</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>3395</v>
+        <v>3392</v>
       </c>
       <c r="L40" s="2">
         <v>11111111</v>
@@ -12453,7 +12444,7 @@
         <v>28</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>3405</v>
+        <v>3402</v>
       </c>
       <c r="I41" s="2">
         <v>99999999</v>
@@ -12462,7 +12453,7 @@
         <v>30</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>3406</v>
+        <v>3403</v>
       </c>
       <c r="L41" s="2">
         <v>11111111</v>
@@ -12492,7 +12483,7 @@
         <v>28</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>3407</v>
+        <v>3404</v>
       </c>
       <c r="I42" s="2">
         <v>99999999</v>
@@ -12532,7 +12523,7 @@
         <v>28</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>3408</v>
+        <v>3405</v>
       </c>
       <c r="I43" s="2">
         <v>99999999</v>
@@ -12571,7 +12562,7 @@
         <v>28</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>3409</v>
+        <v>3406</v>
       </c>
       <c r="I44" s="2">
         <v>99999999</v>
@@ -12580,7 +12571,7 @@
         <v>5</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>3410</v>
+        <v>3407</v>
       </c>
       <c r="L44" s="2">
         <v>11111111</v>
@@ -12610,7 +12601,7 @@
         <v>28</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>3411</v>
+        <v>3408</v>
       </c>
       <c r="I45" s="2">
         <v>99999999</v>
@@ -12619,7 +12610,7 @@
         <v>2</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>3412</v>
+        <v>3409</v>
       </c>
       <c r="L45" s="2">
         <v>11111111</v>
@@ -12649,7 +12640,7 @@
         <v>28</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>3413</v>
+        <v>3410</v>
       </c>
       <c r="I46" s="2">
         <v>99999999</v>
@@ -12664,7 +12655,7 @@
         <v>11111111</v>
       </c>
       <c r="M46" s="18" t="s">
-        <v>3414</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -12690,7 +12681,7 @@
         <v>28</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>3415</v>
+        <v>3412</v>
       </c>
       <c r="I47" s="2">
         <v>99999999</v>
@@ -12699,7 +12690,7 @@
         <v>14</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>3367</v>
+        <v>3364</v>
       </c>
       <c r="L47" s="2">
         <v>11111111</v>
@@ -12729,7 +12720,7 @@
         <v>28</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>3416</v>
+        <v>3413</v>
       </c>
       <c r="I48" s="2">
         <v>99999999</v>
@@ -12768,7 +12759,7 @@
         <v>28</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>3417</v>
+        <v>3414</v>
       </c>
       <c r="I49" s="2">
         <v>99999999</v>
@@ -12777,7 +12768,7 @@
         <v>2</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>3418</v>
+        <v>3415</v>
       </c>
       <c r="L49" s="2">
         <v>11111111</v>
@@ -12807,7 +12798,7 @@
         <v>28</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>3419</v>
+        <v>3416</v>
       </c>
       <c r="I50" s="2">
         <v>99999999</v>
@@ -12816,14 +12807,14 @@
         <v>30</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>3395</v>
+        <v>3392</v>
       </c>
       <c r="L50" s="2">
         <v>11111111</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="17" t="s">
-        <v>3420</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -12849,7 +12840,7 @@
         <v>28</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>3421</v>
+        <v>3418</v>
       </c>
       <c r="I51" s="2">
         <v>99999999</v>
@@ -47023,27 +47014,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4197C79A-0579-4860-90D6-E5D60D4D545C}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="17.86328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.04296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.2265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>3351</v>
@@ -47051,1011 +47038,705 @@
       <c r="D1" s="7" t="s">
         <v>3352</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>3353</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>3354</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D2" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E2">
-        <v>70201123456</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D3" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E3">
-        <v>70201123456</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D4" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E4">
-        <v>70201123456</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D5" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E5">
-        <v>70201123456</v>
-      </c>
-      <c r="F5" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D6" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E6">
-        <v>70201123456</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D7" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E7">
-        <v>70201123456</v>
-      </c>
-      <c r="F7" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D8" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E8">
-        <v>70201123456</v>
-      </c>
-      <c r="F8" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D9" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E9">
-        <v>70201123456</v>
-      </c>
-      <c r="F9" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D10" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E10">
-        <v>70201123456</v>
-      </c>
-      <c r="F10" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D11" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E11">
-        <v>70201123456</v>
-      </c>
-      <c r="F11" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D12" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E12">
-        <v>70201123456</v>
-      </c>
-      <c r="F12" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D13" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E13">
-        <v>70201123456</v>
-      </c>
-      <c r="F13" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D14" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E14">
-        <v>70201123456</v>
-      </c>
-      <c r="F14" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D15" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E15">
-        <v>70201123456</v>
-      </c>
-      <c r="F15" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D16" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E16">
-        <v>70201123456</v>
-      </c>
-      <c r="F16" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D17" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E17">
-        <v>70201123456</v>
-      </c>
-      <c r="F17" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D18" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E18">
-        <v>70201123456</v>
-      </c>
-      <c r="F18" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D19" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E19">
-        <v>70201123456</v>
-      </c>
-      <c r="F19" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D20" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E20">
-        <v>70201123456</v>
-      </c>
-      <c r="F20" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D21" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E21">
-        <v>70201123456</v>
-      </c>
-      <c r="F21" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D22" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E22">
-        <v>70201123456</v>
-      </c>
-      <c r="F22" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D23" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E23">
-        <v>70201123456</v>
-      </c>
-      <c r="F23" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D24" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E24">
-        <v>70201123456</v>
-      </c>
-      <c r="F24" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D25" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E25">
-        <v>70201123456</v>
-      </c>
-      <c r="F25" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D26" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E26">
-        <v>70201123456</v>
-      </c>
-      <c r="F26" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D27" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E27">
-        <v>70201123456</v>
-      </c>
-      <c r="F27" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D28" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E28">
-        <v>70201123456</v>
-      </c>
-      <c r="F28" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D29" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E29">
-        <v>70201123456</v>
-      </c>
-      <c r="F29" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D30" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E30">
-        <v>70201123456</v>
-      </c>
-      <c r="F30" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D31" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E31">
-        <v>70201123456</v>
-      </c>
-      <c r="F31" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D32" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E32">
-        <v>70201123456</v>
-      </c>
-      <c r="F32" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D33" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E33">
-        <v>70201123456</v>
-      </c>
-      <c r="F33" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D34" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E34">
-        <v>70201123456</v>
-      </c>
-      <c r="F34" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D35" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E35">
-        <v>70201123456</v>
-      </c>
-      <c r="F35" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D36" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E36">
-        <v>70201123456</v>
-      </c>
-      <c r="F36" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D37" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E37">
-        <v>70201123456</v>
-      </c>
-      <c r="F37" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D38" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E38">
-        <v>70201123456</v>
-      </c>
-      <c r="F38" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D39" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E39">
-        <v>70201123456</v>
-      </c>
-      <c r="F39" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D40" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E40">
-        <v>70201123456</v>
-      </c>
-      <c r="F40" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D41" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E41">
-        <v>70201123456</v>
-      </c>
-      <c r="F41" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D42" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E42">
-        <v>70201123456</v>
-      </c>
-      <c r="F42" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D43" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E43">
-        <v>70201123456</v>
-      </c>
-      <c r="F43" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D44" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E44">
-        <v>70201123456</v>
-      </c>
-      <c r="F44" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D45" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E45">
-        <v>70201123456</v>
-      </c>
-      <c r="F45" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D46" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E46">
-        <v>70201123456</v>
-      </c>
-      <c r="F46" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D47" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E47">
-        <v>70201123456</v>
-      </c>
-      <c r="F47" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D48" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E48">
-        <v>70201123456</v>
-      </c>
-      <c r="F48" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="C49" s="14" t="s">
+        <v>3354</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
         <v>3356</v>
       </c>
-      <c r="D49" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E49">
-        <v>70201123456</v>
-      </c>
-      <c r="F49" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>3359</v>
-      </c>
       <c r="C50" s="14" t="s">
+        <v>3354</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
         <v>3356</v>
       </c>
-      <c r="D50" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E50">
-        <v>70201123456</v>
-      </c>
-      <c r="F50" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>3359</v>
-      </c>
       <c r="C51" s="14" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D51" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E51">
-        <v>70201123456</v>
-      </c>
-      <c r="F51" t="s">
-        <v>3357</v>
+        <v>3353</v>
       </c>
     </row>
   </sheetData>

--- a/tool/e2e-tests/test-packs/Supplier 1 Test Pack.xlsx
+++ b/tool/e2e-tests/test-packs/Supplier 1 Test Pack.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack.robinson/Documents/electronic-prescription-service-api/tool/e2e-tests/test-packs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\clients\NHS\electronic-prescription-service-api\tool\e2e-tests\test-packs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2237E52A-24BB-4043-BECA-4826B800522A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC11D91-0DAD-426F-B3AA-E777579743FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51140" yWindow="-5600" windowWidth="23240" windowHeight="14000" activeTab="1" xr2:uid="{DE2866F1-D839-4AD2-B338-FF4A1D84F7C7}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="1" xr2:uid="{DE2866F1-D839-4AD2-B338-FF4A1D84F7C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="2" r:id="rId1"/>
     <sheet name="Prescriptions" sheetId="1" r:id="rId2"/>
     <sheet name="Patients" sheetId="3" r:id="rId3"/>
-    <sheet name="Prescribers" sheetId="6" r:id="rId4"/>
-    <sheet name="Organisation" sheetId="4" r:id="rId5"/>
-    <sheet name="Parent Organisation" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Prescriptions!$A$1:$R$6</definedName>
@@ -42,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7466" uniqueCount="3420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7280" uniqueCount="3391">
   <si>
     <t>Quantity</t>
   </si>
@@ -9983,21 +9980,6 @@
     <t>Nominated Pharmacy</t>
   </si>
   <si>
-    <t>ODS Code</t>
-  </si>
-  <si>
-    <t>GP PRACTICE</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>84H</t>
-  </si>
-  <si>
-    <t>NHS COUNTY DURAHM CCG</t>
-  </si>
-  <si>
     <t>Only one organisation is supported</t>
   </si>
   <si>
@@ -10013,60 +9995,6 @@
     <t>Validation rules: Column names must be exact, no more than 4 medications per test reference</t>
   </si>
   <si>
-    <t>A83003</t>
-  </si>
-  <si>
-    <t>HALLGARTH SURGERY</t>
-  </si>
-  <si>
-    <t>HALLGARTH SURGERY, CHEAPSIDE</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>SHILDON</t>
-  </si>
-  <si>
-    <t>District</t>
-  </si>
-  <si>
-    <t>COUNTY DURHAM</t>
-  </si>
-  <si>
-    <t>Postcode</t>
-  </si>
-  <si>
-    <t>DL4 2HP</t>
-  </si>
-  <si>
-    <t>Telecom</t>
-  </si>
-  <si>
-    <t>0115 973720</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Role Code</t>
-  </si>
-  <si>
-    <t>Role Name</t>
-  </si>
-  <si>
-    <t>NHS TRUST</t>
-  </si>
-  <si>
-    <t>MUSGROVE PARK HOSPITAL, PARKFIELD DRIVE, TAUNTON</t>
-  </si>
-  <si>
-    <t>TA1 5DA</t>
-  </si>
-  <si>
-    <t>01823 333444</t>
-  </si>
-  <si>
     <t>1001</t>
   </si>
   <si>
@@ -10092,24 +10020,6 @@
   </si>
   <si>
     <t>FS</t>
-  </si>
-  <si>
-    <t>Professional Code</t>
-  </si>
-  <si>
-    <t>Professional Code Type</t>
-  </si>
-  <si>
-    <t>GMC</t>
-  </si>
-  <si>
-    <t>C1234567</t>
-  </si>
-  <si>
-    <t>Prescriber Name</t>
-  </si>
-  <si>
-    <t>DR Thomas Edwards</t>
   </si>
   <si>
     <t>Alendronic acid 70mg tablets</t>
@@ -10308,7 +10218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -10353,11 +10263,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF172B4D"/>
-      <name val="-apple-system"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -10398,7 +10303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10417,8 +10322,6 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -10746,44 +10649,44 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="75.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>3318</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
         <v>3319</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>3343</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3320</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>3321</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>3322</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>3342</v>
       </c>
     </row>
   </sheetData>
@@ -10798,28 +10701,28 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1:O1048576"/>
+      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="121.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.140625" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="121.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.1328125" customWidth="1"/>
+    <col min="13" max="13" width="19.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="19.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -10863,19 +10766,19 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>3419</v>
+        <v>3390</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>3344</v>
+        <v>3321</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>3345</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10914,7 +10817,7 @@
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10953,7 +10856,7 @@
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10991,7 +10894,7 @@
         <v>11111111</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="29">
+    <row r="5" spans="1:18" ht="25.2" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11032,7 +10935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11040,7 +10943,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>3341</v>
+        <v>3318</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>3311</v>
@@ -11071,7 +10974,7 @@
       </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:18" ht="43">
+    <row r="7" spans="1:18" ht="25.2" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11094,34 +10997,34 @@
         <v>28</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>3346</v>
+        <v>3323</v>
       </c>
       <c r="I7" s="2">
         <v>99999999</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="14">
         <v>10000</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>3347</v>
+        <v>3324</v>
       </c>
       <c r="L7" s="2">
         <v>11111111</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>3348</v>
-      </c>
-      <c r="N7" s="17" t="s">
-        <v>3349</v>
+        <v>3325</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>3326</v>
       </c>
       <c r="Q7">
         <v>2</v>
       </c>
       <c r="R7" t="s">
-        <v>3418</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11144,7 +11047,7 @@
         <v>28</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>3356</v>
+        <v>3327</v>
       </c>
       <c r="I8" s="2">
         <v>99999999</v>
@@ -11158,11 +11061,11 @@
       <c r="L8" s="2">
         <v>11111111</v>
       </c>
-      <c r="M8" s="18" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="M8" s="16" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11185,7 +11088,7 @@
         <v>28</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>3358</v>
+        <v>3329</v>
       </c>
       <c r="I9" s="2">
         <v>99999999</v>
@@ -11201,7 +11104,7 @@
       </c>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11224,7 +11127,7 @@
         <v>28</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>3359</v>
+        <v>3330</v>
       </c>
       <c r="I10" s="2">
         <v>99999999</v>
@@ -11240,7 +11143,7 @@
       </c>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11263,7 +11166,7 @@
         <v>28</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>3360</v>
+        <v>3331</v>
       </c>
       <c r="I11" s="2">
         <v>99999999</v>
@@ -11279,7 +11182,7 @@
       </c>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11301,8 +11204,8 @@
       <c r="G12">
         <v>28</v>
       </c>
-      <c r="H12" s="19" t="s">
-        <v>3361</v>
+      <c r="H12" s="17" t="s">
+        <v>3332</v>
       </c>
       <c r="I12" s="2">
         <v>99999999</v>
@@ -11318,7 +11221,7 @@
       </c>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11340,8 +11243,8 @@
       <c r="G13">
         <v>28</v>
       </c>
-      <c r="H13" s="19" t="s">
-        <v>3362</v>
+      <c r="H13" s="17" t="s">
+        <v>3333</v>
       </c>
       <c r="I13" s="2">
         <v>99999999</v>
@@ -11350,16 +11253,16 @@
         <v>15</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>3363</v>
+        <v>3334</v>
       </c>
       <c r="L13" s="2">
         <v>11111111</v>
       </c>
-      <c r="M13" s="18" t="s">
-        <v>3364</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="M13" s="16" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11382,7 +11285,7 @@
         <v>28</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>3365</v>
+        <v>3336</v>
       </c>
       <c r="I14" s="2">
         <v>99999999</v>
@@ -11398,7 +11301,7 @@
       </c>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11421,7 +11324,7 @@
         <v>28</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>3366</v>
+        <v>3337</v>
       </c>
       <c r="I15" s="2">
         <v>99999999</v>
@@ -11430,14 +11333,14 @@
         <v>60</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>3367</v>
+        <v>3338</v>
       </c>
       <c r="L15" s="2">
         <v>11111111</v>
       </c>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11460,7 +11363,7 @@
         <v>28</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>3368</v>
+        <v>3339</v>
       </c>
       <c r="I16" s="2">
         <v>99999999</v>
@@ -11476,7 +11379,7 @@
       </c>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11499,7 +11402,7 @@
         <v>28</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>3369</v>
+        <v>3340</v>
       </c>
       <c r="I17" s="2">
         <v>99999999</v>
@@ -11508,14 +11411,14 @@
         <v>56</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>3363</v>
+        <v>3334</v>
       </c>
       <c r="L17" s="2">
         <v>11111111</v>
       </c>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11538,7 +11441,7 @@
         <v>28</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>3370</v>
+        <v>3341</v>
       </c>
       <c r="I18" s="2">
         <v>99999999</v>
@@ -11547,14 +11450,14 @@
         <v>50</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>3371</v>
+        <v>3342</v>
       </c>
       <c r="L18" s="2">
         <v>11111111</v>
       </c>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11577,7 +11480,7 @@
         <v>28</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>3372</v>
+        <v>3343</v>
       </c>
       <c r="I19" s="2">
         <v>99999999</v>
@@ -11586,14 +11489,14 @@
         <v>68</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>3367</v>
+        <v>3338</v>
       </c>
       <c r="L19" s="2">
         <v>11111111</v>
       </c>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11616,7 +11519,7 @@
         <v>28</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>3373</v>
+        <v>3344</v>
       </c>
       <c r="I20" s="2">
         <v>99999999</v>
@@ -11625,14 +11528,14 @@
         <v>1</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>3374</v>
+        <v>3345</v>
       </c>
       <c r="L20" s="2">
         <v>11111111</v>
       </c>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11655,7 +11558,7 @@
         <v>28</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>3375</v>
+        <v>3346</v>
       </c>
       <c r="I21" s="2">
         <v>99999999</v>
@@ -11671,7 +11574,7 @@
       </c>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11694,7 +11597,7 @@
         <v>28</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>3376</v>
+        <v>3347</v>
       </c>
       <c r="I22" s="2">
         <v>99999999</v>
@@ -11703,14 +11606,14 @@
         <v>20</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>3377</v>
+        <v>3348</v>
       </c>
       <c r="L22" s="2">
         <v>11111111</v>
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11733,7 +11636,7 @@
         <v>28</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>3378</v>
+        <v>3349</v>
       </c>
       <c r="I23" s="2">
         <v>99999999</v>
@@ -11749,7 +11652,7 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11772,7 +11675,7 @@
         <v>28</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>3379</v>
+        <v>3350</v>
       </c>
       <c r="I24" s="2">
         <v>99999999</v>
@@ -11781,14 +11684,14 @@
         <v>20</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>3380</v>
+        <v>3351</v>
       </c>
       <c r="L24" s="2">
         <v>11111111</v>
       </c>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11811,7 +11714,7 @@
         <v>28</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>3381</v>
+        <v>3352</v>
       </c>
       <c r="I25" s="2">
         <v>99999999</v>
@@ -11827,7 +11730,7 @@
       </c>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11850,7 +11753,7 @@
         <v>28</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>3382</v>
+        <v>3353</v>
       </c>
       <c r="I26" s="2">
         <v>99999999</v>
@@ -11866,7 +11769,7 @@
       </c>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11889,7 +11792,7 @@
         <v>28</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>3383</v>
+        <v>3354</v>
       </c>
       <c r="I27" s="2">
         <v>99999999</v>
@@ -11898,14 +11801,14 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>3384</v>
+        <v>3355</v>
       </c>
       <c r="L27" s="2">
         <v>11111111</v>
       </c>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11928,7 +11831,7 @@
         <v>28</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>3385</v>
+        <v>3356</v>
       </c>
       <c r="I28" s="2">
         <v>99999999</v>
@@ -11944,7 +11847,7 @@
       </c>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11967,7 +11870,7 @@
         <v>28</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>3386</v>
+        <v>3357</v>
       </c>
       <c r="I29" s="2">
         <v>99999999</v>
@@ -11983,7 +11886,7 @@
       </c>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -12006,7 +11909,7 @@
         <v>28</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>3387</v>
+        <v>3358</v>
       </c>
       <c r="I30" s="2">
         <v>99999999</v>
@@ -12022,7 +11925,7 @@
       </c>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -12045,7 +11948,7 @@
         <v>28</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>3388</v>
+        <v>3359</v>
       </c>
       <c r="I31" s="2">
         <v>99999999</v>
@@ -12054,14 +11957,14 @@
         <v>3</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>3363</v>
+        <v>3334</v>
       </c>
       <c r="L31" s="2">
         <v>11111111</v>
       </c>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -12084,7 +11987,7 @@
         <v>28</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>3389</v>
+        <v>3360</v>
       </c>
       <c r="I32" s="2">
         <v>99999999</v>
@@ -12100,7 +12003,7 @@
       </c>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -12123,7 +12026,7 @@
         <v>28</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>3390</v>
+        <v>3361</v>
       </c>
       <c r="I33" s="2">
         <v>99999999</v>
@@ -12132,17 +12035,17 @@
         <v>14</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>3391</v>
+        <v>3362</v>
       </c>
       <c r="L33" s="2">
         <v>11111111</v>
       </c>
       <c r="M33" s="2"/>
-      <c r="N33" s="17" t="s">
-        <v>3349</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="N33" s="15" t="s">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -12165,7 +12068,7 @@
         <v>28</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>3392</v>
+        <v>3363</v>
       </c>
       <c r="I34" s="2">
         <v>99999999</v>
@@ -12174,14 +12077,14 @@
         <v>200</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>3367</v>
+        <v>3338</v>
       </c>
       <c r="L34" s="2">
         <v>11111111</v>
       </c>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -12204,7 +12107,7 @@
         <v>28</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>3393</v>
+        <v>3364</v>
       </c>
       <c r="I35" s="2">
         <v>99999999</v>
@@ -12219,11 +12122,11 @@
         <v>11111111</v>
       </c>
       <c r="M35" s="2"/>
-      <c r="N35" s="17" t="s">
-        <v>3394</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="N35" s="15" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -12246,7 +12149,7 @@
         <v>28</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>3395</v>
+        <v>3366</v>
       </c>
       <c r="I36" s="2">
         <v>99999999</v>
@@ -12261,11 +12164,11 @@
         <v>11111111</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" s="17" t="s">
-        <v>3396</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="N36" s="15" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -12288,7 +12191,7 @@
         <v>28</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>3397</v>
+        <v>3368</v>
       </c>
       <c r="I37" s="2">
         <v>99999999</v>
@@ -12297,13 +12200,13 @@
         <v>24</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>3391</v>
+        <v>3362</v>
       </c>
       <c r="L37" s="2">
         <v>11111111</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -12326,7 +12229,7 @@
         <v>28</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>3398</v>
+        <v>3369</v>
       </c>
       <c r="I38" s="2">
         <v>99999999</v>
@@ -12342,7 +12245,7 @@
       </c>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -12365,7 +12268,7 @@
         <v>28</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>3399</v>
+        <v>3370</v>
       </c>
       <c r="I39" s="2">
         <v>99999999</v>
@@ -12381,7 +12284,7 @@
       </c>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -12404,7 +12307,7 @@
         <v>28</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>3400</v>
+        <v>3371</v>
       </c>
       <c r="I40" s="2">
         <v>99999999</v>
@@ -12413,14 +12316,14 @@
         <v>6</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>3391</v>
+        <v>3362</v>
       </c>
       <c r="L40" s="2">
         <v>11111111</v>
       </c>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -12443,7 +12346,7 @@
         <v>28</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>3401</v>
+        <v>3372</v>
       </c>
       <c r="I41" s="2">
         <v>99999999</v>
@@ -12452,14 +12355,14 @@
         <v>30</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>3402</v>
+        <v>3373</v>
       </c>
       <c r="L41" s="2">
         <v>11111111</v>
       </c>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>41</v>
       </c>
@@ -12482,7 +12385,7 @@
         <v>28</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>3403</v>
+        <v>3374</v>
       </c>
       <c r="I42" s="2">
         <v>99999999</v>
@@ -12497,9 +12400,9 @@
         <v>11111111</v>
       </c>
       <c r="M42" s="2"/>
-      <c r="N42" s="17"/>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="N42" s="15"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -12522,7 +12425,7 @@
         <v>28</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>3404</v>
+        <v>3375</v>
       </c>
       <c r="I43" s="2">
         <v>99999999</v>
@@ -12538,7 +12441,7 @@
       </c>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -12561,7 +12464,7 @@
         <v>28</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>3405</v>
+        <v>3376</v>
       </c>
       <c r="I44" s="2">
         <v>99999999</v>
@@ -12570,14 +12473,14 @@
         <v>5</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>3406</v>
+        <v>3377</v>
       </c>
       <c r="L44" s="2">
         <v>11111111</v>
       </c>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -12600,7 +12503,7 @@
         <v>28</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>3407</v>
+        <v>3378</v>
       </c>
       <c r="I45" s="2">
         <v>99999999</v>
@@ -12609,14 +12512,14 @@
         <v>2</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>3408</v>
+        <v>3379</v>
       </c>
       <c r="L45" s="2">
         <v>11111111</v>
       </c>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -12639,7 +12542,7 @@
         <v>28</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>3409</v>
+        <v>3380</v>
       </c>
       <c r="I46" s="2">
         <v>99999999</v>
@@ -12653,11 +12556,11 @@
       <c r="L46" s="2">
         <v>11111111</v>
       </c>
-      <c r="M46" s="18" t="s">
-        <v>3410</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+      <c r="M46" s="16" t="s">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>46</v>
       </c>
@@ -12680,7 +12583,7 @@
         <v>28</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>3411</v>
+        <v>3382</v>
       </c>
       <c r="I47" s="2">
         <v>99999999</v>
@@ -12689,14 +12592,14 @@
         <v>14</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>3363</v>
+        <v>3334</v>
       </c>
       <c r="L47" s="2">
         <v>11111111</v>
       </c>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -12719,7 +12622,7 @@
         <v>28</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>3412</v>
+        <v>3383</v>
       </c>
       <c r="I48" s="2">
         <v>99999999</v>
@@ -12735,7 +12638,7 @@
       </c>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>48</v>
       </c>
@@ -12758,7 +12661,7 @@
         <v>28</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>3413</v>
+        <v>3384</v>
       </c>
       <c r="I49" s="2">
         <v>99999999</v>
@@ -12767,14 +12670,14 @@
         <v>2</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>3414</v>
+        <v>3385</v>
       </c>
       <c r="L49" s="2">
         <v>11111111</v>
       </c>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>49</v>
       </c>
@@ -12797,7 +12700,7 @@
         <v>28</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>3415</v>
+        <v>3386</v>
       </c>
       <c r="I50" s="2">
         <v>99999999</v>
@@ -12806,17 +12709,17 @@
         <v>30</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>3391</v>
+        <v>3362</v>
       </c>
       <c r="L50" s="2">
         <v>11111111</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" s="17" t="s">
-        <v>3416</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="N50" s="15" t="s">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>50</v>
       </c>
@@ -12839,7 +12742,7 @@
         <v>28</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>3417</v>
+        <v>3388</v>
       </c>
       <c r="I51" s="2">
         <v>99999999</v>
@@ -12871,13 +12774,13 @@
       <selection activeCell="A691" sqref="A691"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
         <v>25</v>
       </c>
@@ -12939,7 +12842,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -12987,7 +12890,7 @@
       </c>
       <c r="T2" s="9"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -13035,7 +12938,7 @@
       </c>
       <c r="T3" s="9"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -13087,7 +12990,7 @@
       </c>
       <c r="T4" s="9"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -13135,7 +13038,7 @@
       </c>
       <c r="T5" s="9"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -13187,7 +13090,7 @@
       </c>
       <c r="T6" s="9"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -13237,7 +13140,7 @@
       </c>
       <c r="T7" s="9"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -13287,7 +13190,7 @@
       </c>
       <c r="T8" s="9"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -13339,7 +13242,7 @@
       </c>
       <c r="T9" s="9"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -13389,7 +13292,7 @@
       </c>
       <c r="T10" s="9"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -13439,7 +13342,7 @@
       </c>
       <c r="T11" s="9"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -13491,7 +13394,7 @@
       </c>
       <c r="T12" s="9"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -13541,7 +13444,7 @@
       </c>
       <c r="T13" s="9"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -13593,7 +13496,7 @@
       </c>
       <c r="T14" s="9"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -13643,7 +13546,7 @@
       </c>
       <c r="T15" s="9"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -13692,7 +13595,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -13741,7 +13644,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -13790,7 +13693,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -13839,7 +13742,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -13886,7 +13789,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -13935,7 +13838,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -13982,7 +13885,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -14029,7 +13932,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -14078,7 +13981,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -14125,7 +14028,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -14174,7 +14077,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -14221,7 +14124,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -14272,7 +14175,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -14321,7 +14224,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -14370,7 +14273,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -14417,7 +14320,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -14464,7 +14367,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -14511,7 +14414,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -14560,7 +14463,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="9">
         <v>34</v>
       </c>
@@ -14609,7 +14512,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -14658,7 +14561,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="9">
         <v>36</v>
       </c>
@@ -14705,7 +14608,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="9">
         <v>37</v>
       </c>
@@ -14754,7 +14657,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="9">
         <v>38</v>
       </c>
@@ -14803,7 +14706,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="9">
         <v>39</v>
       </c>
@@ -14852,7 +14755,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="9">
         <v>40</v>
       </c>
@@ -14899,7 +14802,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="9">
         <v>41</v>
       </c>
@@ -14948,7 +14851,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="9">
         <v>42</v>
       </c>
@@ -14997,7 +14900,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="9">
         <v>43</v>
       </c>
@@ -15046,7 +14949,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="9">
         <v>44</v>
       </c>
@@ -15095,7 +14998,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="9">
         <v>45</v>
       </c>
@@ -15144,7 +15047,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="9">
         <v>46</v>
       </c>
@@ -15195,7 +15098,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="9">
         <v>47</v>
       </c>
@@ -15244,7 +15147,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="9">
         <v>48</v>
       </c>
@@ -15291,7 +15194,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="9">
         <v>49</v>
       </c>
@@ -15338,7 +15241,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="9">
         <v>50</v>
       </c>
@@ -15387,7 +15290,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="9">
         <v>51</v>
       </c>
@@ -15436,7 +15339,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="9">
         <v>52</v>
       </c>
@@ -15485,7 +15388,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="9">
         <v>53</v>
       </c>
@@ -15536,7 +15439,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="9">
         <v>54</v>
       </c>
@@ -15583,7 +15486,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="9">
         <v>55</v>
       </c>
@@ -15632,7 +15535,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="9">
         <v>56</v>
       </c>
@@ -15679,7 +15582,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="9">
         <v>57</v>
       </c>
@@ -15726,7 +15629,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="9">
         <v>58</v>
       </c>
@@ -15775,7 +15678,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="9">
         <v>59</v>
       </c>
@@ -15828,7 +15731,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="9">
         <v>60</v>
       </c>
@@ -15875,7 +15778,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="9">
         <v>61</v>
       </c>
@@ -15926,7 +15829,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="9">
         <v>62</v>
       </c>
@@ -15973,7 +15876,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="9">
         <v>63</v>
       </c>
@@ -16020,7 +15923,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="9">
         <v>64</v>
       </c>
@@ -16067,7 +15970,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="9">
         <v>65</v>
       </c>
@@ -16116,7 +16019,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="9">
         <v>66</v>
       </c>
@@ -16163,7 +16066,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="9">
         <v>67</v>
       </c>
@@ -16212,7 +16115,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="9">
         <v>68</v>
       </c>
@@ -16263,7 +16166,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="9">
         <v>69</v>
       </c>
@@ -16312,7 +16215,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="9">
         <v>70</v>
       </c>
@@ -16361,7 +16264,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="9">
         <v>71</v>
       </c>
@@ -16410,7 +16313,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="9">
         <v>72</v>
       </c>
@@ -16461,7 +16364,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="9">
         <v>73</v>
       </c>
@@ -16510,7 +16413,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="9">
         <v>74</v>
       </c>
@@ -16557,7 +16460,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="9">
         <v>75</v>
       </c>
@@ -16606,7 +16509,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="9">
         <v>76</v>
       </c>
@@ -16653,7 +16556,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="9">
         <v>77</v>
       </c>
@@ -16702,7 +16605,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="79" spans="1:19">
+    <row r="79" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="9">
         <v>78</v>
       </c>
@@ -16749,7 +16652,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="9">
         <v>79</v>
       </c>
@@ -16798,7 +16701,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="9">
         <v>80</v>
       </c>
@@ -16847,7 +16750,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="9">
         <v>81</v>
       </c>
@@ -16900,7 +16803,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="9">
         <v>82</v>
       </c>
@@ -16947,7 +16850,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="9">
         <v>83</v>
       </c>
@@ -16996,7 +16899,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="9">
         <v>84</v>
       </c>
@@ -17043,7 +16946,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="86" spans="1:19">
+    <row r="86" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="9">
         <v>85</v>
       </c>
@@ -17092,7 +16995,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="87" spans="1:19">
+    <row r="87" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="9">
         <v>86</v>
       </c>
@@ -17141,7 +17044,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="9">
         <v>87</v>
       </c>
@@ -17188,7 +17091,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="9">
         <v>88</v>
       </c>
@@ -17237,7 +17140,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="9">
         <v>89</v>
       </c>
@@ -17286,7 +17189,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="9">
         <v>90</v>
       </c>
@@ -17335,7 +17238,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="9">
         <v>91</v>
       </c>
@@ -17382,7 +17285,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="9">
         <v>92</v>
       </c>
@@ -17431,7 +17334,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="9">
         <v>93</v>
       </c>
@@ -17480,7 +17383,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="9">
         <v>94</v>
       </c>
@@ -17527,7 +17430,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="9">
         <v>95</v>
       </c>
@@ -17574,7 +17477,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="9">
         <v>96</v>
       </c>
@@ -17623,7 +17526,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="9">
         <v>97</v>
       </c>
@@ -17670,7 +17573,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="9">
         <v>98</v>
       </c>
@@ -17717,7 +17620,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="9">
         <v>99</v>
       </c>
@@ -17764,7 +17667,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="9">
         <v>100</v>
       </c>
@@ -17811,7 +17714,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="9">
         <v>101</v>
       </c>
@@ -17860,7 +17763,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="9">
         <v>102</v>
       </c>
@@ -17911,7 +17814,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="9">
         <v>103</v>
       </c>
@@ -17962,7 +17865,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="9">
         <v>104</v>
       </c>
@@ -18011,7 +17914,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="9">
         <v>105</v>
       </c>
@@ -18058,7 +17961,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="9">
         <v>106</v>
       </c>
@@ -18107,7 +18010,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="9">
         <v>107</v>
       </c>
@@ -18152,7 +18055,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="9">
         <v>108</v>
       </c>
@@ -18199,7 +18102,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="9">
         <v>109</v>
       </c>
@@ -18250,7 +18153,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="9">
         <v>110</v>
       </c>
@@ -18299,7 +18202,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="9">
         <v>111</v>
       </c>
@@ -18348,7 +18251,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="9">
         <v>112</v>
       </c>
@@ -18397,7 +18300,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="9">
         <v>113</v>
       </c>
@@ -18448,7 +18351,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="9">
         <v>114</v>
       </c>
@@ -18499,7 +18402,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="9">
         <v>115</v>
       </c>
@@ -18548,7 +18451,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="9">
         <v>116</v>
       </c>
@@ -18597,7 +18500,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="9">
         <v>117</v>
       </c>
@@ -18646,7 +18549,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="9">
         <v>118</v>
       </c>
@@ -18695,7 +18598,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="9">
         <v>119</v>
       </c>
@@ -18748,7 +18651,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="9">
         <v>120</v>
       </c>
@@ -18799,7 +18702,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="9">
         <v>121</v>
       </c>
@@ -18848,7 +18751,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="9">
         <v>122</v>
       </c>
@@ -18897,7 +18800,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="9">
         <v>123</v>
       </c>
@@ -18946,7 +18849,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="9">
         <v>124</v>
       </c>
@@ -18995,7 +18898,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="9">
         <v>125</v>
       </c>
@@ -19044,7 +18947,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="9">
         <v>126</v>
       </c>
@@ -19093,7 +18996,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="9">
         <v>127</v>
       </c>
@@ -19142,7 +19045,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="9">
         <v>128</v>
       </c>
@@ -19193,7 +19096,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="9">
         <v>129</v>
       </c>
@@ -19244,7 +19147,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="9">
         <v>130</v>
       </c>
@@ -19293,7 +19196,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="9">
         <v>131</v>
       </c>
@@ -19340,7 +19243,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="9">
         <v>132</v>
       </c>
@@ -19389,7 +19292,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="9">
         <v>133</v>
       </c>
@@ -19438,7 +19341,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="9">
         <v>134</v>
       </c>
@@ -19487,7 +19390,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="9">
         <v>135</v>
       </c>
@@ -19536,7 +19439,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="9">
         <v>136</v>
       </c>
@@ -19589,7 +19492,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="9">
         <v>137</v>
       </c>
@@ -19638,7 +19541,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="9">
         <v>138</v>
       </c>
@@ -19689,7 +19592,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="9">
         <v>139</v>
       </c>
@@ -19742,7 +19645,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="9">
         <v>140</v>
       </c>
@@ -19793,7 +19696,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="9">
         <v>141</v>
       </c>
@@ -19842,7 +19745,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="9">
         <v>142</v>
       </c>
@@ -19889,7 +19792,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="9">
         <v>143</v>
       </c>
@@ -19938,7 +19841,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="9">
         <v>144</v>
       </c>
@@ -19985,7 +19888,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="9">
         <v>145</v>
       </c>
@@ -20034,7 +19937,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="9">
         <v>146</v>
       </c>
@@ -20081,7 +19984,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="9">
         <v>147</v>
       </c>
@@ -20132,7 +20035,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="9">
         <v>148</v>
       </c>
@@ -20179,7 +20082,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="9">
         <v>149</v>
       </c>
@@ -20226,7 +20129,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="9">
         <v>150</v>
       </c>
@@ -20273,7 +20176,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="9">
         <v>151</v>
       </c>
@@ -20320,7 +20223,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="9">
         <v>152</v>
       </c>
@@ -20369,7 +20272,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="9">
         <v>153</v>
       </c>
@@ -20416,7 +20319,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="9">
         <v>154</v>
       </c>
@@ -20465,7 +20368,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="156" spans="1:19">
+    <row r="156" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="9">
         <v>155</v>
       </c>
@@ -20514,7 +20417,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="9">
         <v>156</v>
       </c>
@@ -20561,7 +20464,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="9">
         <v>157</v>
       </c>
@@ -20612,7 +20515,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="159" spans="1:19">
+    <row r="159" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="9">
         <v>158</v>
       </c>
@@ -20661,7 +20564,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="160" spans="1:19">
+    <row r="160" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="9">
         <v>159</v>
       </c>
@@ -20708,7 +20611,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="161" spans="1:19">
+    <row r="161" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="9">
         <v>160</v>
       </c>
@@ -20755,7 +20658,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="162" spans="1:19">
+    <row r="162" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="9">
         <v>161</v>
       </c>
@@ -20804,7 +20707,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="163" spans="1:19">
+    <row r="163" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="9">
         <v>162</v>
       </c>
@@ -20853,7 +20756,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="164" spans="1:19">
+    <row r="164" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="9">
         <v>163</v>
       </c>
@@ -20904,7 +20807,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="165" spans="1:19">
+    <row r="165" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="9">
         <v>164</v>
       </c>
@@ -20951,7 +20854,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="166" spans="1:19">
+    <row r="166" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="9">
         <v>165</v>
       </c>
@@ -21000,7 +20903,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="167" spans="1:19">
+    <row r="167" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="9">
         <v>166</v>
       </c>
@@ -21051,7 +20954,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="168" spans="1:19">
+    <row r="168" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="9">
         <v>167</v>
       </c>
@@ -21098,7 +21001,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="169" spans="1:19">
+    <row r="169" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="9">
         <v>168</v>
       </c>
@@ -21149,7 +21052,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="170" spans="1:19">
+    <row r="170" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="9">
         <v>169</v>
       </c>
@@ -21196,7 +21099,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="171" spans="1:19">
+    <row r="171" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="9">
         <v>170</v>
       </c>
@@ -21243,7 +21146,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="172" spans="1:19">
+    <row r="172" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="9">
         <v>171</v>
       </c>
@@ -21290,7 +21193,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="173" spans="1:19">
+    <row r="173" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="9">
         <v>172</v>
       </c>
@@ -21339,7 +21242,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="174" spans="1:19">
+    <row r="174" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="9">
         <v>173</v>
       </c>
@@ -21388,7 +21291,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="175" spans="1:19">
+    <row r="175" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="9">
         <v>174</v>
       </c>
@@ -21437,7 +21340,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="176" spans="1:19">
+    <row r="176" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="9">
         <v>175</v>
       </c>
@@ -21488,7 +21391,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="177" spans="1:19">
+    <row r="177" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="9">
         <v>176</v>
       </c>
@@ -21537,7 +21440,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="178" spans="1:19">
+    <row r="178" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="9">
         <v>177</v>
       </c>
@@ -21586,7 +21489,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="179" spans="1:19">
+    <row r="179" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="9">
         <v>178</v>
       </c>
@@ -21635,7 +21538,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="180" spans="1:19">
+    <row r="180" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="9">
         <v>179</v>
       </c>
@@ -21684,7 +21587,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="181" spans="1:19">
+    <row r="181" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="9">
         <v>180</v>
       </c>
@@ -21733,7 +21636,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="182" spans="1:19">
+    <row r="182" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="9">
         <v>181</v>
       </c>
@@ -21782,7 +21685,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="183" spans="1:19">
+    <row r="183" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="9">
         <v>182</v>
       </c>
@@ -21831,7 +21734,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="184" spans="1:19">
+    <row r="184" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="9">
         <v>183</v>
       </c>
@@ -21878,7 +21781,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="185" spans="1:19">
+    <row r="185" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="9">
         <v>184</v>
       </c>
@@ -21925,7 +21828,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="186" spans="1:19">
+    <row r="186" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="9">
         <v>185</v>
       </c>
@@ -21972,7 +21875,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="187" spans="1:19">
+    <row r="187" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="9">
         <v>186</v>
       </c>
@@ -22021,7 +21924,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="188" spans="1:19">
+    <row r="188" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="9">
         <v>187</v>
       </c>
@@ -22070,7 +21973,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="189" spans="1:19">
+    <row r="189" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="9">
         <v>188</v>
       </c>
@@ -22121,7 +22024,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="190" spans="1:19">
+    <row r="190" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="9">
         <v>189</v>
       </c>
@@ -22168,7 +22071,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="191" spans="1:19">
+    <row r="191" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="9">
         <v>190</v>
       </c>
@@ -22215,7 +22118,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="192" spans="1:19">
+    <row r="192" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="9">
         <v>191</v>
       </c>
@@ -22266,7 +22169,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="193" spans="1:19">
+    <row r="193" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="9">
         <v>192</v>
       </c>
@@ -22313,7 +22216,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="194" spans="1:19">
+    <row r="194" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="9">
         <v>193</v>
       </c>
@@ -22366,7 +22269,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="195" spans="1:19">
+    <row r="195" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="9">
         <v>194</v>
       </c>
@@ -22413,7 +22316,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="196" spans="1:19">
+    <row r="196" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="9">
         <v>195</v>
       </c>
@@ -22460,7 +22363,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="197" spans="1:19">
+    <row r="197" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="9">
         <v>196</v>
       </c>
@@ -22507,7 +22410,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="198" spans="1:19">
+    <row r="198" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="9">
         <v>197</v>
       </c>
@@ -22556,7 +22459,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="199" spans="1:19">
+    <row r="199" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="9">
         <v>198</v>
       </c>
@@ -22603,7 +22506,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="200" spans="1:19">
+    <row r="200" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="9">
         <v>199</v>
       </c>
@@ -22650,7 +22553,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="201" spans="1:19">
+    <row r="201" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="9">
         <v>200</v>
       </c>
@@ -22699,7 +22602,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="202" spans="1:19">
+    <row r="202" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="9">
         <v>201</v>
       </c>
@@ -22744,7 +22647,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="203" spans="1:19">
+    <row r="203" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="9">
         <v>202</v>
       </c>
@@ -22797,7 +22700,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="204" spans="1:19">
+    <row r="204" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="9">
         <v>203</v>
       </c>
@@ -22848,7 +22751,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="205" spans="1:19">
+    <row r="205" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="9">
         <v>204</v>
       </c>
@@ -22899,7 +22802,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="206" spans="1:19">
+    <row r="206" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="9">
         <v>205</v>
       </c>
@@ -22948,7 +22851,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="207" spans="1:19">
+    <row r="207" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="9">
         <v>206</v>
       </c>
@@ -22995,7 +22898,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="208" spans="1:19">
+    <row r="208" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="9">
         <v>207</v>
       </c>
@@ -23044,7 +22947,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="209" spans="1:19">
+    <row r="209" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="9">
         <v>208</v>
       </c>
@@ -23097,7 +23000,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="210" spans="1:19">
+    <row r="210" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="9">
         <v>209</v>
       </c>
@@ -23148,7 +23051,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="211" spans="1:19">
+    <row r="211" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="9">
         <v>210</v>
       </c>
@@ -23199,7 +23102,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="212" spans="1:19">
+    <row r="212" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="9">
         <v>211</v>
       </c>
@@ -23248,7 +23151,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="213" spans="1:19">
+    <row r="213" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="9">
         <v>212</v>
       </c>
@@ -23297,7 +23200,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="214" spans="1:19">
+    <row r="214" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="9">
         <v>213</v>
       </c>
@@ -23348,7 +23251,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="215" spans="1:19">
+    <row r="215" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="9">
         <v>214</v>
       </c>
@@ -23397,7 +23300,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="216" spans="1:19">
+    <row r="216" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="9">
         <v>215</v>
       </c>
@@ -23446,7 +23349,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="217" spans="1:19">
+    <row r="217" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="9">
         <v>216</v>
       </c>
@@ -23499,7 +23402,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="218" spans="1:19">
+    <row r="218" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="9">
         <v>217</v>
       </c>
@@ -23546,7 +23449,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="219" spans="1:19">
+    <row r="219" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="9">
         <v>218</v>
       </c>
@@ -23595,7 +23498,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="220" spans="1:19">
+    <row r="220" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="9">
         <v>219</v>
       </c>
@@ -23646,7 +23549,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="221" spans="1:19">
+    <row r="221" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="9">
         <v>220</v>
       </c>
@@ -23695,7 +23598,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="222" spans="1:19">
+    <row r="222" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="9">
         <v>221</v>
       </c>
@@ -23742,7 +23645,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="223" spans="1:19">
+    <row r="223" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="9">
         <v>222</v>
       </c>
@@ -23789,7 +23692,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="224" spans="1:19">
+    <row r="224" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="9">
         <v>223</v>
       </c>
@@ -23838,7 +23741,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="225" spans="1:19">
+    <row r="225" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="9">
         <v>224</v>
       </c>
@@ -23889,7 +23792,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="226" spans="1:19">
+    <row r="226" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="9">
         <v>225</v>
       </c>
@@ -23938,7 +23841,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="227" spans="1:19">
+    <row r="227" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="9">
         <v>226</v>
       </c>
@@ -23987,7 +23890,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="228" spans="1:19">
+    <row r="228" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="9">
         <v>227</v>
       </c>
@@ -24034,7 +23937,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="229" spans="1:19">
+    <row r="229" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="9">
         <v>228</v>
       </c>
@@ -24081,7 +23984,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="230" spans="1:19">
+    <row r="230" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="9">
         <v>229</v>
       </c>
@@ -24128,7 +24031,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="231" spans="1:19">
+    <row r="231" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="9">
         <v>230</v>
       </c>
@@ -24175,7 +24078,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="232" spans="1:19">
+    <row r="232" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="9">
         <v>231</v>
       </c>
@@ -24222,7 +24125,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="233" spans="1:19">
+    <row r="233" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="9">
         <v>232</v>
       </c>
@@ -24269,7 +24172,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="234" spans="1:19">
+    <row r="234" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="9">
         <v>233</v>
       </c>
@@ -24320,7 +24223,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="235" spans="1:19">
+    <row r="235" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="9">
         <v>234</v>
       </c>
@@ -24367,7 +24270,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="236" spans="1:19">
+    <row r="236" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="9">
         <v>235</v>
       </c>
@@ -24414,7 +24317,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="237" spans="1:19">
+    <row r="237" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="9">
         <v>236</v>
       </c>
@@ -24463,7 +24366,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="238" spans="1:19">
+    <row r="238" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="9">
         <v>237</v>
       </c>
@@ -24512,7 +24415,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="239" spans="1:19">
+    <row r="239" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="9">
         <v>238</v>
       </c>
@@ -24561,7 +24464,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="240" spans="1:19">
+    <row r="240" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="9">
         <v>239</v>
       </c>
@@ -24608,7 +24511,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="241" spans="1:19">
+    <row r="241" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="9">
         <v>240</v>
       </c>
@@ -24655,7 +24558,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="242" spans="1:19">
+    <row r="242" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="9">
         <v>241</v>
       </c>
@@ -24702,7 +24605,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="243" spans="1:19">
+    <row r="243" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="9">
         <v>242</v>
       </c>
@@ -24751,7 +24654,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="244" spans="1:19">
+    <row r="244" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="9">
         <v>243</v>
       </c>
@@ -24804,7 +24707,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="245" spans="1:19">
+    <row r="245" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="9">
         <v>244</v>
       </c>
@@ -24853,7 +24756,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="246" spans="1:19">
+    <row r="246" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="9">
         <v>245</v>
       </c>
@@ -24902,7 +24805,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="247" spans="1:19">
+    <row r="247" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="9">
         <v>246</v>
       </c>
@@ -24951,7 +24854,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="248" spans="1:19">
+    <row r="248" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="9">
         <v>247</v>
       </c>
@@ -25002,7 +24905,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="249" spans="1:19">
+    <row r="249" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="9">
         <v>248</v>
       </c>
@@ -25055,7 +24958,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="250" spans="1:19">
+    <row r="250" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="9">
         <v>249</v>
       </c>
@@ -25104,7 +25007,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="251" spans="1:19">
+    <row r="251" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="9">
         <v>250</v>
       </c>
@@ -25153,7 +25056,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="252" spans="1:19">
+    <row r="252" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="9">
         <v>251</v>
       </c>
@@ -25202,7 +25105,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="253" spans="1:19">
+    <row r="253" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="9">
         <v>252</v>
       </c>
@@ -25251,7 +25154,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="254" spans="1:19">
+    <row r="254" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="9">
         <v>253</v>
       </c>
@@ -25300,7 +25203,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="255" spans="1:19">
+    <row r="255" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="9">
         <v>254</v>
       </c>
@@ -25347,7 +25250,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="256" spans="1:19">
+    <row r="256" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="9">
         <v>255</v>
       </c>
@@ -25396,7 +25299,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="257" spans="1:19">
+    <row r="257" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="9">
         <v>256</v>
       </c>
@@ -25445,7 +25348,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="258" spans="1:19">
+    <row r="258" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="9">
         <v>257</v>
       </c>
@@ -25498,7 +25401,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="259" spans="1:19">
+    <row r="259" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="9">
         <v>258</v>
       </c>
@@ -25549,7 +25452,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="260" spans="1:19">
+    <row r="260" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="9">
         <v>259</v>
       </c>
@@ -25602,7 +25505,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="261" spans="1:19">
+    <row r="261" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="9">
         <v>260</v>
       </c>
@@ -25651,7 +25554,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="262" spans="1:19">
+    <row r="262" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="9">
         <v>261</v>
       </c>
@@ -25700,7 +25603,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="263" spans="1:19">
+    <row r="263" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="9">
         <v>262</v>
       </c>
@@ -25749,7 +25652,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="264" spans="1:19">
+    <row r="264" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="9">
         <v>263</v>
       </c>
@@ -25798,7 +25701,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="265" spans="1:19">
+    <row r="265" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="9">
         <v>264</v>
       </c>
@@ -25849,7 +25752,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="266" spans="1:19">
+    <row r="266" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="9">
         <v>265</v>
       </c>
@@ -25900,7 +25803,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="267" spans="1:19">
+    <row r="267" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="9">
         <v>266</v>
       </c>
@@ -25947,7 +25850,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="268" spans="1:19">
+    <row r="268" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="9">
         <v>267</v>
       </c>
@@ -25996,7 +25899,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="269" spans="1:19">
+    <row r="269" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="9">
         <v>268</v>
       </c>
@@ -26045,7 +25948,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="270" spans="1:19">
+    <row r="270" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="9">
         <v>269</v>
       </c>
@@ -26094,7 +25997,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="271" spans="1:19">
+    <row r="271" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="9">
         <v>270</v>
       </c>
@@ -26139,7 +26042,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="272" spans="1:19">
+    <row r="272" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="9">
         <v>271</v>
       </c>
@@ -26186,7 +26089,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="273" spans="1:19">
+    <row r="273" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="9">
         <v>272</v>
       </c>
@@ -26235,7 +26138,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="274" spans="1:19">
+    <row r="274" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="9">
         <v>273</v>
       </c>
@@ -26280,7 +26183,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="275" spans="1:19">
+    <row r="275" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="9">
         <v>274</v>
       </c>
@@ -26329,7 +26232,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="276" spans="1:19">
+    <row r="276" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="9">
         <v>275</v>
       </c>
@@ -26376,7 +26279,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="277" spans="1:19">
+    <row r="277" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="9">
         <v>276</v>
       </c>
@@ -26425,7 +26328,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="278" spans="1:19">
+    <row r="278" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="9">
         <v>277</v>
       </c>
@@ -26476,7 +26379,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="279" spans="1:19">
+    <row r="279" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="9">
         <v>278</v>
       </c>
@@ -26527,7 +26430,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="280" spans="1:19">
+    <row r="280" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="9">
         <v>279</v>
       </c>
@@ -26576,7 +26479,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="281" spans="1:19">
+    <row r="281" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="9">
         <v>280</v>
       </c>
@@ -26623,7 +26526,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="282" spans="1:19">
+    <row r="282" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="9">
         <v>281</v>
       </c>
@@ -26670,7 +26573,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="283" spans="1:19">
+    <row r="283" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="9">
         <v>282</v>
       </c>
@@ -26721,7 +26624,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="284" spans="1:19">
+    <row r="284" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="9">
         <v>283</v>
       </c>
@@ -26770,7 +26673,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="285" spans="1:19">
+    <row r="285" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="9">
         <v>284</v>
       </c>
@@ -26819,7 +26722,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="286" spans="1:19">
+    <row r="286" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="9">
         <v>285</v>
       </c>
@@ -26870,7 +26773,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="287" spans="1:19">
+    <row r="287" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="9">
         <v>286</v>
       </c>
@@ -26921,7 +26824,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="288" spans="1:19">
+    <row r="288" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="9">
         <v>287</v>
       </c>
@@ -26970,7 +26873,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="289" spans="1:19">
+    <row r="289" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="9">
         <v>288</v>
       </c>
@@ -27023,7 +26926,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="290" spans="1:19">
+    <row r="290" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="9">
         <v>289</v>
       </c>
@@ -27072,7 +26975,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="291" spans="1:19">
+    <row r="291" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="9">
         <v>290</v>
       </c>
@@ -27121,7 +27024,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="292" spans="1:19">
+    <row r="292" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="9">
         <v>291</v>
       </c>
@@ -27172,7 +27075,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="293" spans="1:19">
+    <row r="293" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="9">
         <v>292</v>
       </c>
@@ -27223,7 +27126,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="294" spans="1:19">
+    <row r="294" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="9">
         <v>293</v>
       </c>
@@ -27274,7 +27177,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="295" spans="1:19">
+    <row r="295" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="9">
         <v>294</v>
       </c>
@@ -27325,7 +27228,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="296" spans="1:19">
+    <row r="296" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="9">
         <v>295</v>
       </c>
@@ -27378,7 +27281,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="297" spans="1:19">
+    <row r="297" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="9">
         <v>296</v>
       </c>
@@ -27429,7 +27332,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="298" spans="1:19">
+    <row r="298" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="9">
         <v>297</v>
       </c>
@@ -27480,7 +27383,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="299" spans="1:19">
+    <row r="299" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="9">
         <v>298</v>
       </c>
@@ -27531,7 +27434,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="300" spans="1:19">
+    <row r="300" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="9">
         <v>299</v>
       </c>
@@ -27582,7 +27485,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="301" spans="1:19">
+    <row r="301" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="9">
         <v>300</v>
       </c>
@@ -27631,7 +27534,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="302" spans="1:19">
+    <row r="302" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="9">
         <v>301</v>
       </c>
@@ -27684,7 +27587,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="303" spans="1:19">
+    <row r="303" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="9">
         <v>302</v>
       </c>
@@ -27733,7 +27636,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="304" spans="1:19">
+    <row r="304" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="9">
         <v>303</v>
       </c>
@@ -27782,7 +27685,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="305" spans="1:19">
+    <row r="305" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="9">
         <v>304</v>
       </c>
@@ -27827,7 +27730,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="306" spans="1:19">
+    <row r="306" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="9">
         <v>305</v>
       </c>
@@ -27878,7 +27781,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="307" spans="1:19">
+    <row r="307" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="9">
         <v>306</v>
       </c>
@@ -27925,7 +27828,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="308" spans="1:19">
+    <row r="308" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="9">
         <v>307</v>
       </c>
@@ -27974,7 +27877,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="309" spans="1:19">
+    <row r="309" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="9">
         <v>308</v>
       </c>
@@ -28023,7 +27926,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="310" spans="1:19">
+    <row r="310" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="9">
         <v>309</v>
       </c>
@@ -28072,7 +27975,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="311" spans="1:19">
+    <row r="311" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="9">
         <v>310</v>
       </c>
@@ -28123,7 +28026,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="312" spans="1:19">
+    <row r="312" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="9">
         <v>311</v>
       </c>
@@ -28170,7 +28073,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="313" spans="1:19">
+    <row r="313" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="9">
         <v>312</v>
       </c>
@@ -28219,7 +28122,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="314" spans="1:19">
+    <row r="314" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="9">
         <v>313</v>
       </c>
@@ -28268,7 +28171,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="315" spans="1:19">
+    <row r="315" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="9">
         <v>314</v>
       </c>
@@ -28319,7 +28222,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="316" spans="1:19">
+    <row r="316" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="9">
         <v>315</v>
       </c>
@@ -28366,7 +28269,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="317" spans="1:19">
+    <row r="317" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="9">
         <v>316</v>
       </c>
@@ -28417,7 +28320,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="318" spans="1:19">
+    <row r="318" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="9">
         <v>317</v>
       </c>
@@ -28464,7 +28367,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="319" spans="1:19">
+    <row r="319" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="9">
         <v>318</v>
       </c>
@@ -28513,7 +28416,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="320" spans="1:19">
+    <row r="320" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="9">
         <v>319</v>
       </c>
@@ -28560,7 +28463,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="321" spans="1:19">
+    <row r="321" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="9">
         <v>320</v>
       </c>
@@ -28609,7 +28512,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="322" spans="1:19">
+    <row r="322" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="9">
         <v>321</v>
       </c>
@@ -28658,7 +28561,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="323" spans="1:19">
+    <row r="323" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="9">
         <v>322</v>
       </c>
@@ -28707,7 +28610,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="324" spans="1:19">
+    <row r="324" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="9">
         <v>323</v>
       </c>
@@ -28756,7 +28659,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="325" spans="1:19">
+    <row r="325" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="9">
         <v>324</v>
       </c>
@@ -28805,7 +28708,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="326" spans="1:19">
+    <row r="326" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="9">
         <v>325</v>
       </c>
@@ -28852,7 +28755,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="327" spans="1:19">
+    <row r="327" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="9">
         <v>326</v>
       </c>
@@ -28901,7 +28804,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="328" spans="1:19">
+    <row r="328" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="9">
         <v>327</v>
       </c>
@@ -28950,7 +28853,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="329" spans="1:19">
+    <row r="329" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="9">
         <v>328</v>
       </c>
@@ -28997,7 +28900,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="330" spans="1:19">
+    <row r="330" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="9">
         <v>329</v>
       </c>
@@ -29046,7 +28949,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="331" spans="1:19">
+    <row r="331" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="9">
         <v>330</v>
       </c>
@@ -29095,7 +28998,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="332" spans="1:19">
+    <row r="332" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="9">
         <v>331</v>
       </c>
@@ -29144,7 +29047,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="333" spans="1:19">
+    <row r="333" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="9">
         <v>332</v>
       </c>
@@ -29195,7 +29098,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="334" spans="1:19">
+    <row r="334" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="9">
         <v>333</v>
       </c>
@@ -29242,7 +29145,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="335" spans="1:19">
+    <row r="335" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="9">
         <v>334</v>
       </c>
@@ -29291,7 +29194,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="336" spans="1:19">
+    <row r="336" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="9">
         <v>335</v>
       </c>
@@ -29340,7 +29243,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="337" spans="1:19">
+    <row r="337" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="9">
         <v>336</v>
       </c>
@@ -29387,7 +29290,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="338" spans="1:19">
+    <row r="338" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="9">
         <v>337</v>
       </c>
@@ -29436,7 +29339,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="339" spans="1:19">
+    <row r="339" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="9">
         <v>338</v>
       </c>
@@ -29485,7 +29388,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="340" spans="1:19">
+    <row r="340" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="9">
         <v>339</v>
       </c>
@@ -29534,7 +29437,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="341" spans="1:19">
+    <row r="341" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="9">
         <v>340</v>
       </c>
@@ -29583,7 +29486,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="342" spans="1:19">
+    <row r="342" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="9">
         <v>341</v>
       </c>
@@ -29630,7 +29533,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="343" spans="1:19">
+    <row r="343" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="9">
         <v>342</v>
       </c>
@@ -29677,7 +29580,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="344" spans="1:19">
+    <row r="344" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="9">
         <v>343</v>
       </c>
@@ -29726,7 +29629,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="345" spans="1:19">
+    <row r="345" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="9">
         <v>344</v>
       </c>
@@ -29773,7 +29676,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="346" spans="1:19">
+    <row r="346" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="9">
         <v>345</v>
       </c>
@@ -29822,7 +29725,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="347" spans="1:19">
+    <row r="347" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="9">
         <v>346</v>
       </c>
@@ -29869,7 +29772,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="348" spans="1:19">
+    <row r="348" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="9">
         <v>347</v>
       </c>
@@ -29918,7 +29821,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="349" spans="1:19">
+    <row r="349" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="9">
         <v>348</v>
       </c>
@@ -29969,7 +29872,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="350" spans="1:19">
+    <row r="350" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="9">
         <v>349</v>
       </c>
@@ -30018,7 +29921,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="351" spans="1:19">
+    <row r="351" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="9">
         <v>350</v>
       </c>
@@ -30067,7 +29970,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="352" spans="1:19">
+    <row r="352" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="9">
         <v>351</v>
       </c>
@@ -30120,7 +30023,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="353" spans="1:19">
+    <row r="353" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="9">
         <v>352</v>
       </c>
@@ -30171,7 +30074,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="354" spans="1:19">
+    <row r="354" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="9">
         <v>353</v>
       </c>
@@ -30222,7 +30125,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="355" spans="1:19">
+    <row r="355" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="9">
         <v>354</v>
       </c>
@@ -30273,7 +30176,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="356" spans="1:19">
+    <row r="356" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="9">
         <v>355</v>
       </c>
@@ -30324,7 +30227,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="357" spans="1:19">
+    <row r="357" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="9">
         <v>356</v>
       </c>
@@ -30375,7 +30278,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="358" spans="1:19">
+    <row r="358" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="9">
         <v>357</v>
       </c>
@@ -30426,7 +30329,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="359" spans="1:19">
+    <row r="359" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="9">
         <v>358</v>
       </c>
@@ -30477,7 +30380,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="360" spans="1:19">
+    <row r="360" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="9">
         <v>359</v>
       </c>
@@ -30528,7 +30431,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="361" spans="1:19">
+    <row r="361" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="9">
         <v>360</v>
       </c>
@@ -30579,7 +30482,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="362" spans="1:19">
+    <row r="362" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="9">
         <v>361</v>
       </c>
@@ -30628,7 +30531,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="363" spans="1:19">
+    <row r="363" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="9">
         <v>362</v>
       </c>
@@ -30677,7 +30580,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="364" spans="1:19">
+    <row r="364" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="9">
         <v>363</v>
       </c>
@@ -30726,7 +30629,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="365" spans="1:19">
+    <row r="365" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="9">
         <v>364</v>
       </c>
@@ -30777,7 +30680,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="366" spans="1:19">
+    <row r="366" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="9">
         <v>365</v>
       </c>
@@ -30828,7 +30731,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="367" spans="1:19">
+    <row r="367" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="9">
         <v>366</v>
       </c>
@@ -30877,7 +30780,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="368" spans="1:19">
+    <row r="368" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="9">
         <v>367</v>
       </c>
@@ -30926,7 +30829,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="369" spans="1:19">
+    <row r="369" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="9">
         <v>368</v>
       </c>
@@ -30977,7 +30880,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="370" spans="1:19">
+    <row r="370" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="9">
         <v>369</v>
       </c>
@@ -31030,7 +30933,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="371" spans="1:19">
+    <row r="371" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="9">
         <v>370</v>
       </c>
@@ -31081,7 +30984,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="372" spans="1:19">
+    <row r="372" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="9">
         <v>371</v>
       </c>
@@ -31134,7 +31037,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="373" spans="1:19">
+    <row r="373" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="9">
         <v>372</v>
       </c>
@@ -31185,7 +31088,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="374" spans="1:19">
+    <row r="374" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="9">
         <v>373</v>
       </c>
@@ -31234,7 +31137,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="375" spans="1:19">
+    <row r="375" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="9">
         <v>374</v>
       </c>
@@ -31285,7 +31188,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="376" spans="1:19">
+    <row r="376" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="9">
         <v>375</v>
       </c>
@@ -31336,7 +31239,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="377" spans="1:19">
+    <row r="377" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="9">
         <v>376</v>
       </c>
@@ -31385,7 +31288,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="378" spans="1:19">
+    <row r="378" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="9">
         <v>377</v>
       </c>
@@ -31436,7 +31339,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="379" spans="1:19">
+    <row r="379" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="9">
         <v>378</v>
       </c>
@@ -31485,7 +31388,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="380" spans="1:19">
+    <row r="380" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="9">
         <v>379</v>
       </c>
@@ -31536,7 +31439,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="381" spans="1:19">
+    <row r="381" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="9">
         <v>380</v>
       </c>
@@ -31589,7 +31492,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="382" spans="1:19">
+    <row r="382" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="9">
         <v>381</v>
       </c>
@@ -31638,7 +31541,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="383" spans="1:19">
+    <row r="383" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="9">
         <v>382</v>
       </c>
@@ -31687,7 +31590,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="384" spans="1:19">
+    <row r="384" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="9">
         <v>383</v>
       </c>
@@ -31736,7 +31639,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="385" spans="1:19">
+    <row r="385" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="9">
         <v>384</v>
       </c>
@@ -31787,7 +31690,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="386" spans="1:19">
+    <row r="386" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="9">
         <v>385</v>
       </c>
@@ -31840,7 +31743,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="387" spans="1:19">
+    <row r="387" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="9">
         <v>386</v>
       </c>
@@ -31889,7 +31792,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="388" spans="1:19">
+    <row r="388" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="9">
         <v>387</v>
       </c>
@@ -31942,7 +31845,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="389" spans="1:19">
+    <row r="389" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="9">
         <v>388</v>
       </c>
@@ -31993,7 +31896,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="390" spans="1:19">
+    <row r="390" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="9">
         <v>389</v>
       </c>
@@ -32042,7 +31945,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="391" spans="1:19">
+    <row r="391" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="9">
         <v>390</v>
       </c>
@@ -32091,7 +31994,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="392" spans="1:19">
+    <row r="392" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="9">
         <v>391</v>
       </c>
@@ -32142,7 +32045,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="393" spans="1:19">
+    <row r="393" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="9">
         <v>392</v>
       </c>
@@ -32195,7 +32098,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="394" spans="1:19">
+    <row r="394" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="9">
         <v>393</v>
       </c>
@@ -32246,7 +32149,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="395" spans="1:19">
+    <row r="395" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="9">
         <v>394</v>
       </c>
@@ -32295,7 +32198,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="396" spans="1:19">
+    <row r="396" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="9">
         <v>395</v>
       </c>
@@ -32344,7 +32247,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="397" spans="1:19">
+    <row r="397" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="9">
         <v>396</v>
       </c>
@@ -32393,7 +32296,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="398" spans="1:19">
+    <row r="398" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="9">
         <v>397</v>
       </c>
@@ -32442,7 +32345,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="399" spans="1:19">
+    <row r="399" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="9">
         <v>398</v>
       </c>
@@ -32493,7 +32396,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="400" spans="1:19">
+    <row r="400" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" s="9">
         <v>399</v>
       </c>
@@ -32544,7 +32447,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="401" spans="1:19">
+    <row r="401" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" s="9">
         <v>400</v>
       </c>
@@ -32591,7 +32494,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="402" spans="1:19">
+    <row r="402" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" s="9">
         <v>401</v>
       </c>
@@ -32638,7 +32541,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="403" spans="1:19">
+    <row r="403" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" s="9">
         <v>402</v>
       </c>
@@ -32687,7 +32590,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="404" spans="1:19">
+    <row r="404" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="9">
         <v>403</v>
       </c>
@@ -32736,7 +32639,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="405" spans="1:19">
+    <row r="405" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="9">
         <v>404</v>
       </c>
@@ -32785,7 +32688,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="406" spans="1:19">
+    <row r="406" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" s="9">
         <v>405</v>
       </c>
@@ -32834,7 +32737,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="407" spans="1:19">
+    <row r="407" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="9">
         <v>406</v>
       </c>
@@ -32883,7 +32786,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="408" spans="1:19">
+    <row r="408" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" s="9">
         <v>407</v>
       </c>
@@ -32932,7 +32835,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="409" spans="1:19">
+    <row r="409" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="9">
         <v>408</v>
       </c>
@@ -32981,7 +32884,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="410" spans="1:19">
+    <row r="410" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="9">
         <v>409</v>
       </c>
@@ -33032,7 +32935,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="411" spans="1:19">
+    <row r="411" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="9">
         <v>410</v>
       </c>
@@ -33081,7 +32984,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="412" spans="1:19">
+    <row r="412" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="9">
         <v>411</v>
       </c>
@@ -33130,7 +33033,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="413" spans="1:19">
+    <row r="413" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="9">
         <v>412</v>
       </c>
@@ -33175,7 +33078,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="414" spans="1:19">
+    <row r="414" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="9">
         <v>413</v>
       </c>
@@ -33226,7 +33129,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="415" spans="1:19">
+    <row r="415" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="9">
         <v>414</v>
       </c>
@@ -33275,7 +33178,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="416" spans="1:19">
+    <row r="416" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="9">
         <v>415</v>
       </c>
@@ -33326,7 +33229,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="417" spans="1:19">
+    <row r="417" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="9">
         <v>416</v>
       </c>
@@ -33379,7 +33282,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="418" spans="1:19">
+    <row r="418" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="9">
         <v>417</v>
       </c>
@@ -33430,7 +33333,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="419" spans="1:19">
+    <row r="419" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="9">
         <v>418</v>
       </c>
@@ -33481,7 +33384,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="420" spans="1:19">
+    <row r="420" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="9">
         <v>419</v>
       </c>
@@ -33530,7 +33433,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="421" spans="1:19">
+    <row r="421" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="9">
         <v>420</v>
       </c>
@@ -33579,7 +33482,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="422" spans="1:19">
+    <row r="422" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="9">
         <v>421</v>
       </c>
@@ -33628,7 +33531,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="423" spans="1:19">
+    <row r="423" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="9">
         <v>422</v>
       </c>
@@ -33677,7 +33580,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="424" spans="1:19">
+    <row r="424" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="9">
         <v>423</v>
       </c>
@@ -33726,7 +33629,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="425" spans="1:19">
+    <row r="425" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="9">
         <v>424</v>
       </c>
@@ -33775,7 +33678,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="426" spans="1:19">
+    <row r="426" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="9">
         <v>425</v>
       </c>
@@ -33824,7 +33727,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="427" spans="1:19">
+    <row r="427" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="9">
         <v>426</v>
       </c>
@@ -33875,7 +33778,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="428" spans="1:19">
+    <row r="428" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="9">
         <v>427</v>
       </c>
@@ -33924,7 +33827,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="429" spans="1:19">
+    <row r="429" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="9">
         <v>428</v>
       </c>
@@ -33971,7 +33874,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="430" spans="1:19">
+    <row r="430" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="9">
         <v>429</v>
       </c>
@@ -34020,7 +33923,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="431" spans="1:19">
+    <row r="431" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="9">
         <v>430</v>
       </c>
@@ -34069,7 +33972,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="432" spans="1:19">
+    <row r="432" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="9">
         <v>431</v>
       </c>
@@ -34118,7 +34021,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="433" spans="1:19">
+    <row r="433" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="9">
         <v>432</v>
       </c>
@@ -34167,7 +34070,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="434" spans="1:19">
+    <row r="434" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="9">
         <v>433</v>
       </c>
@@ -34216,7 +34119,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="435" spans="1:19">
+    <row r="435" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" s="9">
         <v>434</v>
       </c>
@@ -34263,7 +34166,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="436" spans="1:19">
+    <row r="436" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" s="9">
         <v>435</v>
       </c>
@@ -34312,7 +34215,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="437" spans="1:19">
+    <row r="437" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" s="9">
         <v>436</v>
       </c>
@@ -34361,7 +34264,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="438" spans="1:19">
+    <row r="438" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" s="9">
         <v>437</v>
       </c>
@@ -34410,7 +34313,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="439" spans="1:19">
+    <row r="439" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="9">
         <v>438</v>
       </c>
@@ -34459,7 +34362,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="440" spans="1:19">
+    <row r="440" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="9">
         <v>439</v>
       </c>
@@ -34510,7 +34413,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="441" spans="1:19">
+    <row r="441" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="9">
         <v>440</v>
       </c>
@@ -34561,7 +34464,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="442" spans="1:19">
+    <row r="442" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" s="9">
         <v>441</v>
       </c>
@@ -34610,7 +34513,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="443" spans="1:19">
+    <row r="443" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" s="9">
         <v>442</v>
       </c>
@@ -34661,7 +34564,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="444" spans="1:19">
+    <row r="444" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" s="9">
         <v>443</v>
       </c>
@@ -34714,7 +34617,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="445" spans="1:19">
+    <row r="445" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" s="9">
         <v>444</v>
       </c>
@@ -34763,7 +34666,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="446" spans="1:19">
+    <row r="446" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="9">
         <v>445</v>
       </c>
@@ -34812,7 +34715,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="447" spans="1:19">
+    <row r="447" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="9">
         <v>446</v>
       </c>
@@ -34859,7 +34762,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="448" spans="1:19">
+    <row r="448" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" s="9">
         <v>447</v>
       </c>
@@ -34908,7 +34811,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="449" spans="1:19">
+    <row r="449" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" s="9">
         <v>448</v>
       </c>
@@ -34955,7 +34858,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="450" spans="1:19">
+    <row r="450" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" s="9">
         <v>449</v>
       </c>
@@ -35004,7 +34907,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="451" spans="1:19">
+    <row r="451" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" s="9">
         <v>450</v>
       </c>
@@ -35051,7 +34954,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="452" spans="1:19">
+    <row r="452" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" s="9">
         <v>451</v>
       </c>
@@ -35100,7 +35003,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="453" spans="1:19">
+    <row r="453" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" s="9">
         <v>452</v>
       </c>
@@ -35151,7 +35054,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="454" spans="1:19">
+    <row r="454" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" s="9">
         <v>453</v>
       </c>
@@ -35202,7 +35105,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="455" spans="1:19">
+    <row r="455" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" s="9">
         <v>454</v>
       </c>
@@ -35249,7 +35152,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="456" spans="1:19">
+    <row r="456" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" s="9">
         <v>455</v>
       </c>
@@ -35298,7 +35201,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="457" spans="1:19">
+    <row r="457" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" s="9">
         <v>456</v>
       </c>
@@ -35347,7 +35250,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="458" spans="1:19">
+    <row r="458" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" s="9">
         <v>457</v>
       </c>
@@ -35398,7 +35301,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="459" spans="1:19">
+    <row r="459" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" s="9">
         <v>458</v>
       </c>
@@ -35449,7 +35352,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="460" spans="1:19">
+    <row r="460" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" s="9">
         <v>459</v>
       </c>
@@ -35496,7 +35399,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="461" spans="1:19">
+    <row r="461" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" s="9">
         <v>460</v>
       </c>
@@ -35547,7 +35450,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="462" spans="1:19">
+    <row r="462" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" s="9">
         <v>461</v>
       </c>
@@ -35596,7 +35499,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="463" spans="1:19">
+    <row r="463" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" s="9">
         <v>462</v>
       </c>
@@ -35649,7 +35552,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="464" spans="1:19">
+    <row r="464" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" s="9">
         <v>463</v>
       </c>
@@ -35700,7 +35603,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="465" spans="1:19">
+    <row r="465" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" s="9">
         <v>464</v>
       </c>
@@ -35747,7 +35650,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="466" spans="1:19">
+    <row r="466" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" s="9">
         <v>465</v>
       </c>
@@ -35796,7 +35699,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="467" spans="1:19">
+    <row r="467" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" s="9">
         <v>466</v>
       </c>
@@ -35849,7 +35752,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="468" spans="1:19">
+    <row r="468" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" s="9">
         <v>467</v>
       </c>
@@ -35896,7 +35799,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="469" spans="1:19">
+    <row r="469" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" s="9">
         <v>468</v>
       </c>
@@ -35949,7 +35852,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="470" spans="1:19">
+    <row r="470" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" s="9">
         <v>469</v>
       </c>
@@ -35998,7 +35901,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="471" spans="1:19">
+    <row r="471" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" s="9">
         <v>470</v>
       </c>
@@ -36051,7 +35954,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="472" spans="1:19">
+    <row r="472" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" s="9">
         <v>471</v>
       </c>
@@ -36102,7 +36005,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="473" spans="1:19">
+    <row r="473" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" s="9">
         <v>472</v>
       </c>
@@ -36153,7 +36056,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="474" spans="1:19">
+    <row r="474" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" s="9">
         <v>473</v>
       </c>
@@ -36202,7 +36105,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="475" spans="1:19">
+    <row r="475" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" s="9">
         <v>474</v>
       </c>
@@ -36251,7 +36154,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="476" spans="1:19">
+    <row r="476" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" s="9">
         <v>475</v>
       </c>
@@ -36298,7 +36201,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="477" spans="1:19">
+    <row r="477" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" s="9">
         <v>476</v>
       </c>
@@ -36347,7 +36250,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="478" spans="1:19">
+    <row r="478" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" s="9">
         <v>477</v>
       </c>
@@ -36398,7 +36301,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="479" spans="1:19">
+    <row r="479" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" s="9">
         <v>478</v>
       </c>
@@ -36447,7 +36350,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="480" spans="1:19">
+    <row r="480" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" s="9">
         <v>479</v>
       </c>
@@ -36496,7 +36399,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="481" spans="1:19">
+    <row r="481" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" s="9">
         <v>480</v>
       </c>
@@ -36545,7 +36448,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="482" spans="1:19">
+    <row r="482" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" s="9">
         <v>481</v>
       </c>
@@ -36594,7 +36497,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="483" spans="1:19">
+    <row r="483" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" s="9">
         <v>482</v>
       </c>
@@ -36643,7 +36546,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="484" spans="1:19">
+    <row r="484" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" s="9">
         <v>483</v>
       </c>
@@ -36690,7 +36593,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="485" spans="1:19">
+    <row r="485" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" s="9">
         <v>484</v>
       </c>
@@ -36737,7 +36640,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="486" spans="1:19">
+    <row r="486" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" s="9">
         <v>485</v>
       </c>
@@ -36786,7 +36689,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="487" spans="1:19">
+    <row r="487" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" s="9">
         <v>486</v>
       </c>
@@ -36835,7 +36738,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="488" spans="1:19">
+    <row r="488" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" s="9">
         <v>487</v>
       </c>
@@ -36884,7 +36787,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="489" spans="1:19">
+    <row r="489" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" s="9">
         <v>488</v>
       </c>
@@ -36935,7 +36838,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="490" spans="1:19">
+    <row r="490" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" s="9">
         <v>489</v>
       </c>
@@ -36984,7 +36887,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="491" spans="1:19">
+    <row r="491" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" s="9">
         <v>490</v>
       </c>
@@ -37033,7 +36936,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="492" spans="1:19">
+    <row r="492" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" s="9">
         <v>491</v>
       </c>
@@ -37084,7 +36987,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="493" spans="1:19">
+    <row r="493" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" s="9">
         <v>492</v>
       </c>
@@ -37135,7 +37038,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="494" spans="1:19">
+    <row r="494" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" s="9">
         <v>493</v>
       </c>
@@ -37184,7 +37087,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="495" spans="1:19">
+    <row r="495" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" s="9">
         <v>494</v>
       </c>
@@ -37231,7 +37134,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="496" spans="1:19">
+    <row r="496" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" s="9">
         <v>495</v>
       </c>
@@ -37282,7 +37185,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="497" spans="1:19">
+    <row r="497" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" s="9">
         <v>496</v>
       </c>
@@ -37331,7 +37234,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="498" spans="1:19">
+    <row r="498" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" s="9">
         <v>497</v>
       </c>
@@ -37380,7 +37283,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="499" spans="1:19">
+    <row r="499" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" s="9">
         <v>498</v>
       </c>
@@ -37427,7 +37330,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="500" spans="1:19">
+    <row r="500" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" s="9">
         <v>499</v>
       </c>
@@ -37476,7 +37379,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="501" spans="1:19">
+    <row r="501" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" s="9">
         <v>500</v>
       </c>
@@ -37525,7 +37428,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="502" spans="1:19">
+    <row r="502" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" s="9">
         <v>501</v>
       </c>
@@ -37574,7 +37477,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="503" spans="1:19">
+    <row r="503" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" s="9">
         <v>502</v>
       </c>
@@ -37623,7 +37526,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="504" spans="1:19">
+    <row r="504" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" s="9">
         <v>503</v>
       </c>
@@ -37672,7 +37575,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="505" spans="1:19">
+    <row r="505" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" s="9">
         <v>504</v>
       </c>
@@ -37721,7 +37624,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="506" spans="1:19">
+    <row r="506" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" s="9">
         <v>505</v>
       </c>
@@ -37770,7 +37673,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="507" spans="1:19">
+    <row r="507" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" s="9">
         <v>506</v>
       </c>
@@ -37817,7 +37720,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="508" spans="1:19">
+    <row r="508" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" s="9">
         <v>507</v>
       </c>
@@ -37866,7 +37769,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="509" spans="1:19">
+    <row r="509" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" s="9">
         <v>508</v>
       </c>
@@ -37915,7 +37818,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="510" spans="1:19">
+    <row r="510" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" s="9">
         <v>509</v>
       </c>
@@ -37964,7 +37867,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="511" spans="1:19">
+    <row r="511" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" s="9">
         <v>510</v>
       </c>
@@ -38011,7 +37914,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="512" spans="1:19">
+    <row r="512" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" s="9">
         <v>511</v>
       </c>
@@ -38060,7 +37963,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="513" spans="1:19">
+    <row r="513" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" s="9">
         <v>512</v>
       </c>
@@ -38109,7 +38012,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="514" spans="1:19">
+    <row r="514" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" s="9">
         <v>513</v>
       </c>
@@ -38158,7 +38061,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="515" spans="1:19">
+    <row r="515" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" s="9">
         <v>514</v>
       </c>
@@ -38207,7 +38110,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="516" spans="1:19">
+    <row r="516" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" s="9">
         <v>515</v>
       </c>
@@ -38254,7 +38157,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="517" spans="1:19">
+    <row r="517" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" s="9">
         <v>516</v>
       </c>
@@ -38305,7 +38208,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="518" spans="1:19">
+    <row r="518" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" s="9">
         <v>517</v>
       </c>
@@ -38356,7 +38259,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="519" spans="1:19">
+    <row r="519" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" s="9">
         <v>518</v>
       </c>
@@ -38407,7 +38310,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="520" spans="1:19">
+    <row r="520" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" s="9">
         <v>519</v>
       </c>
@@ -38456,7 +38359,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="521" spans="1:19">
+    <row r="521" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" s="9">
         <v>520</v>
       </c>
@@ -38507,7 +38410,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="522" spans="1:19">
+    <row r="522" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" s="9">
         <v>521</v>
       </c>
@@ -38556,7 +38459,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="523" spans="1:19">
+    <row r="523" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" s="9">
         <v>522</v>
       </c>
@@ -38603,7 +38506,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="524" spans="1:19">
+    <row r="524" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" s="9">
         <v>523</v>
       </c>
@@ -38656,7 +38559,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="525" spans="1:19">
+    <row r="525" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" s="9">
         <v>524</v>
       </c>
@@ -38707,7 +38610,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="526" spans="1:19">
+    <row r="526" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" s="9">
         <v>525</v>
       </c>
@@ -38756,7 +38659,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="527" spans="1:19">
+    <row r="527" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" s="9">
         <v>526</v>
       </c>
@@ -38805,7 +38708,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="528" spans="1:19">
+    <row r="528" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" s="9">
         <v>527</v>
       </c>
@@ -38856,7 +38759,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="529" spans="1:19">
+    <row r="529" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" s="9">
         <v>528</v>
       </c>
@@ -38907,7 +38810,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="530" spans="1:19">
+    <row r="530" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" s="9">
         <v>529</v>
       </c>
@@ -38958,7 +38861,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="531" spans="1:19">
+    <row r="531" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" s="9">
         <v>530</v>
       </c>
@@ -39007,7 +38910,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="532" spans="1:19">
+    <row r="532" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" s="9">
         <v>531</v>
       </c>
@@ -39056,7 +38959,7 @@
         <v>2591</v>
       </c>
     </row>
-    <row r="533" spans="1:19">
+    <row r="533" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" s="9">
         <v>532</v>
       </c>
@@ -39107,7 +39010,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="534" spans="1:19">
+    <row r="534" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" s="9">
         <v>533</v>
       </c>
@@ -39154,7 +39057,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="535" spans="1:19">
+    <row r="535" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" s="9">
         <v>534</v>
       </c>
@@ -39203,7 +39106,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="536" spans="1:19">
+    <row r="536" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" s="9">
         <v>535</v>
       </c>
@@ -39252,7 +39155,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="537" spans="1:19">
+    <row r="537" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" s="9">
         <v>536</v>
       </c>
@@ -39301,7 +39204,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="538" spans="1:19">
+    <row r="538" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" s="9">
         <v>537</v>
       </c>
@@ -39352,7 +39255,7 @@
         <v>2617</v>
       </c>
     </row>
-    <row r="539" spans="1:19">
+    <row r="539" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" s="9">
         <v>538</v>
       </c>
@@ -39403,7 +39306,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="540" spans="1:19">
+    <row r="540" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" s="9">
         <v>539</v>
       </c>
@@ -39452,7 +39355,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="541" spans="1:19">
+    <row r="541" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" s="9">
         <v>540</v>
       </c>
@@ -39499,7 +39402,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="542" spans="1:19">
+    <row r="542" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" s="9">
         <v>541</v>
       </c>
@@ -39548,7 +39451,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="543" spans="1:19">
+    <row r="543" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" s="9">
         <v>542</v>
       </c>
@@ -39601,7 +39504,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="544" spans="1:19">
+    <row r="544" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" s="9">
         <v>543</v>
       </c>
@@ -39654,7 +39557,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="545" spans="1:19">
+    <row r="545" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" s="9">
         <v>544</v>
       </c>
@@ -39703,7 +39606,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="546" spans="1:19">
+    <row r="546" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" s="9">
         <v>545</v>
       </c>
@@ -39752,7 +39655,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="547" spans="1:19">
+    <row r="547" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" s="9">
         <v>546</v>
       </c>
@@ -39801,7 +39704,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="548" spans="1:19">
+    <row r="548" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" s="9">
         <v>547</v>
       </c>
@@ -39852,7 +39755,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="549" spans="1:19">
+    <row r="549" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" s="9">
         <v>548</v>
       </c>
@@ -39903,7 +39806,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="550" spans="1:19">
+    <row r="550" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" s="9">
         <v>549</v>
       </c>
@@ -39952,7 +39855,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="551" spans="1:19">
+    <row r="551" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" s="9">
         <v>550</v>
       </c>
@@ -40003,7 +39906,7 @@
         <v>2673</v>
       </c>
     </row>
-    <row r="552" spans="1:19">
+    <row r="552" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" s="9">
         <v>551</v>
       </c>
@@ -40054,7 +39957,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="553" spans="1:19">
+    <row r="553" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" s="9">
         <v>552</v>
       </c>
@@ -40103,7 +40006,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="554" spans="1:19">
+    <row r="554" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" s="9">
         <v>553</v>
       </c>
@@ -40152,7 +40055,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="555" spans="1:19">
+    <row r="555" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" s="9">
         <v>554</v>
       </c>
@@ -40203,7 +40106,7 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="556" spans="1:19">
+    <row r="556" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" s="9">
         <v>555</v>
       </c>
@@ -40252,7 +40155,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="557" spans="1:19">
+    <row r="557" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" s="9">
         <v>556</v>
       </c>
@@ -40301,7 +40204,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="558" spans="1:19">
+    <row r="558" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" s="9">
         <v>557</v>
       </c>
@@ -40350,7 +40253,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="559" spans="1:19">
+    <row r="559" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" s="9">
         <v>558</v>
       </c>
@@ -40399,7 +40302,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="560" spans="1:19">
+    <row r="560" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" s="9">
         <v>559</v>
       </c>
@@ -40448,7 +40351,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="561" spans="1:19">
+    <row r="561" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" s="9">
         <v>560</v>
       </c>
@@ -40497,7 +40400,7 @@
         <v>2721</v>
       </c>
     </row>
-    <row r="562" spans="1:19">
+    <row r="562" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" s="9">
         <v>561</v>
       </c>
@@ -40546,7 +40449,7 @@
         <v>2724</v>
       </c>
     </row>
-    <row r="563" spans="1:19">
+    <row r="563" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" s="9">
         <v>562</v>
       </c>
@@ -40595,7 +40498,7 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="564" spans="1:19">
+    <row r="564" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" s="9">
         <v>563</v>
       </c>
@@ -40644,7 +40547,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="565" spans="1:19">
+    <row r="565" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" s="9">
         <v>564</v>
       </c>
@@ -40693,7 +40596,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="566" spans="1:19">
+    <row r="566" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" s="9">
         <v>565</v>
       </c>
@@ -40742,7 +40645,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="567" spans="1:19">
+    <row r="567" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" s="9">
         <v>566</v>
       </c>
@@ -40789,7 +40692,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="568" spans="1:19">
+    <row r="568" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" s="9">
         <v>567</v>
       </c>
@@ -40836,7 +40739,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="569" spans="1:19">
+    <row r="569" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" s="9">
         <v>568</v>
       </c>
@@ -40885,7 +40788,7 @@
         <v>2753</v>
       </c>
     </row>
-    <row r="570" spans="1:19">
+    <row r="570" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" s="9">
         <v>569</v>
       </c>
@@ -40936,7 +40839,7 @@
         <v>2757</v>
       </c>
     </row>
-    <row r="571" spans="1:19">
+    <row r="571" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" s="9">
         <v>570</v>
       </c>
@@ -40987,7 +40890,7 @@
         <v>2762</v>
       </c>
     </row>
-    <row r="572" spans="1:19">
+    <row r="572" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" s="9">
         <v>571</v>
       </c>
@@ -41040,7 +40943,7 @@
         <v>2766</v>
       </c>
     </row>
-    <row r="573" spans="1:19">
+    <row r="573" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" s="9">
         <v>572</v>
       </c>
@@ -41089,7 +40992,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="574" spans="1:19">
+    <row r="574" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" s="9">
         <v>573</v>
       </c>
@@ -41138,7 +41041,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="575" spans="1:19">
+    <row r="575" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" s="9">
         <v>574</v>
       </c>
@@ -41185,7 +41088,7 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="576" spans="1:19">
+    <row r="576" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" s="9">
         <v>575</v>
       </c>
@@ -41234,7 +41137,7 @@
         <v>2783</v>
       </c>
     </row>
-    <row r="577" spans="1:20">
+    <row r="577" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" s="9">
         <v>576</v>
       </c>
@@ -41281,7 +41184,7 @@
         <v>2787</v>
       </c>
     </row>
-    <row r="578" spans="1:20">
+    <row r="578" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" s="9">
         <v>577</v>
       </c>
@@ -41332,7 +41235,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="579" spans="1:20">
+    <row r="579" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" s="9">
         <v>578</v>
       </c>
@@ -41381,7 +41284,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="580" spans="1:20">
+    <row r="580" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" s="9">
         <v>579</v>
       </c>
@@ -41432,7 +41335,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="581" spans="1:20">
+    <row r="581" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" s="9">
         <v>580</v>
       </c>
@@ -41485,7 +41388,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="582" spans="1:20">
+    <row r="582" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" s="9">
         <v>581</v>
       </c>
@@ -41538,7 +41441,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="583" spans="1:20">
+    <row r="583" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" s="9">
         <v>582</v>
       </c>
@@ -41589,7 +41492,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="584" spans="1:20">
+    <row r="584" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" s="9">
         <v>583</v>
       </c>
@@ -41638,7 +41541,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="585" spans="1:20">
+    <row r="585" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" s="9">
         <v>584</v>
       </c>
@@ -41689,7 +41592,7 @@
         <v>2826</v>
       </c>
     </row>
-    <row r="586" spans="1:20">
+    <row r="586" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" s="9">
         <v>585</v>
       </c>
@@ -41740,7 +41643,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="587" spans="1:20">
+    <row r="587" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" s="9">
         <v>586</v>
       </c>
@@ -41791,7 +41694,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="588" spans="1:20">
+    <row r="588" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" s="9">
         <v>587</v>
       </c>
@@ -41844,7 +41747,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="589" spans="1:20">
+    <row r="589" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" s="9">
         <v>588</v>
       </c>
@@ -41895,7 +41798,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="590" spans="1:20">
+    <row r="590" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" s="9">
         <v>589</v>
       </c>
@@ -41944,7 +41847,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="591" spans="1:20">
+    <row r="591" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" s="9">
         <v>590</v>
       </c>
@@ -41993,7 +41896,7 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="592" spans="1:20">
+    <row r="592" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" s="9">
         <v>591</v>
       </c>
@@ -42041,7 +41944,7 @@
       </c>
       <c r="T592" s="9"/>
     </row>
-    <row r="593" spans="1:20">
+    <row r="593" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" s="9">
         <v>592</v>
       </c>
@@ -42091,7 +41994,7 @@
       </c>
       <c r="T593" s="9"/>
     </row>
-    <row r="594" spans="1:20">
+    <row r="594" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" s="9">
         <v>593</v>
       </c>
@@ -42141,7 +42044,7 @@
       </c>
       <c r="T594" s="9"/>
     </row>
-    <row r="595" spans="1:20">
+    <row r="595" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" s="9">
         <v>594</v>
       </c>
@@ -42193,7 +42096,7 @@
       </c>
       <c r="T595" s="9"/>
     </row>
-    <row r="596" spans="1:20">
+    <row r="596" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" s="9">
         <v>595</v>
       </c>
@@ -42247,7 +42150,7 @@
       </c>
       <c r="T596" s="9"/>
     </row>
-    <row r="597" spans="1:20">
+    <row r="597" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" s="9">
         <v>596</v>
       </c>
@@ -42299,7 +42202,7 @@
       </c>
       <c r="T597" s="9"/>
     </row>
-    <row r="598" spans="1:20">
+    <row r="598" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" s="9">
         <v>597</v>
       </c>
@@ -42351,7 +42254,7 @@
       </c>
       <c r="T598" s="9"/>
     </row>
-    <row r="599" spans="1:20">
+    <row r="599" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" s="9">
         <v>598</v>
       </c>
@@ -42401,7 +42304,7 @@
       </c>
       <c r="T599" s="9"/>
     </row>
-    <row r="600" spans="1:20">
+    <row r="600" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" s="9">
         <v>599</v>
       </c>
@@ -42451,7 +42354,7 @@
       </c>
       <c r="T600" s="9"/>
     </row>
-    <row r="601" spans="1:20">
+    <row r="601" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" s="9">
         <v>600</v>
       </c>
@@ -42501,7 +42404,7 @@
       </c>
       <c r="T601" s="9"/>
     </row>
-    <row r="602" spans="1:20">
+    <row r="602" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" s="9">
         <v>601</v>
       </c>
@@ -42547,7 +42450,7 @@
       </c>
       <c r="T602" s="9"/>
     </row>
-    <row r="603" spans="1:20">
+    <row r="603" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" s="9">
         <v>602</v>
       </c>
@@ -42599,7 +42502,7 @@
       </c>
       <c r="T603" s="9"/>
     </row>
-    <row r="604" spans="1:20">
+    <row r="604" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" s="9">
         <v>603</v>
       </c>
@@ -42651,7 +42554,7 @@
         <v>2913</v>
       </c>
     </row>
-    <row r="605" spans="1:20">
+    <row r="605" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" s="9">
         <v>604</v>
       </c>
@@ -42701,7 +42604,7 @@
         <v>2913</v>
       </c>
     </row>
-    <row r="606" spans="1:20">
+    <row r="606" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" s="9">
         <v>605</v>
       </c>
@@ -42749,7 +42652,7 @@
       </c>
       <c r="T606" s="9"/>
     </row>
-    <row r="607" spans="1:20">
+    <row r="607" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" s="9">
         <v>606</v>
       </c>
@@ -42799,7 +42702,7 @@
       </c>
       <c r="T607" s="9"/>
     </row>
-    <row r="608" spans="1:20">
+    <row r="608" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" s="9">
         <v>607</v>
       </c>
@@ -42846,7 +42749,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="609" spans="1:19">
+    <row r="609" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" s="9">
         <v>608</v>
       </c>
@@ -42895,7 +42798,7 @@
         <v>2928</v>
       </c>
     </row>
-    <row r="610" spans="1:19">
+    <row r="610" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" s="9">
         <v>609</v>
       </c>
@@ -42944,7 +42847,7 @@
         <v>2933</v>
       </c>
     </row>
-    <row r="611" spans="1:19">
+    <row r="611" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" s="9">
         <v>610</v>
       </c>
@@ -42993,7 +42896,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="612" spans="1:19">
+    <row r="612" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" s="9">
         <v>611</v>
       </c>
@@ -43042,7 +42945,7 @@
         <v>2941</v>
       </c>
     </row>
-    <row r="613" spans="1:19">
+    <row r="613" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" s="9">
         <v>612</v>
       </c>
@@ -43091,7 +42994,7 @@
         <v>2946</v>
       </c>
     </row>
-    <row r="614" spans="1:19">
+    <row r="614" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" s="9">
         <v>613</v>
       </c>
@@ -43138,7 +43041,7 @@
         <v>2949</v>
       </c>
     </row>
-    <row r="615" spans="1:19">
+    <row r="615" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" s="9">
         <v>614</v>
       </c>
@@ -43185,7 +43088,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="616" spans="1:19">
+    <row r="616" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" s="9">
         <v>615</v>
       </c>
@@ -43236,7 +43139,7 @@
         <v>2962</v>
       </c>
     </row>
-    <row r="617" spans="1:19">
+    <row r="617" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" s="9">
         <v>616</v>
       </c>
@@ -43283,7 +43186,7 @@
         <v>2966</v>
       </c>
     </row>
-    <row r="618" spans="1:19">
+    <row r="618" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" s="9">
         <v>617</v>
       </c>
@@ -43332,7 +43235,7 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="619" spans="1:19">
+    <row r="619" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" s="9">
         <v>618</v>
       </c>
@@ -43383,7 +43286,7 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="620" spans="1:19">
+    <row r="620" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" s="9">
         <v>619</v>
       </c>
@@ -43436,7 +43339,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="621" spans="1:19">
+    <row r="621" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" s="9">
         <v>620</v>
       </c>
@@ -43485,7 +43388,7 @@
         <v>2981</v>
       </c>
     </row>
-    <row r="622" spans="1:19">
+    <row r="622" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" s="9">
         <v>621</v>
       </c>
@@ -43536,7 +43439,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="623" spans="1:19">
+    <row r="623" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" s="9">
         <v>622</v>
       </c>
@@ -43575,7 +43478,7 @@
       <c r="R623" s="9"/>
       <c r="S623" s="9"/>
     </row>
-    <row r="624" spans="1:19">
+    <row r="624" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" s="9">
         <v>623</v>
       </c>
@@ -43626,7 +43529,7 @@
         <v>2993</v>
       </c>
     </row>
-    <row r="625" spans="1:20">
+    <row r="625" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" s="9">
         <v>624</v>
       </c>
@@ -43677,7 +43580,7 @@
         <v>2997</v>
       </c>
     </row>
-    <row r="626" spans="1:20">
+    <row r="626" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" s="9">
         <v>625</v>
       </c>
@@ -43728,7 +43631,7 @@
         <v>3002</v>
       </c>
     </row>
-    <row r="627" spans="1:20">
+    <row r="627" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" s="9">
         <v>626</v>
       </c>
@@ -43779,7 +43682,7 @@
         <v>3007</v>
       </c>
     </row>
-    <row r="628" spans="1:20">
+    <row r="628" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" s="9">
         <v>627</v>
       </c>
@@ -43830,7 +43733,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="629" spans="1:20">
+    <row r="629" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" s="9">
         <v>628</v>
       </c>
@@ -43881,7 +43784,7 @@
         <v>3016</v>
       </c>
     </row>
-    <row r="630" spans="1:20">
+    <row r="630" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" s="9">
         <v>629</v>
       </c>
@@ -43934,7 +43837,7 @@
         <v>3021</v>
       </c>
     </row>
-    <row r="631" spans="1:20">
+    <row r="631" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" s="9">
         <v>630</v>
       </c>
@@ -43983,7 +43886,7 @@
         <v>3026</v>
       </c>
     </row>
-    <row r="632" spans="1:20">
+    <row r="632" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" s="9">
         <v>631</v>
       </c>
@@ -44032,7 +43935,7 @@
         <v>3031</v>
       </c>
     </row>
-    <row r="633" spans="1:20">
+    <row r="633" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" s="9">
         <v>632</v>
       </c>
@@ -44083,7 +43986,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="634" spans="1:20">
+    <row r="634" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" s="9">
         <v>633</v>
       </c>
@@ -44130,7 +44033,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="635" spans="1:20">
+    <row r="635" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" s="9">
         <v>634</v>
       </c>
@@ -44177,7 +44080,7 @@
         <v>3044</v>
       </c>
     </row>
-    <row r="636" spans="1:20">
+    <row r="636" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" s="9">
         <v>635</v>
       </c>
@@ -44224,7 +44127,7 @@
         <v>3048</v>
       </c>
     </row>
-    <row r="637" spans="1:20">
+    <row r="637" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" s="9">
         <v>636</v>
       </c>
@@ -44275,7 +44178,7 @@
         <v>3052</v>
       </c>
     </row>
-    <row r="638" spans="1:20">
+    <row r="638" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" s="9">
         <v>637</v>
       </c>
@@ -44328,7 +44231,7 @@
         <v>3058</v>
       </c>
     </row>
-    <row r="639" spans="1:20">
+    <row r="639" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" s="9">
         <v>638</v>
       </c>
@@ -44375,7 +44278,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="640" spans="1:20">
+    <row r="640" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" s="9">
         <v>639</v>
       </c>
@@ -44425,7 +44328,7 @@
       </c>
       <c r="T640" s="9"/>
     </row>
-    <row r="641" spans="1:20">
+    <row r="641" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" s="9">
         <v>640</v>
       </c>
@@ -44475,7 +44378,7 @@
       </c>
       <c r="T641" s="9"/>
     </row>
-    <row r="642" spans="1:20">
+    <row r="642" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" s="9">
         <v>641</v>
       </c>
@@ -44527,7 +44430,7 @@
         <v>3071</v>
       </c>
     </row>
-    <row r="643" spans="1:20">
+    <row r="643" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" s="9">
         <v>642</v>
       </c>
@@ -44575,7 +44478,7 @@
       </c>
       <c r="T643" s="9"/>
     </row>
-    <row r="644" spans="1:20">
+    <row r="644" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" s="9">
         <v>643</v>
       </c>
@@ -44623,7 +44526,7 @@
       </c>
       <c r="T644" s="9"/>
     </row>
-    <row r="645" spans="1:20">
+    <row r="645" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" s="9">
         <v>644</v>
       </c>
@@ -44673,7 +44576,7 @@
       </c>
       <c r="T645" s="9"/>
     </row>
-    <row r="646" spans="1:20">
+    <row r="646" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" s="9">
         <v>645</v>
       </c>
@@ -44723,7 +44626,7 @@
       </c>
       <c r="T646" s="9"/>
     </row>
-    <row r="647" spans="1:20">
+    <row r="647" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" s="9">
         <v>646</v>
       </c>
@@ -44773,7 +44676,7 @@
       </c>
       <c r="T647" s="9"/>
     </row>
-    <row r="648" spans="1:20">
+    <row r="648" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" s="9">
         <v>647</v>
       </c>
@@ -44825,7 +44728,7 @@
       </c>
       <c r="T648" s="9"/>
     </row>
-    <row r="649" spans="1:20">
+    <row r="649" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" s="9">
         <v>648</v>
       </c>
@@ -44877,7 +44780,7 @@
       </c>
       <c r="T649" s="9"/>
     </row>
-    <row r="650" spans="1:20">
+    <row r="650" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" s="9">
         <v>649</v>
       </c>
@@ -44927,7 +44830,7 @@
       </c>
       <c r="T650" s="9"/>
     </row>
-    <row r="651" spans="1:20">
+    <row r="651" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" s="9">
         <v>650</v>
       </c>
@@ -44979,7 +44882,7 @@
       </c>
       <c r="T651" s="9"/>
     </row>
-    <row r="652" spans="1:20">
+    <row r="652" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" s="9">
         <v>651</v>
       </c>
@@ -45033,7 +44936,7 @@
       </c>
       <c r="T652" s="9"/>
     </row>
-    <row r="653" spans="1:20">
+    <row r="653" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" s="9">
         <v>652</v>
       </c>
@@ -45085,7 +44988,7 @@
       </c>
       <c r="T653" s="9"/>
     </row>
-    <row r="654" spans="1:20">
+    <row r="654" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" s="9">
         <v>653</v>
       </c>
@@ -45141,7 +45044,7 @@
       </c>
       <c r="T654" s="9"/>
     </row>
-    <row r="655" spans="1:20">
+    <row r="655" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" s="9">
         <v>654</v>
       </c>
@@ -45191,7 +45094,7 @@
       </c>
       <c r="T655" s="9"/>
     </row>
-    <row r="656" spans="1:20">
+    <row r="656" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" s="9">
         <v>655</v>
       </c>
@@ -45243,7 +45146,7 @@
       </c>
       <c r="T656" s="9"/>
     </row>
-    <row r="657" spans="1:20">
+    <row r="657" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" s="9">
         <v>656</v>
       </c>
@@ -45297,7 +45200,7 @@
       </c>
       <c r="T657" s="9"/>
     </row>
-    <row r="658" spans="1:20">
+    <row r="658" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" s="9">
         <v>657</v>
       </c>
@@ -45349,7 +45252,7 @@
       </c>
       <c r="T658" s="9"/>
     </row>
-    <row r="659" spans="1:20">
+    <row r="659" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" s="9">
         <v>658</v>
       </c>
@@ -45401,7 +45304,7 @@
         <v>3142</v>
       </c>
     </row>
-    <row r="660" spans="1:20">
+    <row r="660" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" s="9">
         <v>659</v>
       </c>
@@ -45451,7 +45354,7 @@
       </c>
       <c r="T660" s="9"/>
     </row>
-    <row r="661" spans="1:20">
+    <row r="661" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A661" s="9">
         <v>660</v>
       </c>
@@ -45501,7 +45404,7 @@
       </c>
       <c r="T661" s="9"/>
     </row>
-    <row r="662" spans="1:20">
+    <row r="662" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A662" s="9">
         <v>661</v>
       </c>
@@ -45551,7 +45454,7 @@
       </c>
       <c r="T662" s="9"/>
     </row>
-    <row r="663" spans="1:20">
+    <row r="663" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" s="9">
         <v>662</v>
       </c>
@@ -45601,7 +45504,7 @@
       </c>
       <c r="T663" s="9"/>
     </row>
-    <row r="664" spans="1:20">
+    <row r="664" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" s="9">
         <v>663</v>
       </c>
@@ -45651,7 +45554,7 @@
       </c>
       <c r="T664" s="9"/>
     </row>
-    <row r="665" spans="1:20">
+    <row r="665" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" s="9">
         <v>664</v>
       </c>
@@ -45701,7 +45604,7 @@
       </c>
       <c r="T665" s="9"/>
     </row>
-    <row r="666" spans="1:20">
+    <row r="666" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A666" s="9">
         <v>665</v>
       </c>
@@ -45753,7 +45656,7 @@
       </c>
       <c r="T666" s="9"/>
     </row>
-    <row r="667" spans="1:20">
+    <row r="667" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" s="9">
         <v>666</v>
       </c>
@@ -45803,7 +45706,7 @@
       </c>
       <c r="T667" s="9"/>
     </row>
-    <row r="668" spans="1:20">
+    <row r="668" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" s="9">
         <v>667</v>
       </c>
@@ -45857,7 +45760,7 @@
       </c>
       <c r="T668" s="9"/>
     </row>
-    <row r="669" spans="1:20">
+    <row r="669" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" s="9">
         <v>668</v>
       </c>
@@ -45905,7 +45808,7 @@
       </c>
       <c r="T669" s="9"/>
     </row>
-    <row r="670" spans="1:20">
+    <row r="670" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" s="9">
         <v>669</v>
       </c>
@@ -45953,7 +45856,7 @@
       </c>
       <c r="T670" s="9"/>
     </row>
-    <row r="671" spans="1:20">
+    <row r="671" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" s="9">
         <v>670</v>
       </c>
@@ -46003,7 +45906,7 @@
       </c>
       <c r="T671" s="9"/>
     </row>
-    <row r="672" spans="1:20">
+    <row r="672" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" s="9">
         <v>671</v>
       </c>
@@ -46053,7 +45956,7 @@
       </c>
       <c r="T672" s="9"/>
     </row>
-    <row r="673" spans="1:20">
+    <row r="673" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" s="9">
         <v>672</v>
       </c>
@@ -46105,7 +46008,7 @@
       </c>
       <c r="T673" s="9"/>
     </row>
-    <row r="674" spans="1:20">
+    <row r="674" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" s="9">
         <v>673</v>
       </c>
@@ -46155,7 +46058,7 @@
       </c>
       <c r="T674" s="9"/>
     </row>
-    <row r="675" spans="1:20">
+    <row r="675" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" s="9">
         <v>674</v>
       </c>
@@ -46205,7 +46108,7 @@
       </c>
       <c r="T675" s="9"/>
     </row>
-    <row r="676" spans="1:20">
+    <row r="676" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A676" s="9">
         <v>675</v>
       </c>
@@ -46255,7 +46158,7 @@
       </c>
       <c r="T676" s="9"/>
     </row>
-    <row r="677" spans="1:20">
+    <row r="677" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A677" s="9">
         <v>676</v>
       </c>
@@ -46305,7 +46208,7 @@
         <v>3225</v>
       </c>
     </row>
-    <row r="678" spans="1:20">
+    <row r="678" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A678" s="9">
         <v>677</v>
       </c>
@@ -46357,7 +46260,7 @@
       </c>
       <c r="T678" s="9"/>
     </row>
-    <row r="679" spans="1:20">
+    <row r="679" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" s="9">
         <v>678</v>
       </c>
@@ -46407,7 +46310,7 @@
       </c>
       <c r="T679" s="9"/>
     </row>
-    <row r="680" spans="1:20">
+    <row r="680" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" s="9">
         <v>679</v>
       </c>
@@ -46459,7 +46362,7 @@
       </c>
       <c r="T680" s="9"/>
     </row>
-    <row r="681" spans="1:20">
+    <row r="681" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" s="9">
         <v>680</v>
       </c>
@@ -46509,7 +46412,7 @@
         <v>3247</v>
       </c>
     </row>
-    <row r="682" spans="1:20">
+    <row r="682" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A682" s="9">
         <v>681</v>
       </c>
@@ -46559,7 +46462,7 @@
         <v>3254</v>
       </c>
     </row>
-    <row r="683" spans="1:20">
+    <row r="683" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A683" s="9">
         <v>682</v>
       </c>
@@ -46609,7 +46512,7 @@
         <v>3260</v>
       </c>
     </row>
-    <row r="684" spans="1:20">
+    <row r="684" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A684" s="9">
         <v>683</v>
       </c>
@@ -46661,7 +46564,7 @@
         <v>3267</v>
       </c>
     </row>
-    <row r="685" spans="1:20">
+    <row r="685" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A685" s="9">
         <v>684</v>
       </c>
@@ -46707,7 +46610,7 @@
       </c>
       <c r="T685" s="9"/>
     </row>
-    <row r="686" spans="1:20">
+    <row r="686" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A686" s="9">
         <v>685</v>
       </c>
@@ -46759,7 +46662,7 @@
       </c>
       <c r="T686" s="9"/>
     </row>
-    <row r="687" spans="1:20">
+    <row r="687" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A687" s="9">
         <v>686</v>
       </c>
@@ -46811,7 +46714,7 @@
       </c>
       <c r="T687" s="9"/>
     </row>
-    <row r="688" spans="1:20">
+    <row r="688" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A688" s="9">
         <v>687</v>
       </c>
@@ -46861,7 +46764,7 @@
       </c>
       <c r="T688" s="9"/>
     </row>
-    <row r="689" spans="1:20">
+    <row r="689" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A689" s="9">
         <v>688</v>
       </c>
@@ -46911,7 +46814,7 @@
       </c>
       <c r="T689" s="9"/>
     </row>
-    <row r="690" spans="1:20">
+    <row r="690" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A690" s="9">
         <v>689</v>
       </c>
@@ -46957,7 +46860,7 @@
         <v>3303</v>
       </c>
     </row>
-    <row r="691" spans="1:20">
+    <row r="691" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A691" s="9">
         <v>690</v>
       </c>
@@ -47009,897 +46912,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4197C79A-0579-4860-90D6-E5D60D4D545C}">
-  <dimension ref="A1:D51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16"/>
-  <cols>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3354</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>3350</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3351</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D20" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D23" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D24" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D25" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D26" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D27" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D28" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D29" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D30" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D31" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D32" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D33" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D34" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D35" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D36" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D37" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D38" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D39" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D40" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D41" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D42" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D43" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D44" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D45" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D46" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D47" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D48" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D49" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D50" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D51" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C133380D-4E1B-455A-8449-1E31A0484160}">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="A1:I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="7" t="s">
-        <v>3313</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>3335</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>3336</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3315</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>3334</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>3326</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>3328</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>3330</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>3332</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="14" t="s">
-        <v>3323</v>
-      </c>
-      <c r="B2">
-        <v>76</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3314</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3324</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3325</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3327</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3329</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3331</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F596A6-89A4-48F4-9C0E-6D3A55A64C45}">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="7" t="s">
-        <v>3313</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>3335</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>3336</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3315</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>3334</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>3326</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>3328</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>3330</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>3332</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="14" t="s">
-        <v>3316</v>
-      </c>
-      <c r="B2">
-        <v>197</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3337</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3317</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3338</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3339</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>3340</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/tool/e2e-tests/test-packs/Supplier 1 Test Pack.xlsx
+++ b/tool/e2e-tests/test-packs/Supplier 1 Test Pack.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\clients\NHS\electronic-prescription-service-api\tool\e2e-tests\test-packs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathew.arnold\electronic-prescription-service-api\tool\e2e-tests\test-packs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC11D91-0DAD-426F-B3AA-E777579743FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114A1E66-F13D-4DBA-8E5F-38B32672F437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="1" xr2:uid="{DE2866F1-D839-4AD2-B338-FF4A1D84F7C7}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="16186" activeTab="1" xr2:uid="{DE2866F1-D839-4AD2-B338-FF4A1D84F7C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Patients" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Prescriptions!$A$1:$R$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Prescriptions!$A$1:$S$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7280" uniqueCount="3391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7331" uniqueCount="3393">
   <si>
     <t>Quantity</t>
   </si>
@@ -10212,6 +10212,12 @@
   </si>
   <si>
     <t>Dispenser Notes</t>
+  </si>
+  <si>
+    <t>Nominated Pharmacy Type</t>
+  </si>
+  <si>
+    <t>P1</t>
   </si>
 </sst>
 </file>
@@ -10649,42 +10655,42 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="75.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="75.546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3313</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3314</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3320</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3315</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3316</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>3317</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>3319</v>
       </c>
@@ -10697,32 +10703,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90350D13-E130-47A5-A64D-77E01FA3003F}">
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="121.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.1328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.1328125" customWidth="1"/>
-    <col min="13" max="13" width="19.1328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="19.1328125" customWidth="1"/>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.75" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="121.1484375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.84765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.1484375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.1484375" customWidth="1"/>
+    <col min="14" max="14" width="19.1484375" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="19.1484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -10735,50 +10742,53 @@
       <c r="D1" s="7" t="s">
         <v>3312</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
+        <v>3391</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3310</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>3390</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>3321</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>3322</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10791,33 +10801,36 @@
       <c r="D2" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="E2" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>28</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>99999999</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>1</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>11111111</v>
       </c>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10830,33 +10843,36 @@
       <c r="D3" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E3">
-        <v>1</v>
+      <c r="E3" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>28</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>99999999</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>1</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>11111111</v>
       </c>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10869,32 +10885,35 @@
       <c r="D4" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E4">
-        <v>1</v>
+      <c r="E4" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>28</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>99999999</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>10</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>11111111</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:19" ht="25.7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10907,35 +10926,38 @@
       <c r="D5" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E5">
-        <v>1</v>
+      <c r="E5" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>28</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>99999999</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>8</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>11111111</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10948,33 +10970,36 @@
       <c r="D6" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E6">
-        <v>1</v>
+      <c r="E6" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>28</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>99999999</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>10</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>11111111</v>
       </c>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:18" ht="25.2" x14ac:dyDescent="0.5">
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" ht="25.7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10987,44 +11012,47 @@
       <c r="D7" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E7">
-        <v>1</v>
+      <c r="E7" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>28</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>3323</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>99999999</v>
       </c>
-      <c r="J7" s="14">
+      <c r="K7" s="14">
         <v>10000</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>3324</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>11111111</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="N7" s="6" t="s">
         <v>3325</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="O7" s="15" t="s">
         <v>3326</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>2</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>3389</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11037,35 +11065,38 @@
       <c r="D8" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E8">
-        <v>1</v>
+      <c r="E8" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
         <v>28</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>99999999</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>2</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>11111111</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="N8" s="16" t="s">
         <v>3328</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11078,33 +11109,36 @@
       <c r="D9" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E9">
-        <v>1</v>
+      <c r="E9" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
         <v>28</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>3329</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>99999999</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>300</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>11111111</v>
       </c>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11117,33 +11151,36 @@
       <c r="D10" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E10">
-        <v>1</v>
+      <c r="E10" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
         <v>28</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>3330</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>99999999</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>56</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>11111111</v>
       </c>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11156,33 +11193,36 @@
       <c r="D11" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E11">
-        <v>1</v>
+      <c r="E11" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
         <v>28</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>3331</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <v>99999999</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>7</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>11111111</v>
       </c>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11195,33 +11235,36 @@
       <c r="D12" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E12">
-        <v>1</v>
+      <c r="E12" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
         <v>28</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="I12" s="17" t="s">
         <v>3332</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <v>99999999</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>100</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <v>11111111</v>
       </c>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11234,35 +11277,38 @@
       <c r="D13" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E13">
-        <v>1</v>
+      <c r="E13" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
         <v>28</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="I13" s="17" t="s">
         <v>3333</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>99999999</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>15</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>3334</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <v>11111111</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="N13" s="16" t="s">
         <v>3335</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11275,33 +11321,36 @@
       <c r="D14" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E14">
-        <v>1</v>
+      <c r="E14" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
         <v>28</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>3336</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <v>99999999</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>50</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="2">
+      <c r="M14" s="2">
         <v>11111111</v>
       </c>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11314,33 +11363,36 @@
       <c r="D15" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E15">
-        <v>1</v>
+      <c r="E15" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
         <v>28</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>3337</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <v>99999999</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>60</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>3338</v>
       </c>
-      <c r="L15" s="2">
+      <c r="M15" s="2">
         <v>11111111</v>
       </c>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11353,33 +11405,36 @@
       <c r="D16" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E16">
-        <v>1</v>
+      <c r="E16" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
         <v>28</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>3339</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <v>99999999</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <v>28</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L16" s="2">
+      <c r="M16" s="2">
         <v>11111111</v>
       </c>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11392,33 +11447,36 @@
       <c r="D17" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E17">
-        <v>1</v>
+      <c r="E17" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
         <v>28</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>3340</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J17" s="2">
         <v>99999999</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K17" s="2">
         <v>56</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>3334</v>
       </c>
-      <c r="L17" s="2">
+      <c r="M17" s="2">
         <v>11111111</v>
       </c>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11431,33 +11489,36 @@
       <c r="D18" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E18">
-        <v>1</v>
+      <c r="E18" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
         <v>28</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>3341</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J18" s="2">
         <v>99999999</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K18" s="2">
         <v>50</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>3342</v>
       </c>
-      <c r="L18" s="2">
+      <c r="M18" s="2">
         <v>11111111</v>
       </c>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11470,33 +11531,36 @@
       <c r="D19" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E19">
-        <v>1</v>
+      <c r="E19" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
         <v>28</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>3343</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J19" s="2">
         <v>99999999</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K19" s="2">
         <v>68</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>3338</v>
       </c>
-      <c r="L19" s="2">
+      <c r="M19" s="2">
         <v>11111111</v>
       </c>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11509,33 +11573,36 @@
       <c r="D20" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E20">
-        <v>1</v>
+      <c r="E20" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
         <v>28</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>3344</v>
       </c>
-      <c r="I20" s="2">
+      <c r="J20" s="2">
         <v>99999999</v>
       </c>
-      <c r="J20" s="2">
+      <c r="K20" s="2">
         <v>1</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>3345</v>
       </c>
-      <c r="L20" s="2">
+      <c r="M20" s="2">
         <v>11111111</v>
       </c>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11548,33 +11615,36 @@
       <c r="D21" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E21">
-        <v>1</v>
+      <c r="E21" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
         <v>28</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>3346</v>
       </c>
-      <c r="I21" s="2">
+      <c r="J21" s="2">
         <v>99999999</v>
       </c>
-      <c r="J21" s="2">
+      <c r="K21" s="2">
         <v>10</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="2">
+      <c r="M21" s="2">
         <v>11111111</v>
       </c>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11587,33 +11657,36 @@
       <c r="D22" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E22">
-        <v>1</v>
+      <c r="E22" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <v>28</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>3347</v>
       </c>
-      <c r="I22" s="2">
+      <c r="J22" s="2">
         <v>99999999</v>
       </c>
-      <c r="J22" s="2">
+      <c r="K22" s="2">
         <v>20</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>3348</v>
       </c>
-      <c r="L22" s="2">
+      <c r="M22" s="2">
         <v>11111111</v>
       </c>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11626,33 +11699,36 @@
       <c r="D23" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E23">
-        <v>1</v>
+      <c r="E23" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
         <v>28</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>3349</v>
       </c>
-      <c r="I23" s="2">
+      <c r="J23" s="2">
         <v>99999999</v>
       </c>
-      <c r="J23" s="2">
+      <c r="K23" s="2">
         <v>30</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L23" s="2">
+      <c r="M23" s="2">
         <v>11111111</v>
       </c>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11665,33 +11741,36 @@
       <c r="D24" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E24">
-        <v>1</v>
+      <c r="E24" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
         <v>28</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>3350</v>
       </c>
-      <c r="I24" s="2">
+      <c r="J24" s="2">
         <v>99999999</v>
       </c>
-      <c r="J24" s="2">
+      <c r="K24" s="2">
         <v>20</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>3351</v>
       </c>
-      <c r="L24" s="2">
+      <c r="M24" s="2">
         <v>11111111</v>
       </c>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11704,33 +11783,36 @@
       <c r="D25" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E25">
-        <v>1</v>
+      <c r="E25" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
         <v>28</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>3352</v>
       </c>
-      <c r="I25" s="2">
+      <c r="J25" s="2">
         <v>99999999</v>
       </c>
-      <c r="J25" s="2">
+      <c r="K25" s="2">
         <v>100</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="2">
+      <c r="M25" s="2">
         <v>11111111</v>
       </c>
-      <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11743,33 +11825,36 @@
       <c r="D26" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E26">
-        <v>1</v>
+      <c r="E26" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
         <v>28</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>3353</v>
       </c>
-      <c r="I26" s="2">
+      <c r="J26" s="2">
         <v>99999999</v>
       </c>
-      <c r="J26" s="2">
+      <c r="K26" s="2">
         <v>150</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="L26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="2">
+      <c r="M26" s="2">
         <v>11111111</v>
       </c>
-      <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11782,33 +11867,36 @@
       <c r="D27" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E27">
-        <v>1</v>
+      <c r="E27" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
         <v>28</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>3354</v>
       </c>
-      <c r="I27" s="2">
+      <c r="J27" s="2">
         <v>99999999</v>
       </c>
-      <c r="J27" s="2">
+      <c r="K27" s="2">
         <v>1</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="L27" s="2" t="s">
         <v>3355</v>
       </c>
-      <c r="L27" s="2">
+      <c r="M27" s="2">
         <v>11111111</v>
       </c>
-      <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11821,33 +11909,36 @@
       <c r="D28" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E28">
-        <v>1</v>
+      <c r="E28" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
         <v>28</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>3356</v>
       </c>
-      <c r="I28" s="2">
+      <c r="J28" s="2">
         <v>99999999</v>
       </c>
-      <c r="J28" s="2">
+      <c r="K28" s="2">
         <v>56</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="L28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L28" s="2">
+      <c r="M28" s="2">
         <v>11111111</v>
       </c>
-      <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11860,33 +11951,36 @@
       <c r="D29" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E29">
-        <v>1</v>
+      <c r="E29" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
         <v>28</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>3357</v>
       </c>
-      <c r="I29" s="2">
+      <c r="J29" s="2">
         <v>99999999</v>
       </c>
-      <c r="J29" s="2">
+      <c r="K29" s="2">
         <v>10</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="L29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="2">
+      <c r="M29" s="2">
         <v>11111111</v>
       </c>
-      <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11899,33 +11993,36 @@
       <c r="D30" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E30">
-        <v>1</v>
+      <c r="E30" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
         <v>28</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>3358</v>
       </c>
-      <c r="I30" s="2">
+      <c r="J30" s="2">
         <v>99999999</v>
       </c>
-      <c r="J30" s="2">
+      <c r="K30" s="2">
         <v>10</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="L30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L30" s="2">
+      <c r="M30" s="2">
         <v>11111111</v>
       </c>
-      <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11938,33 +12035,36 @@
       <c r="D31" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E31">
-        <v>1</v>
+      <c r="E31" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
         <v>28</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="I31" s="5" t="s">
         <v>3359</v>
       </c>
-      <c r="I31" s="2">
+      <c r="J31" s="2">
         <v>99999999</v>
       </c>
-      <c r="J31" s="2">
+      <c r="K31" s="2">
         <v>3</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>3334</v>
       </c>
-      <c r="L31" s="2">
+      <c r="M31" s="2">
         <v>11111111</v>
       </c>
-      <c r="M31" s="2"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11977,33 +12077,36 @@
       <c r="D32" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E32">
-        <v>1</v>
+      <c r="E32" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
         <v>28</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>3360</v>
       </c>
-      <c r="I32" s="2">
+      <c r="J32" s="2">
         <v>99999999</v>
       </c>
-      <c r="J32" s="2">
+      <c r="K32" s="2">
         <v>4</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="L32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L32" s="2">
+      <c r="M32" s="2">
         <v>11111111</v>
       </c>
-      <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -12016,36 +12119,39 @@
       <c r="D33" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E33">
-        <v>1</v>
+      <c r="E33" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
         <v>28</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>3361</v>
       </c>
-      <c r="I33" s="2">
+      <c r="J33" s="2">
         <v>99999999</v>
       </c>
-      <c r="J33" s="2">
+      <c r="K33" s="2">
         <v>14</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="L33" s="2" t="s">
         <v>3362</v>
       </c>
-      <c r="L33" s="2">
+      <c r="M33" s="2">
         <v>11111111</v>
       </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="15" t="s">
+      <c r="N33" s="2"/>
+      <c r="O33" s="15" t="s">
         <v>3326</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -12058,33 +12164,36 @@
       <c r="D34" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E34">
-        <v>1</v>
+      <c r="E34" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
         <v>28</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>3363</v>
       </c>
-      <c r="I34" s="2">
+      <c r="J34" s="2">
         <v>99999999</v>
       </c>
-      <c r="J34" s="2">
+      <c r="K34" s="2">
         <v>200</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="L34" s="2" t="s">
         <v>3338</v>
       </c>
-      <c r="L34" s="2">
+      <c r="M34" s="2">
         <v>11111111</v>
       </c>
-      <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -12097,36 +12206,39 @@
       <c r="D35" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E35">
-        <v>1</v>
+      <c r="E35" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
         <v>28</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>3364</v>
       </c>
-      <c r="I35" s="2">
+      <c r="J35" s="2">
         <v>99999999</v>
       </c>
-      <c r="J35" s="2">
+      <c r="K35" s="2">
         <v>21</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L35" s="2">
+      <c r="M35" s="2">
         <v>11111111</v>
       </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="15" t="s">
+      <c r="N35" s="2"/>
+      <c r="O35" s="15" t="s">
         <v>3365</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -12139,36 +12251,39 @@
       <c r="D36" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E36">
-        <v>1</v>
+      <c r="E36" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
         <v>28</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>3366</v>
       </c>
-      <c r="I36" s="2">
+      <c r="J36" s="2">
         <v>99999999</v>
       </c>
-      <c r="J36" s="2">
+      <c r="K36" s="2">
         <v>21</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="L36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L36" s="2">
+      <c r="M36" s="2">
         <v>11111111</v>
       </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="15" t="s">
+      <c r="N36" s="2"/>
+      <c r="O36" s="15" t="s">
         <v>3367</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -12181,32 +12296,35 @@
       <c r="D37" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E37">
-        <v>1</v>
+      <c r="E37" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
         <v>28</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>3368</v>
       </c>
-      <c r="I37" s="2">
+      <c r="J37" s="2">
         <v>99999999</v>
       </c>
-      <c r="J37" s="2">
+      <c r="K37" s="2">
         <v>24</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="L37" s="2" t="s">
         <v>3362</v>
       </c>
-      <c r="L37" s="2">
+      <c r="M37" s="2">
         <v>11111111</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -12219,33 +12337,36 @@
       <c r="D38" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E38">
-        <v>1</v>
+      <c r="E38" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
         <v>28</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>3369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>99999999</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>30</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="L38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>11111111</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -12258,33 +12379,36 @@
       <c r="D39" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E39">
-        <v>1</v>
+      <c r="E39" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
         <v>28</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>3370</v>
       </c>
-      <c r="I39" s="2">
+      <c r="J39" s="2">
         <v>99999999</v>
       </c>
-      <c r="J39" s="2">
+      <c r="K39" s="2">
         <v>30</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="L39" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L39" s="2">
+      <c r="M39" s="2">
         <v>11111111</v>
       </c>
-      <c r="M39" s="2"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -12297,33 +12421,36 @@
       <c r="D40" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E40">
-        <v>1</v>
+      <c r="E40" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
         <v>28</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>3371</v>
       </c>
-      <c r="I40" s="2">
+      <c r="J40" s="2">
         <v>99999999</v>
       </c>
-      <c r="J40" s="2">
+      <c r="K40" s="2">
         <v>6</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="L40" s="2" t="s">
         <v>3362</v>
       </c>
-      <c r="L40" s="2">
+      <c r="M40" s="2">
         <v>11111111</v>
       </c>
-      <c r="M40" s="2"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -12336,33 +12463,36 @@
       <c r="D41" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E41">
-        <v>1</v>
+      <c r="E41" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
         <v>28</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>3372</v>
       </c>
-      <c r="I41" s="2">
+      <c r="J41" s="2">
         <v>99999999</v>
       </c>
-      <c r="J41" s="2">
+      <c r="K41" s="2">
         <v>30</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="L41" s="2" t="s">
         <v>3373</v>
       </c>
-      <c r="L41" s="2">
+      <c r="M41" s="2">
         <v>11111111</v>
       </c>
-      <c r="M41" s="2"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -12375,34 +12505,37 @@
       <c r="D42" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E42">
-        <v>1</v>
+      <c r="E42" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
         <v>28</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="I42" s="2" t="s">
         <v>3374</v>
       </c>
-      <c r="I42" s="2">
+      <c r="J42" s="2">
         <v>99999999</v>
       </c>
-      <c r="J42" s="2">
+      <c r="K42" s="2">
         <v>21</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="L42" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L42" s="2">
+      <c r="M42" s="2">
         <v>11111111</v>
       </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="15"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="N42" s="2"/>
+      <c r="O42" s="15"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -12415,33 +12548,36 @@
       <c r="D43" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E43">
-        <v>1</v>
+      <c r="E43" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
         <v>28</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>3375</v>
       </c>
-      <c r="I43" s="2">
+      <c r="J43" s="2">
         <v>99999999</v>
       </c>
-      <c r="J43" s="2">
+      <c r="K43" s="2">
         <v>35</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="L43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="2">
+      <c r="M43" s="2">
         <v>11111111</v>
       </c>
-      <c r="M43" s="2"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -12454,33 +12590,36 @@
       <c r="D44" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E44">
-        <v>1</v>
+      <c r="E44" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
         <v>28</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>3376</v>
       </c>
-      <c r="I44" s="2">
+      <c r="J44" s="2">
         <v>99999999</v>
       </c>
-      <c r="J44" s="2">
+      <c r="K44" s="2">
         <v>5</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="L44" s="2" t="s">
         <v>3377</v>
       </c>
-      <c r="L44" s="2">
+      <c r="M44" s="2">
         <v>11111111</v>
       </c>
-      <c r="M44" s="2"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -12493,33 +12632,36 @@
       <c r="D45" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E45">
-        <v>1</v>
+      <c r="E45" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
         <v>28</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>3378</v>
       </c>
-      <c r="I45" s="2">
+      <c r="J45" s="2">
         <v>99999999</v>
       </c>
-      <c r="J45" s="2">
+      <c r="K45" s="2">
         <v>2</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="L45" s="2" t="s">
         <v>3379</v>
       </c>
-      <c r="L45" s="2">
+      <c r="M45" s="2">
         <v>11111111</v>
       </c>
-      <c r="M45" s="2"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -12532,35 +12674,38 @@
       <c r="D46" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E46">
-        <v>1</v>
+      <c r="E46" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
         <v>28</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>3380</v>
       </c>
-      <c r="I46" s="2">
+      <c r="J46" s="2">
         <v>99999999</v>
       </c>
-      <c r="J46" s="2">
+      <c r="K46" s="2">
         <v>10.5</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="L46" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="2">
+      <c r="M46" s="2">
         <v>11111111</v>
       </c>
-      <c r="M46" s="16" t="s">
+      <c r="N46" s="16" t="s">
         <v>3381</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -12573,33 +12718,36 @@
       <c r="D47" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E47">
-        <v>1</v>
+      <c r="E47" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
         <v>28</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="I47" s="2" t="s">
         <v>3382</v>
       </c>
-      <c r="I47" s="2">
+      <c r="J47" s="2">
         <v>99999999</v>
       </c>
-      <c r="J47" s="2">
+      <c r="K47" s="2">
         <v>14</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="L47" s="2" t="s">
         <v>3334</v>
       </c>
-      <c r="L47" s="2">
+      <c r="M47" s="2">
         <v>11111111</v>
       </c>
-      <c r="M47" s="2"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="N47" s="2"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -12612,33 +12760,36 @@
       <c r="D48" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E48">
-        <v>1</v>
+      <c r="E48" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
         <v>28</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="I48" s="2" t="s">
         <v>3383</v>
       </c>
-      <c r="I48" s="2">
+      <c r="J48" s="2">
         <v>99999999</v>
       </c>
-      <c r="J48" s="2">
+      <c r="K48" s="2">
         <v>7</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="L48" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L48" s="2">
+      <c r="M48" s="2">
         <v>11111111</v>
       </c>
-      <c r="M48" s="2"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -12651,33 +12802,36 @@
       <c r="D49" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E49">
-        <v>1</v>
+      <c r="E49" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
         <v>28</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>3384</v>
       </c>
-      <c r="I49" s="2">
+      <c r="J49" s="2">
         <v>99999999</v>
       </c>
-      <c r="J49" s="2">
+      <c r="K49" s="2">
         <v>2</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="L49" s="2" t="s">
         <v>3385</v>
       </c>
-      <c r="L49" s="2">
+      <c r="M49" s="2">
         <v>11111111</v>
       </c>
-      <c r="M49" s="2"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="N49" s="2"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -12690,36 +12844,39 @@
       <c r="D50" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E50">
-        <v>1</v>
+      <c r="E50" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
         <v>28</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="I50" s="2" t="s">
         <v>3386</v>
       </c>
-      <c r="I50" s="2">
+      <c r="J50" s="2">
         <v>99999999</v>
       </c>
-      <c r="J50" s="2">
+      <c r="K50" s="2">
         <v>30</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="L50" s="2" t="s">
         <v>3362</v>
       </c>
-      <c r="L50" s="2">
+      <c r="M50" s="2">
         <v>11111111</v>
       </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="15" t="s">
+      <c r="N50" s="2"/>
+      <c r="O50" s="15" t="s">
         <v>3387</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -12732,34 +12889,37 @@
       <c r="D51" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E51">
-        <v>1</v>
+      <c r="E51" s="8" t="s">
+        <v>3392</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
       <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
         <v>28</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="I51" s="2" t="s">
         <v>3388</v>
       </c>
-      <c r="I51" s="2">
+      <c r="J51" s="2">
         <v>99999999</v>
       </c>
-      <c r="J51" s="2">
+      <c r="K51" s="2">
         <v>84</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="L51" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L51" s="2">
+      <c r="M51" s="2">
         <v>11111111</v>
       </c>
-      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R6" xr:uid="{90350D13-E130-47A5-A64D-77E01FA3003F}"/>
+  <autoFilter ref="A1:S6" xr:uid="{90350D13-E130-47A5-A64D-77E01FA3003F}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12774,13 +12934,13 @@
       <selection activeCell="A691" sqref="A691"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>25</v>
       </c>
@@ -12842,7 +13002,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -12890,7 +13050,7 @@
       </c>
       <c r="T2" s="9"/>
     </row>
-    <row r="3" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -12938,7 +13098,7 @@
       </c>
       <c r="T3" s="9"/>
     </row>
-    <row r="4" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -12990,7 +13150,7 @@
       </c>
       <c r="T4" s="9"/>
     </row>
-    <row r="5" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -13038,7 +13198,7 @@
       </c>
       <c r="T5" s="9"/>
     </row>
-    <row r="6" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -13090,7 +13250,7 @@
       </c>
       <c r="T6" s="9"/>
     </row>
-    <row r="7" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -13140,7 +13300,7 @@
       </c>
       <c r="T7" s="9"/>
     </row>
-    <row r="8" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -13190,7 +13350,7 @@
       </c>
       <c r="T8" s="9"/>
     </row>
-    <row r="9" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -13242,7 +13402,7 @@
       </c>
       <c r="T9" s="9"/>
     </row>
-    <row r="10" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -13292,7 +13452,7 @@
       </c>
       <c r="T10" s="9"/>
     </row>
-    <row r="11" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -13342,7 +13502,7 @@
       </c>
       <c r="T11" s="9"/>
     </row>
-    <row r="12" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -13394,7 +13554,7 @@
       </c>
       <c r="T12" s="9"/>
     </row>
-    <row r="13" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -13444,7 +13604,7 @@
       </c>
       <c r="T13" s="9"/>
     </row>
-    <row r="14" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -13496,7 +13656,7 @@
       </c>
       <c r="T14" s="9"/>
     </row>
-    <row r="15" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -13546,7 +13706,7 @@
       </c>
       <c r="T15" s="9"/>
     </row>
-    <row r="16" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -13595,7 +13755,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -13644,7 +13804,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -13693,7 +13853,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -13742,7 +13902,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -13789,7 +13949,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -13838,7 +13998,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -13885,7 +14045,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -13932,7 +14092,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -13981,7 +14141,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -14028,7 +14188,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -14077,7 +14237,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -14124,7 +14284,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -14175,7 +14335,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -14224,7 +14384,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -14273,7 +14433,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -14320,7 +14480,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -14367,7 +14527,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -14414,7 +14574,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -14463,7 +14623,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A35" s="9">
         <v>34</v>
       </c>
@@ -14512,7 +14672,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -14561,7 +14721,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A37" s="9">
         <v>36</v>
       </c>
@@ -14608,7 +14768,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A38" s="9">
         <v>37</v>
       </c>
@@ -14657,7 +14817,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A39" s="9">
         <v>38</v>
       </c>
@@ -14706,7 +14866,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A40" s="9">
         <v>39</v>
       </c>
@@ -14755,7 +14915,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A41" s="9">
         <v>40</v>
       </c>
@@ -14802,7 +14962,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A42" s="9">
         <v>41</v>
       </c>
@@ -14851,7 +15011,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A43" s="9">
         <v>42</v>
       </c>
@@ -14900,7 +15060,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A44" s="9">
         <v>43</v>
       </c>
@@ -14949,7 +15109,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A45" s="9">
         <v>44</v>
       </c>
@@ -14998,7 +15158,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A46" s="9">
         <v>45</v>
       </c>
@@ -15047,7 +15207,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A47" s="9">
         <v>46</v>
       </c>
@@ -15098,7 +15258,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A48" s="9">
         <v>47</v>
       </c>
@@ -15147,7 +15307,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A49" s="9">
         <v>48</v>
       </c>
@@ -15194,7 +15354,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A50" s="9">
         <v>49</v>
       </c>
@@ -15241,7 +15401,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A51" s="9">
         <v>50</v>
       </c>
@@ -15290,7 +15450,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A52" s="9">
         <v>51</v>
       </c>
@@ -15339,7 +15499,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A53" s="9">
         <v>52</v>
       </c>
@@ -15388,7 +15548,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A54" s="9">
         <v>53</v>
       </c>
@@ -15439,7 +15599,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A55" s="9">
         <v>54</v>
       </c>
@@ -15486,7 +15646,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A56" s="9">
         <v>55</v>
       </c>
@@ -15535,7 +15695,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A57" s="9">
         <v>56</v>
       </c>
@@ -15582,7 +15742,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A58" s="9">
         <v>57</v>
       </c>
@@ -15629,7 +15789,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A59" s="9">
         <v>58</v>
       </c>
@@ -15678,7 +15838,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A60" s="9">
         <v>59</v>
       </c>
@@ -15731,7 +15891,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A61" s="9">
         <v>60</v>
       </c>
@@ -15778,7 +15938,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A62" s="9">
         <v>61</v>
       </c>
@@ -15829,7 +15989,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A63" s="9">
         <v>62</v>
       </c>
@@ -15876,7 +16036,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A64" s="9">
         <v>63</v>
       </c>
@@ -15923,7 +16083,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A65" s="9">
         <v>64</v>
       </c>
@@ -15970,7 +16130,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A66" s="9">
         <v>65</v>
       </c>
@@ -16019,7 +16179,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A67" s="9">
         <v>66</v>
       </c>
@@ -16066,7 +16226,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A68" s="9">
         <v>67</v>
       </c>
@@ -16115,7 +16275,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A69" s="9">
         <v>68</v>
       </c>
@@ -16166,7 +16326,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A70" s="9">
         <v>69</v>
       </c>
@@ -16215,7 +16375,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A71" s="9">
         <v>70</v>
       </c>
@@ -16264,7 +16424,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A72" s="9">
         <v>71</v>
       </c>
@@ -16313,7 +16473,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A73" s="9">
         <v>72</v>
       </c>
@@ -16364,7 +16524,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A74" s="9">
         <v>73</v>
       </c>
@@ -16413,7 +16573,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A75" s="9">
         <v>74</v>
       </c>
@@ -16460,7 +16620,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A76" s="9">
         <v>75</v>
       </c>
@@ -16509,7 +16669,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A77" s="9">
         <v>76</v>
       </c>
@@ -16556,7 +16716,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A78" s="9">
         <v>77</v>
       </c>
@@ -16605,7 +16765,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A79" s="9">
         <v>78</v>
       </c>
@@ -16652,7 +16812,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A80" s="9">
         <v>79</v>
       </c>
@@ -16701,7 +16861,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A81" s="9">
         <v>80</v>
       </c>
@@ -16750,7 +16910,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A82" s="9">
         <v>81</v>
       </c>
@@ -16803,7 +16963,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A83" s="9">
         <v>82</v>
       </c>
@@ -16850,7 +17010,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A84" s="9">
         <v>83</v>
       </c>
@@ -16899,7 +17059,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A85" s="9">
         <v>84</v>
       </c>
@@ -16946,7 +17106,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A86" s="9">
         <v>85</v>
       </c>
@@ -16995,7 +17155,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A87" s="9">
         <v>86</v>
       </c>
@@ -17044,7 +17204,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A88" s="9">
         <v>87</v>
       </c>
@@ -17091,7 +17251,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A89" s="9">
         <v>88</v>
       </c>
@@ -17140,7 +17300,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A90" s="9">
         <v>89</v>
       </c>
@@ -17189,7 +17349,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A91" s="9">
         <v>90</v>
       </c>
@@ -17238,7 +17398,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A92" s="9">
         <v>91</v>
       </c>
@@ -17285,7 +17445,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A93" s="9">
         <v>92</v>
       </c>
@@ -17334,7 +17494,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A94" s="9">
         <v>93</v>
       </c>
@@ -17383,7 +17543,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A95" s="9">
         <v>94</v>
       </c>
@@ -17430,7 +17590,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A96" s="9">
         <v>95</v>
       </c>
@@ -17477,7 +17637,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A97" s="9">
         <v>96</v>
       </c>
@@ -17526,7 +17686,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A98" s="9">
         <v>97</v>
       </c>
@@ -17573,7 +17733,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A99" s="9">
         <v>98</v>
       </c>
@@ -17620,7 +17780,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A100" s="9">
         <v>99</v>
       </c>
@@ -17667,7 +17827,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A101" s="9">
         <v>100</v>
       </c>
@@ -17714,7 +17874,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A102" s="9">
         <v>101</v>
       </c>
@@ -17763,7 +17923,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A103" s="9">
         <v>102</v>
       </c>
@@ -17814,7 +17974,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A104" s="9">
         <v>103</v>
       </c>
@@ -17865,7 +18025,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A105" s="9">
         <v>104</v>
       </c>
@@ -17914,7 +18074,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A106" s="9">
         <v>105</v>
       </c>
@@ -17961,7 +18121,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A107" s="9">
         <v>106</v>
       </c>
@@ -18010,7 +18170,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A108" s="9">
         <v>107</v>
       </c>
@@ -18055,7 +18215,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A109" s="9">
         <v>108</v>
       </c>
@@ -18102,7 +18262,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A110" s="9">
         <v>109</v>
       </c>
@@ -18153,7 +18313,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A111" s="9">
         <v>110</v>
       </c>
@@ -18202,7 +18362,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A112" s="9">
         <v>111</v>
       </c>
@@ -18251,7 +18411,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A113" s="9">
         <v>112</v>
       </c>
@@ -18300,7 +18460,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A114" s="9">
         <v>113</v>
       </c>
@@ -18351,7 +18511,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A115" s="9">
         <v>114</v>
       </c>
@@ -18402,7 +18562,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A116" s="9">
         <v>115</v>
       </c>
@@ -18451,7 +18611,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A117" s="9">
         <v>116</v>
       </c>
@@ -18500,7 +18660,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A118" s="9">
         <v>117</v>
       </c>
@@ -18549,7 +18709,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A119" s="9">
         <v>118</v>
       </c>
@@ -18598,7 +18758,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A120" s="9">
         <v>119</v>
       </c>
@@ -18651,7 +18811,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A121" s="9">
         <v>120</v>
       </c>
@@ -18702,7 +18862,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A122" s="9">
         <v>121</v>
       </c>
@@ -18751,7 +18911,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A123" s="9">
         <v>122</v>
       </c>
@@ -18800,7 +18960,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A124" s="9">
         <v>123</v>
       </c>
@@ -18849,7 +19009,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A125" s="9">
         <v>124</v>
       </c>
@@ -18898,7 +19058,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A126" s="9">
         <v>125</v>
       </c>
@@ -18947,7 +19107,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A127" s="9">
         <v>126</v>
       </c>
@@ -18996,7 +19156,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A128" s="9">
         <v>127</v>
       </c>
@@ -19045,7 +19205,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A129" s="9">
         <v>128</v>
       </c>
@@ -19096,7 +19256,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A130" s="9">
         <v>129</v>
       </c>
@@ -19147,7 +19307,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A131" s="9">
         <v>130</v>
       </c>
@@ -19196,7 +19356,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A132" s="9">
         <v>131</v>
       </c>
@@ -19243,7 +19403,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A133" s="9">
         <v>132</v>
       </c>
@@ -19292,7 +19452,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A134" s="9">
         <v>133</v>
       </c>
@@ -19341,7 +19501,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A135" s="9">
         <v>134</v>
       </c>
@@ -19390,7 +19550,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A136" s="9">
         <v>135</v>
       </c>
@@ -19439,7 +19599,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A137" s="9">
         <v>136</v>
       </c>
@@ -19492,7 +19652,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A138" s="9">
         <v>137</v>
       </c>
@@ -19541,7 +19701,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A139" s="9">
         <v>138</v>
       </c>
@@ -19592,7 +19752,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A140" s="9">
         <v>139</v>
       </c>
@@ -19645,7 +19805,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A141" s="9">
         <v>140</v>
       </c>
@@ -19696,7 +19856,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A142" s="9">
         <v>141</v>
       </c>
@@ -19745,7 +19905,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A143" s="9">
         <v>142</v>
       </c>
@@ -19792,7 +19952,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A144" s="9">
         <v>143</v>
       </c>
@@ -19841,7 +20001,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A145" s="9">
         <v>144</v>
       </c>
@@ -19888,7 +20048,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A146" s="9">
         <v>145</v>
       </c>
@@ -19937,7 +20097,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A147" s="9">
         <v>146</v>
       </c>
@@ -19984,7 +20144,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A148" s="9">
         <v>147</v>
       </c>
@@ -20035,7 +20195,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A149" s="9">
         <v>148</v>
       </c>
@@ -20082,7 +20242,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A150" s="9">
         <v>149</v>
       </c>
@@ -20129,7 +20289,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A151" s="9">
         <v>150</v>
       </c>
@@ -20176,7 +20336,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A152" s="9">
         <v>151</v>
       </c>
@@ -20223,7 +20383,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A153" s="9">
         <v>152</v>
       </c>
@@ -20272,7 +20432,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A154" s="9">
         <v>153</v>
       </c>
@@ -20319,7 +20479,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A155" s="9">
         <v>154</v>
       </c>
@@ -20368,7 +20528,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A156" s="9">
         <v>155</v>
       </c>
@@ -20417,7 +20577,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A157" s="9">
         <v>156</v>
       </c>
@@ -20464,7 +20624,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A158" s="9">
         <v>157</v>
       </c>
@@ -20515,7 +20675,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A159" s="9">
         <v>158</v>
       </c>
@@ -20564,7 +20724,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A160" s="9">
         <v>159</v>
       </c>
@@ -20611,7 +20771,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A161" s="9">
         <v>160</v>
       </c>
@@ -20658,7 +20818,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A162" s="9">
         <v>161</v>
       </c>
@@ -20707,7 +20867,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A163" s="9">
         <v>162</v>
       </c>
@@ -20756,7 +20916,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A164" s="9">
         <v>163</v>
       </c>
@@ -20807,7 +20967,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A165" s="9">
         <v>164</v>
       </c>
@@ -20854,7 +21014,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A166" s="9">
         <v>165</v>
       </c>
@@ -20903,7 +21063,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A167" s="9">
         <v>166</v>
       </c>
@@ -20954,7 +21114,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A168" s="9">
         <v>167</v>
       </c>
@@ -21001,7 +21161,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A169" s="9">
         <v>168</v>
       </c>
@@ -21052,7 +21212,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A170" s="9">
         <v>169</v>
       </c>
@@ -21099,7 +21259,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A171" s="9">
         <v>170</v>
       </c>
@@ -21146,7 +21306,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A172" s="9">
         <v>171</v>
       </c>
@@ -21193,7 +21353,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A173" s="9">
         <v>172</v>
       </c>
@@ -21242,7 +21402,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A174" s="9">
         <v>173</v>
       </c>
@@ -21291,7 +21451,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A175" s="9">
         <v>174</v>
       </c>
@@ -21340,7 +21500,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A176" s="9">
         <v>175</v>
       </c>
@@ -21391,7 +21551,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A177" s="9">
         <v>176</v>
       </c>
@@ -21440,7 +21600,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A178" s="9">
         <v>177</v>
       </c>
@@ -21489,7 +21649,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A179" s="9">
         <v>178</v>
       </c>
@@ -21538,7 +21698,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A180" s="9">
         <v>179</v>
       </c>
@@ -21587,7 +21747,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A181" s="9">
         <v>180</v>
       </c>
@@ -21636,7 +21796,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A182" s="9">
         <v>181</v>
       </c>
@@ -21685,7 +21845,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A183" s="9">
         <v>182</v>
       </c>
@@ -21734,7 +21894,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A184" s="9">
         <v>183</v>
       </c>
@@ -21781,7 +21941,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A185" s="9">
         <v>184</v>
       </c>
@@ -21828,7 +21988,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A186" s="9">
         <v>185</v>
       </c>
@@ -21875,7 +22035,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A187" s="9">
         <v>186</v>
       </c>
@@ -21924,7 +22084,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A188" s="9">
         <v>187</v>
       </c>
@@ -21973,7 +22133,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A189" s="9">
         <v>188</v>
       </c>
@@ -22024,7 +22184,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A190" s="9">
         <v>189</v>
       </c>
@@ -22071,7 +22231,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A191" s="9">
         <v>190</v>
       </c>
@@ -22118,7 +22278,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A192" s="9">
         <v>191</v>
       </c>
@@ -22169,7 +22329,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A193" s="9">
         <v>192</v>
       </c>
@@ -22216,7 +22376,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A194" s="9">
         <v>193</v>
       </c>
@@ -22269,7 +22429,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A195" s="9">
         <v>194</v>
       </c>
@@ -22316,7 +22476,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A196" s="9">
         <v>195</v>
       </c>
@@ -22363,7 +22523,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A197" s="9">
         <v>196</v>
       </c>
@@ -22410,7 +22570,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A198" s="9">
         <v>197</v>
       </c>
@@ -22459,7 +22619,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A199" s="9">
         <v>198</v>
       </c>
@@ -22506,7 +22666,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A200" s="9">
         <v>199</v>
       </c>
@@ -22553,7 +22713,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A201" s="9">
         <v>200</v>
       </c>
@@ -22602,7 +22762,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A202" s="9">
         <v>201</v>
       </c>
@@ -22647,7 +22807,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A203" s="9">
         <v>202</v>
       </c>
@@ -22700,7 +22860,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A204" s="9">
         <v>203</v>
       </c>
@@ -22751,7 +22911,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A205" s="9">
         <v>204</v>
       </c>
@@ -22802,7 +22962,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A206" s="9">
         <v>205</v>
       </c>
@@ -22851,7 +23011,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A207" s="9">
         <v>206</v>
       </c>
@@ -22898,7 +23058,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A208" s="9">
         <v>207</v>
       </c>
@@ -22947,7 +23107,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A209" s="9">
         <v>208</v>
       </c>
@@ -23000,7 +23160,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A210" s="9">
         <v>209</v>
       </c>
@@ -23051,7 +23211,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A211" s="9">
         <v>210</v>
       </c>
@@ -23102,7 +23262,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A212" s="9">
         <v>211</v>
       </c>
@@ -23151,7 +23311,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A213" s="9">
         <v>212</v>
       </c>
@@ -23200,7 +23360,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A214" s="9">
         <v>213</v>
       </c>
@@ -23251,7 +23411,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A215" s="9">
         <v>214</v>
       </c>
@@ -23300,7 +23460,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A216" s="9">
         <v>215</v>
       </c>
@@ -23349,7 +23509,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A217" s="9">
         <v>216</v>
       </c>
@@ -23402,7 +23562,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A218" s="9">
         <v>217</v>
       </c>
@@ -23449,7 +23609,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A219" s="9">
         <v>218</v>
       </c>
@@ -23498,7 +23658,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A220" s="9">
         <v>219</v>
       </c>
@@ -23549,7 +23709,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A221" s="9">
         <v>220</v>
       </c>
@@ -23598,7 +23758,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A222" s="9">
         <v>221</v>
       </c>
@@ -23645,7 +23805,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A223" s="9">
         <v>222</v>
       </c>
@@ -23692,7 +23852,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A224" s="9">
         <v>223</v>
       </c>
@@ -23741,7 +23901,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A225" s="9">
         <v>224</v>
       </c>
@@ -23792,7 +23952,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A226" s="9">
         <v>225</v>
       </c>
@@ -23841,7 +24001,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A227" s="9">
         <v>226</v>
       </c>
@@ -23890,7 +24050,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A228" s="9">
         <v>227</v>
       </c>
@@ -23937,7 +24097,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A229" s="9">
         <v>228</v>
       </c>
@@ -23984,7 +24144,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A230" s="9">
         <v>229</v>
       </c>
@@ -24031,7 +24191,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A231" s="9">
         <v>230</v>
       </c>
@@ -24078,7 +24238,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A232" s="9">
         <v>231</v>
       </c>
@@ -24125,7 +24285,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A233" s="9">
         <v>232</v>
       </c>
@@ -24172,7 +24332,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A234" s="9">
         <v>233</v>
       </c>
@@ -24223,7 +24383,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A235" s="9">
         <v>234</v>
       </c>
@@ -24270,7 +24430,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A236" s="9">
         <v>235</v>
       </c>
@@ -24317,7 +24477,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A237" s="9">
         <v>236</v>
       </c>
@@ -24366,7 +24526,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A238" s="9">
         <v>237</v>
       </c>
@@ -24415,7 +24575,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A239" s="9">
         <v>238</v>
       </c>
@@ -24464,7 +24624,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A240" s="9">
         <v>239</v>
       </c>
@@ -24511,7 +24671,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A241" s="9">
         <v>240</v>
       </c>
@@ -24558,7 +24718,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A242" s="9">
         <v>241</v>
       </c>
@@ -24605,7 +24765,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A243" s="9">
         <v>242</v>
       </c>
@@ -24654,7 +24814,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A244" s="9">
         <v>243</v>
       </c>
@@ -24707,7 +24867,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A245" s="9">
         <v>244</v>
       </c>
@@ -24756,7 +24916,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A246" s="9">
         <v>245</v>
       </c>
@@ -24805,7 +24965,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A247" s="9">
         <v>246</v>
       </c>
@@ -24854,7 +25014,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A248" s="9">
         <v>247</v>
       </c>
@@ -24905,7 +25065,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A249" s="9">
         <v>248</v>
       </c>
@@ -24958,7 +25118,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A250" s="9">
         <v>249</v>
       </c>
@@ -25007,7 +25167,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A251" s="9">
         <v>250</v>
       </c>
@@ -25056,7 +25216,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A252" s="9">
         <v>251</v>
       </c>
@@ -25105,7 +25265,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A253" s="9">
         <v>252</v>
       </c>
@@ -25154,7 +25314,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A254" s="9">
         <v>253</v>
       </c>
@@ -25203,7 +25363,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A255" s="9">
         <v>254</v>
       </c>
@@ -25250,7 +25410,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A256" s="9">
         <v>255</v>
       </c>
@@ -25299,7 +25459,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A257" s="9">
         <v>256</v>
       </c>
@@ -25348,7 +25508,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A258" s="9">
         <v>257</v>
       </c>
@@ -25401,7 +25561,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A259" s="9">
         <v>258</v>
       </c>
@@ -25452,7 +25612,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A260" s="9">
         <v>259</v>
       </c>
@@ -25505,7 +25665,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A261" s="9">
         <v>260</v>
       </c>
@@ -25554,7 +25714,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A262" s="9">
         <v>261</v>
       </c>
@@ -25603,7 +25763,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A263" s="9">
         <v>262</v>
       </c>
@@ -25652,7 +25812,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A264" s="9">
         <v>263</v>
       </c>
@@ -25701,7 +25861,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A265" s="9">
         <v>264</v>
       </c>
@@ -25752,7 +25912,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A266" s="9">
         <v>265</v>
       </c>
@@ -25803,7 +25963,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A267" s="9">
         <v>266</v>
       </c>
@@ -25850,7 +26010,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A268" s="9">
         <v>267</v>
       </c>
@@ -25899,7 +26059,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A269" s="9">
         <v>268</v>
       </c>
@@ -25948,7 +26108,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A270" s="9">
         <v>269</v>
       </c>
@@ -25997,7 +26157,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A271" s="9">
         <v>270</v>
       </c>
@@ -26042,7 +26202,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A272" s="9">
         <v>271</v>
       </c>
@@ -26089,7 +26249,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A273" s="9">
         <v>272</v>
       </c>
@@ -26138,7 +26298,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A274" s="9">
         <v>273</v>
       </c>
@@ -26183,7 +26343,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A275" s="9">
         <v>274</v>
       </c>
@@ -26232,7 +26392,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A276" s="9">
         <v>275</v>
       </c>
@@ -26279,7 +26439,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A277" s="9">
         <v>276</v>
       </c>
@@ -26328,7 +26488,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A278" s="9">
         <v>277</v>
       </c>
@@ -26379,7 +26539,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A279" s="9">
         <v>278</v>
       </c>
@@ -26430,7 +26590,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A280" s="9">
         <v>279</v>
       </c>
@@ -26479,7 +26639,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="281" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A281" s="9">
         <v>280</v>
       </c>
@@ -26526,7 +26686,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="282" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A282" s="9">
         <v>281</v>
       </c>
@@ -26573,7 +26733,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="283" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A283" s="9">
         <v>282</v>
       </c>
@@ -26624,7 +26784,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="284" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A284" s="9">
         <v>283</v>
       </c>
@@ -26673,7 +26833,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="285" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A285" s="9">
         <v>284</v>
       </c>
@@ -26722,7 +26882,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="286" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A286" s="9">
         <v>285</v>
       </c>
@@ -26773,7 +26933,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="287" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A287" s="9">
         <v>286</v>
       </c>
@@ -26824,7 +26984,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="288" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A288" s="9">
         <v>287</v>
       </c>
@@ -26873,7 +27033,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A289" s="9">
         <v>288</v>
       </c>
@@ -26926,7 +27086,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A290" s="9">
         <v>289</v>
       </c>
@@ -26975,7 +27135,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A291" s="9">
         <v>290</v>
       </c>
@@ -27024,7 +27184,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A292" s="9">
         <v>291</v>
       </c>
@@ -27075,7 +27235,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A293" s="9">
         <v>292</v>
       </c>
@@ -27126,7 +27286,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A294" s="9">
         <v>293</v>
       </c>
@@ -27177,7 +27337,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A295" s="9">
         <v>294</v>
       </c>
@@ -27228,7 +27388,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A296" s="9">
         <v>295</v>
       </c>
@@ -27281,7 +27441,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A297" s="9">
         <v>296</v>
       </c>
@@ -27332,7 +27492,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="298" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A298" s="9">
         <v>297</v>
       </c>
@@ -27383,7 +27543,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="299" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A299" s="9">
         <v>298</v>
       </c>
@@ -27434,7 +27594,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="300" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A300" s="9">
         <v>299</v>
       </c>
@@ -27485,7 +27645,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="301" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A301" s="9">
         <v>300</v>
       </c>
@@ -27534,7 +27694,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="302" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A302" s="9">
         <v>301</v>
       </c>
@@ -27587,7 +27747,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A303" s="9">
         <v>302</v>
       </c>
@@ -27636,7 +27796,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A304" s="9">
         <v>303</v>
       </c>
@@ -27685,7 +27845,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A305" s="9">
         <v>304</v>
       </c>
@@ -27730,7 +27890,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A306" s="9">
         <v>305</v>
       </c>
@@ -27781,7 +27941,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="307" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A307" s="9">
         <v>306</v>
       </c>
@@ -27828,7 +27988,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A308" s="9">
         <v>307</v>
       </c>
@@ -27877,7 +28037,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="309" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A309" s="9">
         <v>308</v>
       </c>
@@ -27926,7 +28086,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="310" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A310" s="9">
         <v>309</v>
       </c>
@@ -27975,7 +28135,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="311" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A311" s="9">
         <v>310</v>
       </c>
@@ -28026,7 +28186,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="312" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A312" s="9">
         <v>311</v>
       </c>
@@ -28073,7 +28233,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="313" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A313" s="9">
         <v>312</v>
       </c>
@@ -28122,7 +28282,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="314" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A314" s="9">
         <v>313</v>
       </c>
@@ -28171,7 +28331,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="315" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A315" s="9">
         <v>314</v>
       </c>
@@ -28222,7 +28382,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="316" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A316" s="9">
         <v>315</v>
       </c>
@@ -28269,7 +28429,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A317" s="9">
         <v>316</v>
       </c>
@@ -28320,7 +28480,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="318" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A318" s="9">
         <v>317</v>
       </c>
@@ -28367,7 +28527,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="319" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A319" s="9">
         <v>318</v>
       </c>
@@ -28416,7 +28576,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="320" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A320" s="9">
         <v>319</v>
       </c>
@@ -28463,7 +28623,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="321" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A321" s="9">
         <v>320</v>
       </c>
@@ -28512,7 +28672,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="322" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A322" s="9">
         <v>321</v>
       </c>
@@ -28561,7 +28721,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="323" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A323" s="9">
         <v>322</v>
       </c>
@@ -28610,7 +28770,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="324" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A324" s="9">
         <v>323</v>
       </c>
@@ -28659,7 +28819,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="325" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A325" s="9">
         <v>324</v>
       </c>
@@ -28708,7 +28868,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="326" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A326" s="9">
         <v>325</v>
       </c>
@@ -28755,7 +28915,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="327" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A327" s="9">
         <v>326</v>
       </c>
@@ -28804,7 +28964,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="328" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A328" s="9">
         <v>327</v>
       </c>
@@ -28853,7 +29013,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="329" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A329" s="9">
         <v>328</v>
       </c>
@@ -28900,7 +29060,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="330" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A330" s="9">
         <v>329</v>
       </c>
@@ -28949,7 +29109,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="331" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A331" s="9">
         <v>330</v>
       </c>
@@ -28998,7 +29158,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="332" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A332" s="9">
         <v>331</v>
       </c>
@@ -29047,7 +29207,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="333" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A333" s="9">
         <v>332</v>
       </c>
@@ -29098,7 +29258,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="334" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A334" s="9">
         <v>333</v>
       </c>
@@ -29145,7 +29305,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="335" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A335" s="9">
         <v>334</v>
       </c>
@@ -29194,7 +29354,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="336" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A336" s="9">
         <v>335</v>
       </c>
@@ -29243,7 +29403,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="337" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A337" s="9">
         <v>336</v>
       </c>
@@ -29290,7 +29450,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="338" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A338" s="9">
         <v>337</v>
       </c>
@@ -29339,7 +29499,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="339" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A339" s="9">
         <v>338</v>
       </c>
@@ -29388,7 +29548,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="340" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A340" s="9">
         <v>339</v>
       </c>
@@ -29437,7 +29597,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="341" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A341" s="9">
         <v>340</v>
       </c>
@@ -29486,7 +29646,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="342" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A342" s="9">
         <v>341</v>
       </c>
@@ -29533,7 +29693,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="343" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A343" s="9">
         <v>342</v>
       </c>
@@ -29580,7 +29740,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="344" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A344" s="9">
         <v>343</v>
       </c>
@@ -29629,7 +29789,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="345" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A345" s="9">
         <v>344</v>
       </c>
@@ -29676,7 +29836,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="346" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A346" s="9">
         <v>345</v>
       </c>
@@ -29725,7 +29885,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="347" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A347" s="9">
         <v>346</v>
       </c>
@@ -29772,7 +29932,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="348" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A348" s="9">
         <v>347</v>
       </c>
@@ -29821,7 +29981,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="349" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A349" s="9">
         <v>348</v>
       </c>
@@ -29872,7 +30032,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="350" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A350" s="9">
         <v>349</v>
       </c>
@@ -29921,7 +30081,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="351" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A351" s="9">
         <v>350</v>
       </c>
@@ -29970,7 +30130,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="352" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A352" s="9">
         <v>351</v>
       </c>
@@ -30023,7 +30183,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="353" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A353" s="9">
         <v>352</v>
       </c>
@@ -30074,7 +30234,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="354" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A354" s="9">
         <v>353</v>
       </c>
@@ -30125,7 +30285,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="355" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A355" s="9">
         <v>354</v>
       </c>
@@ -30176,7 +30336,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="356" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A356" s="9">
         <v>355</v>
       </c>
@@ -30227,7 +30387,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="357" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A357" s="9">
         <v>356</v>
       </c>
@@ -30278,7 +30438,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="358" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A358" s="9">
         <v>357</v>
       </c>
@@ -30329,7 +30489,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="359" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A359" s="9">
         <v>358</v>
       </c>
@@ -30380,7 +30540,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="360" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A360" s="9">
         <v>359</v>
       </c>
@@ -30431,7 +30591,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="361" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A361" s="9">
         <v>360</v>
       </c>
@@ -30482,7 +30642,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="362" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A362" s="9">
         <v>361</v>
       </c>
@@ -30531,7 +30691,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="363" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A363" s="9">
         <v>362</v>
       </c>
@@ -30580,7 +30740,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="364" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A364" s="9">
         <v>363</v>
       </c>
@@ -30629,7 +30789,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="365" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A365" s="9">
         <v>364</v>
       </c>
@@ -30680,7 +30840,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="366" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A366" s="9">
         <v>365</v>
       </c>
@@ -30731,7 +30891,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="367" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A367" s="9">
         <v>366</v>
       </c>
@@ -30780,7 +30940,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="368" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A368" s="9">
         <v>367</v>
       </c>
@@ -30829,7 +30989,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="369" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A369" s="9">
         <v>368</v>
       </c>
@@ -30880,7 +31040,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="370" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A370" s="9">
         <v>369</v>
       </c>
@@ -30933,7 +31093,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="371" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A371" s="9">
         <v>370</v>
       </c>
@@ -30984,7 +31144,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="372" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A372" s="9">
         <v>371</v>
       </c>
@@ -31037,7 +31197,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="373" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A373" s="9">
         <v>372</v>
       </c>
@@ -31088,7 +31248,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="374" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A374" s="9">
         <v>373</v>
       </c>
@@ -31137,7 +31297,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="375" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A375" s="9">
         <v>374</v>
       </c>
@@ -31188,7 +31348,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="376" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A376" s="9">
         <v>375</v>
       </c>
@@ -31239,7 +31399,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="377" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A377" s="9">
         <v>376</v>
       </c>
@@ -31288,7 +31448,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="378" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A378" s="9">
         <v>377</v>
       </c>
@@ -31339,7 +31499,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="379" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A379" s="9">
         <v>378</v>
       </c>
@@ -31388,7 +31548,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="380" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A380" s="9">
         <v>379</v>
       </c>
@@ -31439,7 +31599,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="381" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A381" s="9">
         <v>380</v>
       </c>
@@ -31492,7 +31652,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="382" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A382" s="9">
         <v>381</v>
       </c>
@@ -31541,7 +31701,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="383" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A383" s="9">
         <v>382</v>
       </c>
@@ -31590,7 +31750,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="384" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A384" s="9">
         <v>383</v>
       </c>
@@ -31639,7 +31799,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="385" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A385" s="9">
         <v>384</v>
       </c>
@@ -31690,7 +31850,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="386" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A386" s="9">
         <v>385</v>
       </c>
@@ -31743,7 +31903,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="387" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A387" s="9">
         <v>386</v>
       </c>
@@ -31792,7 +31952,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="388" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A388" s="9">
         <v>387</v>
       </c>
@@ -31845,7 +32005,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="389" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A389" s="9">
         <v>388</v>
       </c>
@@ -31896,7 +32056,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="390" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A390" s="9">
         <v>389</v>
       </c>
@@ -31945,7 +32105,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="391" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A391" s="9">
         <v>390</v>
       </c>
@@ -31994,7 +32154,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="392" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A392" s="9">
         <v>391</v>
       </c>
@@ -32045,7 +32205,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="393" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A393" s="9">
         <v>392</v>
       </c>
@@ -32098,7 +32258,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="394" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A394" s="9">
         <v>393</v>
       </c>
@@ -32149,7 +32309,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="395" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A395" s="9">
         <v>394</v>
       </c>
@@ -32198,7 +32358,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="396" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A396" s="9">
         <v>395</v>
       </c>
@@ -32247,7 +32407,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="397" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A397" s="9">
         <v>396</v>
       </c>
@@ -32296,7 +32456,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="398" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A398" s="9">
         <v>397</v>
       </c>
@@ -32345,7 +32505,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="399" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A399" s="9">
         <v>398</v>
       </c>
@@ -32396,7 +32556,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="400" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A400" s="9">
         <v>399</v>
       </c>
@@ -32447,7 +32607,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="401" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A401" s="9">
         <v>400</v>
       </c>
@@ -32494,7 +32654,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="402" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A402" s="9">
         <v>401</v>
       </c>
@@ -32541,7 +32701,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="403" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A403" s="9">
         <v>402</v>
       </c>
@@ -32590,7 +32750,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="404" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A404" s="9">
         <v>403</v>
       </c>
@@ -32639,7 +32799,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="405" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A405" s="9">
         <v>404</v>
       </c>
@@ -32688,7 +32848,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="406" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A406" s="9">
         <v>405</v>
       </c>
@@ -32737,7 +32897,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="407" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A407" s="9">
         <v>406</v>
       </c>
@@ -32786,7 +32946,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="408" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A408" s="9">
         <v>407</v>
       </c>
@@ -32835,7 +32995,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="409" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A409" s="9">
         <v>408</v>
       </c>
@@ -32884,7 +33044,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="410" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A410" s="9">
         <v>409</v>
       </c>
@@ -32935,7 +33095,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="411" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A411" s="9">
         <v>410</v>
       </c>
@@ -32984,7 +33144,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="412" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A412" s="9">
         <v>411</v>
       </c>
@@ -33033,7 +33193,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="413" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A413" s="9">
         <v>412</v>
       </c>
@@ -33078,7 +33238,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="414" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A414" s="9">
         <v>413</v>
       </c>
@@ -33129,7 +33289,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="415" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A415" s="9">
         <v>414</v>
       </c>
@@ -33178,7 +33338,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="416" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A416" s="9">
         <v>415</v>
       </c>
@@ -33229,7 +33389,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="417" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A417" s="9">
         <v>416</v>
       </c>
@@ -33282,7 +33442,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="418" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A418" s="9">
         <v>417</v>
       </c>
@@ -33333,7 +33493,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="419" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A419" s="9">
         <v>418</v>
       </c>
@@ -33384,7 +33544,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="420" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A420" s="9">
         <v>419</v>
       </c>
@@ -33433,7 +33593,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="421" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A421" s="9">
         <v>420</v>
       </c>
@@ -33482,7 +33642,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="422" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A422" s="9">
         <v>421</v>
       </c>
@@ -33531,7 +33691,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="423" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A423" s="9">
         <v>422</v>
       </c>
@@ -33580,7 +33740,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="424" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A424" s="9">
         <v>423</v>
       </c>
@@ -33629,7 +33789,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="425" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A425" s="9">
         <v>424</v>
       </c>
@@ -33678,7 +33838,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="426" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A426" s="9">
         <v>425</v>
       </c>
@@ -33727,7 +33887,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="427" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A427" s="9">
         <v>426</v>
       </c>
@@ -33778,7 +33938,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="428" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A428" s="9">
         <v>427</v>
       </c>
@@ -33827,7 +33987,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="429" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A429" s="9">
         <v>428</v>
       </c>
@@ -33874,7 +34034,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="430" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A430" s="9">
         <v>429</v>
       </c>
@@ -33923,7 +34083,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="431" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A431" s="9">
         <v>430</v>
       </c>
@@ -33972,7 +34132,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="432" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A432" s="9">
         <v>431</v>
       </c>
@@ -34021,7 +34181,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="433" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A433" s="9">
         <v>432</v>
       </c>
@@ -34070,7 +34230,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="434" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A434" s="9">
         <v>433</v>
       </c>
@@ -34119,7 +34279,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="435" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A435" s="9">
         <v>434</v>
       </c>
@@ -34166,7 +34326,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="436" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A436" s="9">
         <v>435</v>
       </c>
@@ -34215,7 +34375,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="437" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A437" s="9">
         <v>436</v>
       </c>
@@ -34264,7 +34424,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="438" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A438" s="9">
         <v>437</v>
       </c>
@@ -34313,7 +34473,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="439" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A439" s="9">
         <v>438</v>
       </c>
@@ -34362,7 +34522,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="440" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A440" s="9">
         <v>439</v>
       </c>
@@ -34413,7 +34573,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="441" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A441" s="9">
         <v>440</v>
       </c>
@@ -34464,7 +34624,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="442" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A442" s="9">
         <v>441</v>
       </c>
@@ -34513,7 +34673,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="443" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A443" s="9">
         <v>442</v>
       </c>
@@ -34564,7 +34724,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="444" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A444" s="9">
         <v>443</v>
       </c>
@@ -34617,7 +34777,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="445" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A445" s="9">
         <v>444</v>
       </c>
@@ -34666,7 +34826,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="446" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A446" s="9">
         <v>445</v>
       </c>
@@ -34715,7 +34875,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="447" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A447" s="9">
         <v>446</v>
       </c>
@@ -34762,7 +34922,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="448" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A448" s="9">
         <v>447</v>
       </c>
@@ -34811,7 +34971,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="449" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A449" s="9">
         <v>448</v>
       </c>
@@ -34858,7 +35018,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="450" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A450" s="9">
         <v>449</v>
       </c>
@@ -34907,7 +35067,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="451" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A451" s="9">
         <v>450</v>
       </c>
@@ -34954,7 +35114,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="452" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A452" s="9">
         <v>451</v>
       </c>
@@ -35003,7 +35163,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="453" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A453" s="9">
         <v>452</v>
       </c>
@@ -35054,7 +35214,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="454" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A454" s="9">
         <v>453</v>
       </c>
@@ -35105,7 +35265,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="455" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A455" s="9">
         <v>454</v>
       </c>
@@ -35152,7 +35312,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="456" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A456" s="9">
         <v>455</v>
       </c>
@@ -35201,7 +35361,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="457" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A457" s="9">
         <v>456</v>
       </c>
@@ -35250,7 +35410,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="458" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A458" s="9">
         <v>457</v>
       </c>
@@ -35301,7 +35461,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="459" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A459" s="9">
         <v>458</v>
       </c>
@@ -35352,7 +35512,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="460" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A460" s="9">
         <v>459</v>
       </c>
@@ -35399,7 +35559,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="461" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A461" s="9">
         <v>460</v>
       </c>
@@ -35450,7 +35610,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="462" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A462" s="9">
         <v>461</v>
       </c>
@@ -35499,7 +35659,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="463" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A463" s="9">
         <v>462</v>
       </c>
@@ -35552,7 +35712,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="464" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A464" s="9">
         <v>463</v>
       </c>
@@ -35603,7 +35763,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="465" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A465" s="9">
         <v>464</v>
       </c>
@@ -35650,7 +35810,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="466" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A466" s="9">
         <v>465</v>
       </c>
@@ -35699,7 +35859,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="467" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A467" s="9">
         <v>466</v>
       </c>
@@ -35752,7 +35912,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="468" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A468" s="9">
         <v>467</v>
       </c>
@@ -35799,7 +35959,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="469" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A469" s="9">
         <v>468</v>
       </c>
@@ -35852,7 +36012,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="470" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A470" s="9">
         <v>469</v>
       </c>
@@ -35901,7 +36061,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="471" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A471" s="9">
         <v>470</v>
       </c>
@@ -35954,7 +36114,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="472" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A472" s="9">
         <v>471</v>
       </c>
@@ -36005,7 +36165,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="473" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A473" s="9">
         <v>472</v>
       </c>
@@ -36056,7 +36216,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="474" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A474" s="9">
         <v>473</v>
       </c>
@@ -36105,7 +36265,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="475" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A475" s="9">
         <v>474</v>
       </c>
@@ -36154,7 +36314,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="476" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A476" s="9">
         <v>475</v>
       </c>
@@ -36201,7 +36361,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="477" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A477" s="9">
         <v>476</v>
       </c>
@@ -36250,7 +36410,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="478" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A478" s="9">
         <v>477</v>
       </c>
@@ -36301,7 +36461,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="479" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A479" s="9">
         <v>478</v>
       </c>
@@ -36350,7 +36510,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="480" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A480" s="9">
         <v>479</v>
       </c>
@@ -36399,7 +36559,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="481" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A481" s="9">
         <v>480</v>
       </c>
@@ -36448,7 +36608,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="482" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A482" s="9">
         <v>481</v>
       </c>
@@ -36497,7 +36657,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="483" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A483" s="9">
         <v>482</v>
       </c>
@@ -36546,7 +36706,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="484" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A484" s="9">
         <v>483</v>
       </c>
@@ -36593,7 +36753,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="485" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A485" s="9">
         <v>484</v>
       </c>
@@ -36640,7 +36800,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="486" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A486" s="9">
         <v>485</v>
       </c>
@@ -36689,7 +36849,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="487" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A487" s="9">
         <v>486</v>
       </c>
@@ -36738,7 +36898,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="488" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A488" s="9">
         <v>487</v>
       </c>
@@ -36787,7 +36947,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="489" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A489" s="9">
         <v>488</v>
       </c>
@@ -36838,7 +36998,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="490" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A490" s="9">
         <v>489</v>
       </c>
@@ -36887,7 +37047,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="491" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A491" s="9">
         <v>490</v>
       </c>
@@ -36936,7 +37096,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="492" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A492" s="9">
         <v>491</v>
       </c>
@@ -36987,7 +37147,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="493" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A493" s="9">
         <v>492</v>
       </c>
@@ -37038,7 +37198,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="494" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A494" s="9">
         <v>493</v>
       </c>
@@ -37087,7 +37247,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="495" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A495" s="9">
         <v>494</v>
       </c>
@@ -37134,7 +37294,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="496" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A496" s="9">
         <v>495</v>
       </c>
@@ -37185,7 +37345,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="497" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A497" s="9">
         <v>496</v>
       </c>
@@ -37234,7 +37394,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="498" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A498" s="9">
         <v>497</v>
       </c>
@@ -37283,7 +37443,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="499" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A499" s="9">
         <v>498</v>
       </c>
@@ -37330,7 +37490,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="500" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A500" s="9">
         <v>499</v>
       </c>
@@ -37379,7 +37539,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="501" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A501" s="9">
         <v>500</v>
       </c>
@@ -37428,7 +37588,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="502" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A502" s="9">
         <v>501</v>
       </c>
@@ -37477,7 +37637,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="503" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A503" s="9">
         <v>502</v>
       </c>
@@ -37526,7 +37686,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="504" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A504" s="9">
         <v>503</v>
       </c>
@@ -37575,7 +37735,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="505" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A505" s="9">
         <v>504</v>
       </c>
@@ -37624,7 +37784,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="506" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A506" s="9">
         <v>505</v>
       </c>
@@ -37673,7 +37833,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="507" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A507" s="9">
         <v>506</v>
       </c>
@@ -37720,7 +37880,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="508" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A508" s="9">
         <v>507</v>
       </c>
@@ -37769,7 +37929,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="509" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A509" s="9">
         <v>508</v>
       </c>
@@ -37818,7 +37978,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="510" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A510" s="9">
         <v>509</v>
       </c>
@@ -37867,7 +38027,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="511" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A511" s="9">
         <v>510</v>
       </c>
@@ -37914,7 +38074,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="512" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A512" s="9">
         <v>511</v>
       </c>
@@ -37963,7 +38123,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="513" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A513" s="9">
         <v>512</v>
       </c>
@@ -38012,7 +38172,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="514" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A514" s="9">
         <v>513</v>
       </c>
@@ -38061,7 +38221,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="515" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A515" s="9">
         <v>514</v>
       </c>
@@ -38110,7 +38270,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="516" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A516" s="9">
         <v>515</v>
       </c>
@@ -38157,7 +38317,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="517" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A517" s="9">
         <v>516</v>
       </c>
@@ -38208,7 +38368,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="518" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A518" s="9">
         <v>517</v>
       </c>
@@ -38259,7 +38419,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="519" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A519" s="9">
         <v>518</v>
       </c>
@@ -38310,7 +38470,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="520" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A520" s="9">
         <v>519</v>
       </c>
@@ -38359,7 +38519,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="521" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A521" s="9">
         <v>520</v>
       </c>
@@ -38410,7 +38570,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="522" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A522" s="9">
         <v>521</v>
       </c>
@@ -38459,7 +38619,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="523" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A523" s="9">
         <v>522</v>
       </c>
@@ -38506,7 +38666,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="524" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A524" s="9">
         <v>523</v>
       </c>
@@ -38559,7 +38719,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="525" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A525" s="9">
         <v>524</v>
       </c>
@@ -38610,7 +38770,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="526" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A526" s="9">
         <v>525</v>
       </c>
@@ -38659,7 +38819,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="527" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A527" s="9">
         <v>526</v>
       </c>
@@ -38708,7 +38868,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="528" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A528" s="9">
         <v>527</v>
       </c>
@@ -38759,7 +38919,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="529" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A529" s="9">
         <v>528</v>
       </c>
@@ -38810,7 +38970,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="530" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A530" s="9">
         <v>529</v>
       </c>
@@ -38861,7 +39021,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="531" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A531" s="9">
         <v>530</v>
       </c>
@@ -38910,7 +39070,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="532" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A532" s="9">
         <v>531</v>
       </c>
@@ -38959,7 +39119,7 @@
         <v>2591</v>
       </c>
     </row>
-    <row r="533" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="533" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A533" s="9">
         <v>532</v>
       </c>
@@ -39010,7 +39170,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="534" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A534" s="9">
         <v>533</v>
       </c>
@@ -39057,7 +39217,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="535" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A535" s="9">
         <v>534</v>
       </c>
@@ -39106,7 +39266,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="536" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="536" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A536" s="9">
         <v>535</v>
       </c>
@@ -39155,7 +39315,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="537" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A537" s="9">
         <v>536</v>
       </c>
@@ -39204,7 +39364,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="538" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A538" s="9">
         <v>537</v>
       </c>
@@ -39255,7 +39415,7 @@
         <v>2617</v>
       </c>
     </row>
-    <row r="539" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="539" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A539" s="9">
         <v>538</v>
       </c>
@@ -39306,7 +39466,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="540" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="540" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A540" s="9">
         <v>539</v>
       </c>
@@ -39355,7 +39515,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="541" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="541" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A541" s="9">
         <v>540</v>
       </c>
@@ -39402,7 +39562,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="542" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A542" s="9">
         <v>541</v>
       </c>
@@ -39451,7 +39611,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="543" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A543" s="9">
         <v>542</v>
       </c>
@@ -39504,7 +39664,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="544" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A544" s="9">
         <v>543</v>
       </c>
@@ -39557,7 +39717,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="545" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="545" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A545" s="9">
         <v>544</v>
       </c>
@@ -39606,7 +39766,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="546" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A546" s="9">
         <v>545</v>
       </c>
@@ -39655,7 +39815,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="547" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A547" s="9">
         <v>546</v>
       </c>
@@ -39704,7 +39864,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="548" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A548" s="9">
         <v>547</v>
       </c>
@@ -39755,7 +39915,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="549" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A549" s="9">
         <v>548</v>
       </c>
@@ -39806,7 +39966,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="550" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A550" s="9">
         <v>549</v>
       </c>
@@ -39855,7 +40015,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="551" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A551" s="9">
         <v>550</v>
       </c>
@@ -39906,7 +40066,7 @@
         <v>2673</v>
       </c>
     </row>
-    <row r="552" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="552" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A552" s="9">
         <v>551</v>
       </c>
@@ -39957,7 +40117,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="553" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="553" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A553" s="9">
         <v>552</v>
       </c>
@@ -40006,7 +40166,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="554" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="554" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A554" s="9">
         <v>553</v>
       </c>
@@ -40055,7 +40215,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="555" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="555" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A555" s="9">
         <v>554</v>
       </c>
@@ -40106,7 +40266,7 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="556" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="556" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A556" s="9">
         <v>555</v>
       </c>
@@ -40155,7 +40315,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="557" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="557" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A557" s="9">
         <v>556</v>
       </c>
@@ -40204,7 +40364,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="558" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="558" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A558" s="9">
         <v>557</v>
       </c>
@@ -40253,7 +40413,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="559" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="559" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A559" s="9">
         <v>558</v>
       </c>
@@ -40302,7 +40462,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="560" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="560" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A560" s="9">
         <v>559</v>
       </c>
@@ -40351,7 +40511,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="561" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="561" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A561" s="9">
         <v>560</v>
       </c>
@@ -40400,7 +40560,7 @@
         <v>2721</v>
       </c>
     </row>
-    <row r="562" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="562" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A562" s="9">
         <v>561</v>
       </c>
@@ -40449,7 +40609,7 @@
         <v>2724</v>
       </c>
     </row>
-    <row r="563" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="563" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A563" s="9">
         <v>562</v>
       </c>
@@ -40498,7 +40658,7 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="564" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="564" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A564" s="9">
         <v>563</v>
       </c>
@@ -40547,7 +40707,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="565" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="565" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A565" s="9">
         <v>564</v>
       </c>
@@ -40596,7 +40756,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="566" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="566" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A566" s="9">
         <v>565</v>
       </c>
@@ -40645,7 +40805,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="567" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="567" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A567" s="9">
         <v>566</v>
       </c>
@@ -40692,7 +40852,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="568" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="568" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A568" s="9">
         <v>567</v>
       </c>
@@ -40739,7 +40899,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="569" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="569" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A569" s="9">
         <v>568</v>
       </c>
@@ -40788,7 +40948,7 @@
         <v>2753</v>
       </c>
     </row>
-    <row r="570" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="570" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A570" s="9">
         <v>569</v>
       </c>
@@ -40839,7 +40999,7 @@
         <v>2757</v>
       </c>
     </row>
-    <row r="571" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="571" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A571" s="9">
         <v>570</v>
       </c>
@@ -40890,7 +41050,7 @@
         <v>2762</v>
       </c>
     </row>
-    <row r="572" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="572" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A572" s="9">
         <v>571</v>
       </c>
@@ -40943,7 +41103,7 @@
         <v>2766</v>
       </c>
     </row>
-    <row r="573" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="573" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A573" s="9">
         <v>572</v>
       </c>
@@ -40992,7 +41152,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="574" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="574" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A574" s="9">
         <v>573</v>
       </c>
@@ -41041,7 +41201,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="575" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="575" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A575" s="9">
         <v>574</v>
       </c>
@@ -41088,7 +41248,7 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="576" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="576" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A576" s="9">
         <v>575</v>
       </c>
@@ -41137,7 +41297,7 @@
         <v>2783</v>
       </c>
     </row>
-    <row r="577" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="577" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A577" s="9">
         <v>576</v>
       </c>
@@ -41184,7 +41344,7 @@
         <v>2787</v>
       </c>
     </row>
-    <row r="578" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="578" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A578" s="9">
         <v>577</v>
       </c>
@@ -41235,7 +41395,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="579" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="579" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A579" s="9">
         <v>578</v>
       </c>
@@ -41284,7 +41444,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="580" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="580" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A580" s="9">
         <v>579</v>
       </c>
@@ -41335,7 +41495,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="581" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="581" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A581" s="9">
         <v>580</v>
       </c>
@@ -41388,7 +41548,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="582" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="582" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A582" s="9">
         <v>581</v>
       </c>
@@ -41441,7 +41601,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="583" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="583" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A583" s="9">
         <v>582</v>
       </c>
@@ -41492,7 +41652,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="584" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="584" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A584" s="9">
         <v>583</v>
       </c>
@@ -41541,7 +41701,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="585" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="585" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A585" s="9">
         <v>584</v>
       </c>
@@ -41592,7 +41752,7 @@
         <v>2826</v>
       </c>
     </row>
-    <row r="586" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="586" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A586" s="9">
         <v>585</v>
       </c>
@@ -41643,7 +41803,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="587" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="587" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A587" s="9">
         <v>586</v>
       </c>
@@ -41694,7 +41854,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="588" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="588" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A588" s="9">
         <v>587</v>
       </c>
@@ -41747,7 +41907,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="589" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="589" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A589" s="9">
         <v>588</v>
       </c>
@@ -41798,7 +41958,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="590" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="590" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A590" s="9">
         <v>589</v>
       </c>
@@ -41847,7 +42007,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="591" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="591" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A591" s="9">
         <v>590</v>
       </c>
@@ -41896,7 +42056,7 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="592" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="592" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A592" s="9">
         <v>591</v>
       </c>
@@ -41944,7 +42104,7 @@
       </c>
       <c r="T592" s="9"/>
     </row>
-    <row r="593" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="593" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A593" s="9">
         <v>592</v>
       </c>
@@ -41994,7 +42154,7 @@
       </c>
       <c r="T593" s="9"/>
     </row>
-    <row r="594" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="594" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A594" s="9">
         <v>593</v>
       </c>
@@ -42044,7 +42204,7 @@
       </c>
       <c r="T594" s="9"/>
     </row>
-    <row r="595" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="595" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A595" s="9">
         <v>594</v>
       </c>
@@ -42096,7 +42256,7 @@
       </c>
       <c r="T595" s="9"/>
     </row>
-    <row r="596" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="596" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A596" s="9">
         <v>595</v>
       </c>
@@ -42150,7 +42310,7 @@
       </c>
       <c r="T596" s="9"/>
     </row>
-    <row r="597" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="597" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A597" s="9">
         <v>596</v>
       </c>
@@ -42202,7 +42362,7 @@
       </c>
       <c r="T597" s="9"/>
     </row>
-    <row r="598" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="598" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A598" s="9">
         <v>597</v>
       </c>
@@ -42254,7 +42414,7 @@
       </c>
       <c r="T598" s="9"/>
     </row>
-    <row r="599" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="599" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A599" s="9">
         <v>598</v>
       </c>
@@ -42304,7 +42464,7 @@
       </c>
       <c r="T599" s="9"/>
     </row>
-    <row r="600" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="600" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A600" s="9">
         <v>599</v>
       </c>
@@ -42354,7 +42514,7 @@
       </c>
       <c r="T600" s="9"/>
     </row>
-    <row r="601" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="601" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A601" s="9">
         <v>600</v>
       </c>
@@ -42404,7 +42564,7 @@
       </c>
       <c r="T601" s="9"/>
     </row>
-    <row r="602" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="602" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A602" s="9">
         <v>601</v>
       </c>
@@ -42450,7 +42610,7 @@
       </c>
       <c r="T602" s="9"/>
     </row>
-    <row r="603" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="603" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A603" s="9">
         <v>602</v>
       </c>
@@ -42502,7 +42662,7 @@
       </c>
       <c r="T603" s="9"/>
     </row>
-    <row r="604" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="604" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A604" s="9">
         <v>603</v>
       </c>
@@ -42554,7 +42714,7 @@
         <v>2913</v>
       </c>
     </row>
-    <row r="605" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="605" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A605" s="9">
         <v>604</v>
       </c>
@@ -42604,7 +42764,7 @@
         <v>2913</v>
       </c>
     </row>
-    <row r="606" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="606" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A606" s="9">
         <v>605</v>
       </c>
@@ -42652,7 +42812,7 @@
       </c>
       <c r="T606" s="9"/>
     </row>
-    <row r="607" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="607" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A607" s="9">
         <v>606</v>
       </c>
@@ -42702,7 +42862,7 @@
       </c>
       <c r="T607" s="9"/>
     </row>
-    <row r="608" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="608" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A608" s="9">
         <v>607</v>
       </c>
@@ -42749,7 +42909,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="609" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="609" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A609" s="9">
         <v>608</v>
       </c>
@@ -42798,7 +42958,7 @@
         <v>2928</v>
       </c>
     </row>
-    <row r="610" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="610" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A610" s="9">
         <v>609</v>
       </c>
@@ -42847,7 +43007,7 @@
         <v>2933</v>
       </c>
     </row>
-    <row r="611" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="611" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A611" s="9">
         <v>610</v>
       </c>
@@ -42896,7 +43056,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="612" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="612" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A612" s="9">
         <v>611</v>
       </c>
@@ -42945,7 +43105,7 @@
         <v>2941</v>
       </c>
     </row>
-    <row r="613" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="613" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A613" s="9">
         <v>612</v>
       </c>
@@ -42994,7 +43154,7 @@
         <v>2946</v>
       </c>
     </row>
-    <row r="614" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="614" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A614" s="9">
         <v>613</v>
       </c>
@@ -43041,7 +43201,7 @@
         <v>2949</v>
       </c>
     </row>
-    <row r="615" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="615" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A615" s="9">
         <v>614</v>
       </c>
@@ -43088,7 +43248,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="616" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="616" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A616" s="9">
         <v>615</v>
       </c>
@@ -43139,7 +43299,7 @@
         <v>2962</v>
       </c>
     </row>
-    <row r="617" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="617" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A617" s="9">
         <v>616</v>
       </c>
@@ -43186,7 +43346,7 @@
         <v>2966</v>
       </c>
     </row>
-    <row r="618" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="618" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A618" s="9">
         <v>617</v>
       </c>
@@ -43235,7 +43395,7 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="619" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="619" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A619" s="9">
         <v>618</v>
       </c>
@@ -43286,7 +43446,7 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="620" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="620" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A620" s="9">
         <v>619</v>
       </c>
@@ -43339,7 +43499,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="621" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="621" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A621" s="9">
         <v>620</v>
       </c>
@@ -43388,7 +43548,7 @@
         <v>2981</v>
       </c>
     </row>
-    <row r="622" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="622" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A622" s="9">
         <v>621</v>
       </c>
@@ -43439,7 +43599,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="623" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="623" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A623" s="9">
         <v>622</v>
       </c>
@@ -43478,7 +43638,7 @@
       <c r="R623" s="9"/>
       <c r="S623" s="9"/>
     </row>
-    <row r="624" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="624" spans="1:19" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A624" s="9">
         <v>623</v>
       </c>
@@ -43529,7 +43689,7 @@
         <v>2993</v>
       </c>
     </row>
-    <row r="625" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="625" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A625" s="9">
         <v>624</v>
       </c>
@@ -43580,7 +43740,7 @@
         <v>2997</v>
       </c>
     </row>
-    <row r="626" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="626" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A626" s="9">
         <v>625</v>
       </c>
@@ -43631,7 +43791,7 @@
         <v>3002</v>
       </c>
     </row>
-    <row r="627" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="627" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A627" s="9">
         <v>626</v>
       </c>
@@ -43682,7 +43842,7 @@
         <v>3007</v>
       </c>
     </row>
-    <row r="628" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="628" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A628" s="9">
         <v>627</v>
       </c>
@@ -43733,7 +43893,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="629" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="629" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A629" s="9">
         <v>628</v>
       </c>
@@ -43784,7 +43944,7 @@
         <v>3016</v>
       </c>
     </row>
-    <row r="630" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="630" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A630" s="9">
         <v>629</v>
       </c>
@@ -43837,7 +43997,7 @@
         <v>3021</v>
       </c>
     </row>
-    <row r="631" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="631" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A631" s="9">
         <v>630</v>
       </c>
@@ -43886,7 +44046,7 @@
         <v>3026</v>
       </c>
     </row>
-    <row r="632" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="632" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A632" s="9">
         <v>631</v>
       </c>
@@ -43935,7 +44095,7 @@
         <v>3031</v>
       </c>
     </row>
-    <row r="633" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="633" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A633" s="9">
         <v>632</v>
       </c>
@@ -43986,7 +44146,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="634" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="634" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A634" s="9">
         <v>633</v>
       </c>
@@ -44033,7 +44193,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="635" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="635" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A635" s="9">
         <v>634</v>
       </c>
@@ -44080,7 +44240,7 @@
         <v>3044</v>
       </c>
     </row>
-    <row r="636" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="636" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A636" s="9">
         <v>635</v>
       </c>
@@ -44127,7 +44287,7 @@
         <v>3048</v>
       </c>
     </row>
-    <row r="637" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="637" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A637" s="9">
         <v>636</v>
       </c>
@@ -44178,7 +44338,7 @@
         <v>3052</v>
       </c>
     </row>
-    <row r="638" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="638" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A638" s="9">
         <v>637</v>
       </c>
@@ -44231,7 +44391,7 @@
         <v>3058</v>
       </c>
     </row>
-    <row r="639" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="639" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A639" s="9">
         <v>638</v>
       </c>
@@ -44278,7 +44438,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="640" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="640" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A640" s="9">
         <v>639</v>
       </c>
@@ -44328,7 +44488,7 @@
       </c>
       <c r="T640" s="9"/>
     </row>
-    <row r="641" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="641" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A641" s="9">
         <v>640</v>
       </c>
@@ -44378,7 +44538,7 @@
       </c>
       <c r="T641" s="9"/>
     </row>
-    <row r="642" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="642" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A642" s="9">
         <v>641</v>
       </c>
@@ -44430,7 +44590,7 @@
         <v>3071</v>
       </c>
     </row>
-    <row r="643" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="643" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A643" s="9">
         <v>642</v>
       </c>
@@ -44478,7 +44638,7 @@
       </c>
       <c r="T643" s="9"/>
     </row>
-    <row r="644" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="644" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A644" s="9">
         <v>643</v>
       </c>
@@ -44526,7 +44686,7 @@
       </c>
       <c r="T644" s="9"/>
     </row>
-    <row r="645" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="645" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A645" s="9">
         <v>644</v>
       </c>
@@ -44576,7 +44736,7 @@
       </c>
       <c r="T645" s="9"/>
     </row>
-    <row r="646" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="646" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A646" s="9">
         <v>645</v>
       </c>
@@ -44626,7 +44786,7 @@
       </c>
       <c r="T646" s="9"/>
     </row>
-    <row r="647" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="647" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A647" s="9">
         <v>646</v>
       </c>
@@ -44676,7 +44836,7 @@
       </c>
       <c r="T647" s="9"/>
     </row>
-    <row r="648" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="648" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A648" s="9">
         <v>647</v>
       </c>
@@ -44728,7 +44888,7 @@
       </c>
       <c r="T648" s="9"/>
     </row>
-    <row r="649" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="649" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A649" s="9">
         <v>648</v>
       </c>
@@ -44780,7 +44940,7 @@
       </c>
       <c r="T649" s="9"/>
     </row>
-    <row r="650" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="650" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A650" s="9">
         <v>649</v>
       </c>
@@ -44830,7 +44990,7 @@
       </c>
       <c r="T650" s="9"/>
     </row>
-    <row r="651" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="651" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A651" s="9">
         <v>650</v>
       </c>
@@ -44882,7 +45042,7 @@
       </c>
       <c r="T651" s="9"/>
     </row>
-    <row r="652" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="652" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A652" s="9">
         <v>651</v>
       </c>
@@ -44936,7 +45096,7 @@
       </c>
       <c r="T652" s="9"/>
     </row>
-    <row r="653" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="653" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A653" s="9">
         <v>652</v>
       </c>
@@ -44988,7 +45148,7 @@
       </c>
       <c r="T653" s="9"/>
     </row>
-    <row r="654" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="654" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A654" s="9">
         <v>653</v>
       </c>
@@ -45044,7 +45204,7 @@
       </c>
       <c r="T654" s="9"/>
     </row>
-    <row r="655" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="655" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A655" s="9">
         <v>654</v>
       </c>
@@ -45094,7 +45254,7 @@
       </c>
       <c r="T655" s="9"/>
     </row>
-    <row r="656" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="656" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A656" s="9">
         <v>655</v>
       </c>
@@ -45146,7 +45306,7 @@
       </c>
       <c r="T656" s="9"/>
     </row>
-    <row r="657" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="657" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A657" s="9">
         <v>656</v>
       </c>
@@ -45200,7 +45360,7 @@
       </c>
       <c r="T657" s="9"/>
     </row>
-    <row r="658" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="658" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A658" s="9">
         <v>657</v>
       </c>
@@ -45252,7 +45412,7 @@
       </c>
       <c r="T658" s="9"/>
     </row>
-    <row r="659" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="659" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A659" s="9">
         <v>658</v>
       </c>
@@ -45304,7 +45464,7 @@
         <v>3142</v>
       </c>
     </row>
-    <row r="660" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="660" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A660" s="9">
         <v>659</v>
       </c>
@@ -45354,7 +45514,7 @@
       </c>
       <c r="T660" s="9"/>
     </row>
-    <row r="661" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="661" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A661" s="9">
         <v>660</v>
       </c>
@@ -45404,7 +45564,7 @@
       </c>
       <c r="T661" s="9"/>
     </row>
-    <row r="662" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="662" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A662" s="9">
         <v>661</v>
       </c>
@@ -45454,7 +45614,7 @@
       </c>
       <c r="T662" s="9"/>
     </row>
-    <row r="663" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="663" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A663" s="9">
         <v>662</v>
       </c>
@@ -45504,7 +45664,7 @@
       </c>
       <c r="T663" s="9"/>
     </row>
-    <row r="664" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="664" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A664" s="9">
         <v>663</v>
       </c>
@@ -45554,7 +45714,7 @@
       </c>
       <c r="T664" s="9"/>
     </row>
-    <row r="665" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="665" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A665" s="9">
         <v>664</v>
       </c>
@@ -45604,7 +45764,7 @@
       </c>
       <c r="T665" s="9"/>
     </row>
-    <row r="666" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="666" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A666" s="9">
         <v>665</v>
       </c>
@@ -45656,7 +45816,7 @@
       </c>
       <c r="T666" s="9"/>
     </row>
-    <row r="667" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="667" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A667" s="9">
         <v>666</v>
       </c>
@@ -45706,7 +45866,7 @@
       </c>
       <c r="T667" s="9"/>
     </row>
-    <row r="668" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="668" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A668" s="9">
         <v>667</v>
       </c>
@@ -45760,7 +45920,7 @@
       </c>
       <c r="T668" s="9"/>
     </row>
-    <row r="669" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="669" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A669" s="9">
         <v>668</v>
       </c>
@@ -45808,7 +45968,7 @@
       </c>
       <c r="T669" s="9"/>
     </row>
-    <row r="670" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="670" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A670" s="9">
         <v>669</v>
       </c>
@@ -45856,7 +46016,7 @@
       </c>
       <c r="T670" s="9"/>
     </row>
-    <row r="671" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="671" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A671" s="9">
         <v>670</v>
       </c>
@@ -45906,7 +46066,7 @@
       </c>
       <c r="T671" s="9"/>
     </row>
-    <row r="672" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="672" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A672" s="9">
         <v>671</v>
       </c>
@@ -45956,7 +46116,7 @@
       </c>
       <c r="T672" s="9"/>
     </row>
-    <row r="673" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="673" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A673" s="9">
         <v>672</v>
       </c>
@@ -46008,7 +46168,7 @@
       </c>
       <c r="T673" s="9"/>
     </row>
-    <row r="674" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="674" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A674" s="9">
         <v>673</v>
       </c>
@@ -46058,7 +46218,7 @@
       </c>
       <c r="T674" s="9"/>
     </row>
-    <row r="675" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="675" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A675" s="9">
         <v>674</v>
       </c>
@@ -46108,7 +46268,7 @@
       </c>
       <c r="T675" s="9"/>
     </row>
-    <row r="676" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="676" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A676" s="9">
         <v>675</v>
       </c>
@@ -46158,7 +46318,7 @@
       </c>
       <c r="T676" s="9"/>
     </row>
-    <row r="677" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="677" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A677" s="9">
         <v>676</v>
       </c>
@@ -46208,7 +46368,7 @@
         <v>3225</v>
       </c>
     </row>
-    <row r="678" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="678" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A678" s="9">
         <v>677</v>
       </c>
@@ -46260,7 +46420,7 @@
       </c>
       <c r="T678" s="9"/>
     </row>
-    <row r="679" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="679" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A679" s="9">
         <v>678</v>
       </c>
@@ -46310,7 +46470,7 @@
       </c>
       <c r="T679" s="9"/>
     </row>
-    <row r="680" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="680" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A680" s="9">
         <v>679</v>
       </c>
@@ -46362,7 +46522,7 @@
       </c>
       <c r="T680" s="9"/>
     </row>
-    <row r="681" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="681" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A681" s="9">
         <v>680</v>
       </c>
@@ -46412,7 +46572,7 @@
         <v>3247</v>
       </c>
     </row>
-    <row r="682" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="682" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A682" s="9">
         <v>681</v>
       </c>
@@ -46462,7 +46622,7 @@
         <v>3254</v>
       </c>
     </row>
-    <row r="683" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="683" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A683" s="9">
         <v>682</v>
       </c>
@@ -46512,7 +46672,7 @@
         <v>3260</v>
       </c>
     </row>
-    <row r="684" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="684" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A684" s="9">
         <v>683</v>
       </c>
@@ -46564,7 +46724,7 @@
         <v>3267</v>
       </c>
     </row>
-    <row r="685" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="685" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A685" s="9">
         <v>684</v>
       </c>
@@ -46610,7 +46770,7 @@
       </c>
       <c r="T685" s="9"/>
     </row>
-    <row r="686" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="686" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A686" s="9">
         <v>685</v>
       </c>
@@ -46662,7 +46822,7 @@
       </c>
       <c r="T686" s="9"/>
     </row>
-    <row r="687" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="687" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A687" s="9">
         <v>686</v>
       </c>
@@ -46714,7 +46874,7 @@
       </c>
       <c r="T687" s="9"/>
     </row>
-    <row r="688" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="688" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A688" s="9">
         <v>687</v>
       </c>
@@ -46764,7 +46924,7 @@
       </c>
       <c r="T688" s="9"/>
     </row>
-    <row r="689" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="689" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A689" s="9">
         <v>688</v>
       </c>
@@ -46814,7 +46974,7 @@
       </c>
       <c r="T689" s="9"/>
     </row>
-    <row r="690" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="690" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A690" s="9">
         <v>689</v>
       </c>
@@ -46860,7 +47020,7 @@
         <v>3303</v>
       </c>
     </row>
-    <row r="691" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="691" spans="1:20" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A691" s="9">
         <v>690</v>
       </c>
